--- a/premise/data/additional_inventories/lci-hydrogen-heating.xlsx
+++ b/premise/data/additional_inventories/lci-hydrogen-heating.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romain/GitHub/premise/premise/data/additional_inventories/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romain/Github/premise/premise/data/additional_inventories/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{172171E5-51CD-A64A-AA80-550E271CE998}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8828EB46-C4A9-704A-AE41-DDEE5691C2DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="36580" yWindow="1660" windowWidth="26840" windowHeight="15940" xr2:uid="{CF516D2F-FFD4-214F-BF62-5C2F0868DC96}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="44800" windowHeight="23000" xr2:uid="{CF516D2F-FFD4-214F-BF62-5C2F0868DC96}"/>
   </bookViews>
   <sheets>
     <sheet name="hydrogen boiler" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'hydrogen boiler'!$A$1:$W$93</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'hydrogen boiler'!$A$1:$W$113</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="566" uniqueCount="121">
   <si>
     <t>Activity</t>
   </si>
@@ -390,6 +390,18 @@
   </si>
   <si>
     <t>cubic meter</t>
+  </si>
+  <si>
+    <t>hydrogen supply, distributed by pipeline</t>
+  </si>
+  <si>
+    <t>market for hydrogen, gaseous</t>
+  </si>
+  <si>
+    <t>hydrogen, gaseous</t>
+  </si>
+  <si>
+    <t>This dataset represents the supply of 1 kilogram of hydrogen. The hydrogen is distributed by pipeline over 250 km to the regional storage (Geological cavity) and transported another 250 km to the consumer.  The hydrogen represents the market average for the region. Transmission loss [% output]: 0.0007125%. Regional storage loss [% output]: 0.69.  Arrives at 30 bar of pressure. For more information, refer to: Sacchi, R. and Bauer, C. LCA of Power-to-X processes and applications in the residential sector. Paul Scherrer Institut, 2023.</t>
   </si>
 </sst>
 </file>
@@ -798,10 +810,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E2FA153-E6EA-3E4B-BE1A-EC0443996927}">
-  <dimension ref="A1:W93"/>
+  <dimension ref="A1:W113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A68" workbookViewId="0">
-      <selection activeCell="C92" sqref="C92"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -824,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>1</v>
+        <v>117</v>
       </c>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.2">
@@ -832,7 +844,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>3</v>
+        <v>120</v>
       </c>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.2">
@@ -848,7 +860,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>45</v>
+        <v>64</v>
       </c>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.2">
@@ -959,7 +971,7 @@
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>1</v>
+        <v>117</v>
       </c>
       <c r="B12">
         <v>1</v>
@@ -968,7 +980,7 @@
         <v>10</v>
       </c>
       <c r="E12" t="s">
-        <v>45</v>
+        <v>64</v>
       </c>
       <c r="F12" t="s">
         <v>30</v>
@@ -979,7 +991,7 @@
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>31</v>
+        <v>118</v>
       </c>
       <c r="B13">
         <v>1</v>
@@ -988,13 +1000,13 @@
         <v>10</v>
       </c>
       <c r="E13" t="s">
-        <v>45</v>
+        <v>64</v>
       </c>
       <c r="F13" t="s">
         <v>32</v>
       </c>
       <c r="G13" t="s">
-        <v>33</v>
+        <v>119</v>
       </c>
       <c r="H13" t="s">
         <v>11</v>
@@ -1035,7 +1047,7 @@
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>31</v>
+        <v>118</v>
       </c>
       <c r="B14">
         <v>6.9143483761158198E-3</v>
@@ -1044,13 +1056,13 @@
         <v>10</v>
       </c>
       <c r="E14" t="s">
-        <v>45</v>
+        <v>64</v>
       </c>
       <c r="F14" t="s">
         <v>32</v>
       </c>
       <c r="G14" t="s">
-        <v>33</v>
+        <v>119</v>
       </c>
       <c r="H14" t="s">
         <v>11</v>
@@ -1201,7 +1213,7 @@
         <v>0.72314801614797197</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>44</v>
       </c>
@@ -1257,7 +1269,7 @@
         <v>0.72314801614797197</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>48</v>
       </c>
@@ -1313,7 +1325,7 @@
         <v>0.72314801614797197</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>113</v>
       </c>
@@ -1324,7 +1336,7 @@
         <v>52</v>
       </c>
       <c r="E19" s="10" t="s">
-        <v>45</v>
+        <v>64</v>
       </c>
       <c r="F19" t="s">
         <v>32</v>
@@ -1369,7 +1381,7 @@
         <v>0.47095746419981693</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>113</v>
       </c>
@@ -1380,7 +1392,7 @@
         <v>52</v>
       </c>
       <c r="E20" s="10" t="s">
-        <v>45</v>
+        <v>64</v>
       </c>
       <c r="F20" t="s">
         <v>32</v>
@@ -1425,7 +1437,7 @@
         <v>0.47095746419981693</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>113</v>
       </c>
@@ -1436,7 +1448,7 @@
         <v>52</v>
       </c>
       <c r="E21" s="10" t="s">
-        <v>45</v>
+        <v>64</v>
       </c>
       <c r="F21" t="s">
         <v>32</v>
@@ -1481,7 +1493,7 @@
         <v>0.47095746419981693</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>57</v>
       </c>
@@ -1534,836 +1546,888 @@
         <v>0.47095746419981693</v>
       </c>
     </row>
-    <row r="24" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="2" t="s">
+    <row r="24" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B24" s="3" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="25" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B25" s="5" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="26" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="4" t="s">
+      <c r="B24" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>2</v>
+      </c>
+      <c r="B25" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
         <v>4</v>
       </c>
-      <c r="B26" s="5" t="s">
+      <c r="B26" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="4" t="s">
+    <row r="27" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
         <v>6</v>
       </c>
       <c r="B27" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="28" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="4" t="s">
+    <row r="28" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
         <v>7</v>
       </c>
-      <c r="B28" s="5" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="29" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="4" t="s">
+      <c r="B28" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
         <v>9</v>
       </c>
-      <c r="B29" s="5" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="30" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="6" t="s">
+      <c r="B29" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B30" s="5"/>
-    </row>
-    <row r="31" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="2" t="s">
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="1"/>
+      <c r="M30" s="1"/>
+      <c r="N30" s="1"/>
+      <c r="O30" s="1"/>
+      <c r="P30" s="1"/>
+      <c r="Q30" s="1"/>
+      <c r="R30" s="1"/>
+      <c r="S30" s="1"/>
+      <c r="T30" s="1"/>
+      <c r="U30" s="1"/>
+      <c r="V30" s="1"/>
+      <c r="W30" s="1"/>
+    </row>
+    <row r="31" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B31" s="3" t="s">
+      <c r="B31" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C31" s="2" t="s">
+      <c r="C31" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D31" s="2" t="s">
+      <c r="D31" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E31" s="2" t="s">
+      <c r="E31" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F31" s="2" t="s">
+      <c r="F31" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G31" s="2" t="s">
+      <c r="G31" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H31" s="2" t="s">
+      <c r="H31" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="I31" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="J31" s="2" t="s">
+      <c r="I31" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J31" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="K31" s="2" t="s">
+      <c r="K31" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="L31" s="2" t="s">
+      <c r="L31" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="M31" s="2" t="s">
+      <c r="M31" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="N31" s="2" t="s">
+      <c r="N31" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="O31" s="2" t="s">
+      <c r="O31" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="P31" s="2" t="s">
+      <c r="P31" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="Q31" s="2" t="s">
+      <c r="Q31" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="R31" s="2" t="s">
+      <c r="R31" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="S31" s="2" t="s">
+      <c r="S31" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="T31" s="2" t="s">
+      <c r="T31" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="U31" s="2"/>
-    </row>
-    <row r="32" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B32" s="5">
-        <v>1</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>95</v>
+      <c r="U31" s="1"/>
+    </row>
+    <row r="32" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>1</v>
+      </c>
+      <c r="B32">
+        <v>1</v>
+      </c>
+      <c r="C32" t="s">
+        <v>10</v>
       </c>
       <c r="E32" t="s">
         <v>45</v>
       </c>
-      <c r="F32" s="4" t="s">
+      <c r="F32" t="s">
         <v>30</v>
       </c>
-      <c r="G32" s="4" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="33" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="B33" s="7">
-        <v>3.984190731178683E-7</v>
-      </c>
-      <c r="C33" s="4" t="s">
+      <c r="G32" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>31</v>
+      </c>
+      <c r="B33">
+        <v>1</v>
+      </c>
+      <c r="C33" t="s">
+        <v>10</v>
+      </c>
+      <c r="E33" t="s">
+        <v>45</v>
+      </c>
+      <c r="F33" t="s">
+        <v>32</v>
+      </c>
+      <c r="G33" t="s">
+        <v>33</v>
+      </c>
+      <c r="H33" t="s">
+        <v>11</v>
+      </c>
+      <c r="I33" t="s">
+        <v>34</v>
+      </c>
+      <c r="J33">
+        <v>2</v>
+      </c>
+      <c r="K33">
+        <v>0</v>
+      </c>
+      <c r="L33">
+        <v>1.5</v>
+      </c>
+      <c r="M33">
+        <v>1.2</v>
+      </c>
+      <c r="N33">
+        <v>1.5</v>
+      </c>
+      <c r="O33">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="P33">
+        <v>2</v>
+      </c>
+      <c r="Q33">
+        <v>1.2</v>
+      </c>
+      <c r="R33">
+        <v>1.05</v>
+      </c>
+      <c r="S33">
+        <v>0.47095746419981693</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>31</v>
+      </c>
+      <c r="B34">
+        <v>6.9143483761158198E-3</v>
+      </c>
+      <c r="C34" t="s">
+        <v>10</v>
+      </c>
+      <c r="E34" t="s">
+        <v>45</v>
+      </c>
+      <c r="F34" t="s">
+        <v>32</v>
+      </c>
+      <c r="G34" t="s">
+        <v>33</v>
+      </c>
+      <c r="H34" t="s">
+        <v>11</v>
+      </c>
+      <c r="I34" t="s">
+        <v>35</v>
+      </c>
+      <c r="J34">
+        <v>2</v>
+      </c>
+      <c r="K34">
+        <v>-4.9741565516945512</v>
+      </c>
+      <c r="L34">
+        <v>1.5</v>
+      </c>
+      <c r="M34">
+        <v>1.2</v>
+      </c>
+      <c r="N34">
+        <v>1.5</v>
+      </c>
+      <c r="O34">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="P34">
+        <v>2</v>
+      </c>
+      <c r="Q34">
+        <v>1.2</v>
+      </c>
+      <c r="R34">
+        <v>1.05</v>
+      </c>
+      <c r="S34">
+        <v>0.47095746419981693</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>36</v>
+      </c>
+      <c r="B35">
+        <v>1.1442208504274044E-6</v>
+      </c>
+      <c r="C35" t="s">
+        <v>37</v>
+      </c>
+      <c r="E35" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="F35" t="s">
+        <v>32</v>
+      </c>
+      <c r="G35" t="s">
+        <v>38</v>
+      </c>
+      <c r="H35" t="s">
+        <v>39</v>
+      </c>
+      <c r="I35" t="s">
+        <v>40</v>
+      </c>
+      <c r="J35">
+        <v>2</v>
+      </c>
+      <c r="K35">
+        <v>-13.680786632565722</v>
+      </c>
+      <c r="L35">
+        <v>1.5</v>
+      </c>
+      <c r="M35">
+        <v>1.2</v>
+      </c>
+      <c r="N35">
+        <v>1.5</v>
+      </c>
+      <c r="O35">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="P35">
+        <v>2</v>
+      </c>
+      <c r="Q35">
+        <v>1.2</v>
+      </c>
+      <c r="R35">
+        <v>3</v>
+      </c>
+      <c r="S35">
+        <v>0.72314801614797197</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>41</v>
+      </c>
+      <c r="B36">
+        <v>2.0170559863303602E-9</v>
+      </c>
+      <c r="C36" t="s">
+        <v>37</v>
+      </c>
+      <c r="E36" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="F36" t="s">
+        <v>32</v>
+      </c>
+      <c r="G36" t="s">
+        <v>42</v>
+      </c>
+      <c r="H36" t="s">
+        <v>39</v>
+      </c>
+      <c r="I36" t="s">
+        <v>43</v>
+      </c>
+      <c r="J36">
+        <v>2</v>
+      </c>
+      <c r="K36">
+        <v>-20.021626821130827</v>
+      </c>
+      <c r="L36">
+        <v>1.5</v>
+      </c>
+      <c r="M36">
+        <v>1.2</v>
+      </c>
+      <c r="N36">
+        <v>1.5</v>
+      </c>
+      <c r="O36">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="P36">
+        <v>2</v>
+      </c>
+      <c r="Q36">
+        <v>1.2</v>
+      </c>
+      <c r="R36">
+        <v>3</v>
+      </c>
+      <c r="S36">
+        <v>0.72314801614797197</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>44</v>
+      </c>
+      <c r="B37">
+        <v>3.2270310019264991E-11</v>
+      </c>
+      <c r="C37" t="s">
         <v>9</v>
-      </c>
-      <c r="E33" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="F33" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="G33" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="H33" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="I33" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="J33" s="4">
-        <v>2</v>
-      </c>
-      <c r="K33" s="4">
-        <v>-14.735761438090067</v>
-      </c>
-      <c r="L33" s="4">
-        <v>1.05</v>
-      </c>
-      <c r="M33" s="8">
-        <v>1.2</v>
-      </c>
-      <c r="N33" s="4">
-        <v>1</v>
-      </c>
-      <c r="O33" s="4">
-        <v>1.01</v>
-      </c>
-      <c r="P33" s="4">
-        <v>1.2</v>
-      </c>
-      <c r="Q33" s="4">
-        <v>1.2</v>
-      </c>
-      <c r="R33" s="4">
-        <v>3</v>
-      </c>
-      <c r="S33" s="4">
-        <v>0.57209088006881903</v>
-      </c>
-    </row>
-    <row r="34" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="B34" s="7">
-        <v>7.9683814623573661E-7</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="E34" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="F34" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="G34" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="H34" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="I34" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="J34" s="4">
-        <v>2</v>
-      </c>
-      <c r="K34" s="4">
-        <v>-14.042614257530122</v>
-      </c>
-      <c r="L34" s="4">
-        <v>1.05</v>
-      </c>
-      <c r="M34" s="8">
-        <v>1.2</v>
-      </c>
-      <c r="N34" s="4">
-        <v>1</v>
-      </c>
-      <c r="O34" s="4">
-        <v>1.01</v>
-      </c>
-      <c r="P34" s="4">
-        <v>1.2</v>
-      </c>
-      <c r="Q34" s="4">
-        <v>1.2</v>
-      </c>
-      <c r="R34" s="4">
-        <v>3</v>
-      </c>
-      <c r="S34" s="4">
-        <v>0.57209088006881903</v>
-      </c>
-    </row>
-    <row r="35" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="B35" s="7">
-        <v>7.3399999999999995E-4</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="E35" t="s">
-        <v>45</v>
-      </c>
-      <c r="F35" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="G35" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="H35" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="I35" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="J35" s="4">
-        <v>2</v>
-      </c>
-      <c r="K35" s="4">
-        <v>-7.2170015293497585</v>
-      </c>
-      <c r="L35" s="4">
-        <v>1.05</v>
-      </c>
-      <c r="M35" s="8">
-        <v>1.2</v>
-      </c>
-      <c r="N35" s="4">
-        <v>1</v>
-      </c>
-      <c r="O35" s="4">
-        <v>1.01</v>
-      </c>
-      <c r="P35" s="4">
-        <v>1.2</v>
-      </c>
-      <c r="Q35" s="4">
-        <v>1.2</v>
-      </c>
-      <c r="R35" s="4">
-        <v>1.05</v>
-      </c>
-      <c r="S35" s="4">
-        <v>0.16169679924070957</v>
-      </c>
-    </row>
-    <row r="36" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B36" s="9">
-        <v>7.5075075075075066E-3</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E36" t="s">
-        <v>45</v>
-      </c>
-      <c r="F36" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="G36" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="H36" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="I36" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="J36" s="4">
-        <v>2</v>
-      </c>
-      <c r="K36" s="4">
-        <v>-4.8918517581062888</v>
-      </c>
-      <c r="L36" s="4">
-        <v>1.05</v>
-      </c>
-      <c r="M36" s="8">
-        <v>1.2</v>
-      </c>
-      <c r="N36" s="4">
-        <v>1</v>
-      </c>
-      <c r="O36" s="4">
-        <v>1.01</v>
-      </c>
-      <c r="P36" s="4">
-        <v>1.2</v>
-      </c>
-      <c r="Q36" s="4">
-        <v>1.2</v>
-      </c>
-      <c r="R36" s="4">
-        <v>1.05</v>
-      </c>
-      <c r="S36" s="4">
-        <v>0.16169679924070957</v>
-      </c>
-    </row>
-    <row r="37" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B37" s="9">
-        <v>3.7537537537536729E-5</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>10</v>
       </c>
       <c r="E37" t="s">
         <v>45</v>
       </c>
-      <c r="F37" s="4" t="s">
+      <c r="F37" t="s">
         <v>32</v>
       </c>
-      <c r="G37" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="H37" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="I37" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="J37" s="4">
-        <v>2</v>
-      </c>
-      <c r="K37" s="4">
-        <v>-10.190169124654346</v>
-      </c>
-      <c r="L37" s="4">
-        <v>1.05</v>
-      </c>
-      <c r="M37" s="8">
-        <v>1.2</v>
-      </c>
-      <c r="N37" s="4">
-        <v>1</v>
-      </c>
-      <c r="O37" s="4">
-        <v>1.01</v>
-      </c>
-      <c r="P37" s="4">
-        <v>1.2</v>
-      </c>
-      <c r="Q37" s="4">
-        <v>1.2</v>
-      </c>
-      <c r="R37" s="4">
-        <v>1.05</v>
-      </c>
-      <c r="S37" s="4">
-        <v>0.16169679924070957</v>
-      </c>
-    </row>
-    <row r="38" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="B38" s="5">
-        <f>0.0675675675675676/1000</f>
-        <v>6.7567567567567596E-5</v>
-      </c>
-      <c r="C38" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="D38" s="4" t="s">
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>39</v>
+      </c>
+      <c r="I37" t="s">
+        <v>47</v>
+      </c>
+      <c r="J37">
+        <v>2</v>
+      </c>
+      <c r="K37">
+        <v>-24.156873502868216</v>
+      </c>
+      <c r="L37">
+        <v>1.5</v>
+      </c>
+      <c r="M37">
+        <v>1.2</v>
+      </c>
+      <c r="N37">
+        <v>1.5</v>
+      </c>
+      <c r="O37">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="P37">
+        <v>2</v>
+      </c>
+      <c r="Q37">
+        <v>1.2</v>
+      </c>
+      <c r="R37">
+        <v>3</v>
+      </c>
+      <c r="S37">
+        <v>0.72314801614797197</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>48</v>
+      </c>
+      <c r="B38">
+        <v>0.30207430451283473</v>
+      </c>
+      <c r="C38" t="s">
+        <v>10</v>
+      </c>
+      <c r="E38" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="F38" t="s">
+        <v>32</v>
+      </c>
+      <c r="G38" t="s">
+        <v>49</v>
+      </c>
+      <c r="H38" t="s">
+        <v>39</v>
+      </c>
+      <c r="I38" t="s">
+        <v>50</v>
+      </c>
+      <c r="J38">
+        <v>2</v>
+      </c>
+      <c r="K38">
+        <v>-1.1970822504372693</v>
+      </c>
+      <c r="L38">
+        <v>1.5</v>
+      </c>
+      <c r="M38">
+        <v>1.2</v>
+      </c>
+      <c r="N38">
+        <v>1.5</v>
+      </c>
+      <c r="O38">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="P38">
+        <v>2</v>
+      </c>
+      <c r="Q38">
+        <v>1.2</v>
+      </c>
+      <c r="R38">
+        <v>3</v>
+      </c>
+      <c r="S38">
+        <v>0.72314801614797197</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>113</v>
+      </c>
+      <c r="B39">
+        <v>1.0291066405763645</v>
+      </c>
+      <c r="C39" t="s">
+        <v>52</v>
+      </c>
+      <c r="E39" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="F39" t="s">
+        <v>32</v>
+      </c>
+      <c r="G39" t="s">
+        <v>53</v>
+      </c>
+      <c r="H39" t="s">
+        <v>12</v>
+      </c>
+      <c r="I39" t="s">
+        <v>54</v>
+      </c>
+      <c r="J39">
+        <v>2</v>
+      </c>
+      <c r="K39">
+        <v>2.8691086638977469E-2</v>
+      </c>
+      <c r="L39">
+        <v>1.5</v>
+      </c>
+      <c r="M39">
+        <v>1.2</v>
+      </c>
+      <c r="N39">
+        <v>1.5</v>
+      </c>
+      <c r="O39">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="P39">
+        <v>2</v>
+      </c>
+      <c r="Q39">
+        <v>1.2</v>
+      </c>
+      <c r="R39">
+        <v>1.05</v>
+      </c>
+      <c r="S39">
+        <v>0.47095746419981693</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>113</v>
+      </c>
+      <c r="B40">
+        <v>0.64442518296071416</v>
+      </c>
+      <c r="C40" t="s">
+        <v>52</v>
+      </c>
+      <c r="E40" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="F40" t="s">
+        <v>32</v>
+      </c>
+      <c r="G40" t="s">
+        <v>53</v>
+      </c>
+      <c r="H40" t="s">
+        <v>12</v>
+      </c>
+      <c r="I40" t="s">
+        <v>55</v>
+      </c>
+      <c r="J40">
+        <v>2</v>
+      </c>
+      <c r="K40">
+        <v>-0.43939654873975276</v>
+      </c>
+      <c r="L40">
+        <v>1.5</v>
+      </c>
+      <c r="M40">
+        <v>1.2</v>
+      </c>
+      <c r="N40">
+        <v>1.5</v>
+      </c>
+      <c r="O40">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="P40">
+        <v>2</v>
+      </c>
+      <c r="Q40">
+        <v>1.2</v>
+      </c>
+      <c r="R40">
+        <v>1.05</v>
+      </c>
+      <c r="S40">
+        <v>0.47095746419981693</v>
+      </c>
+    </row>
+    <row r="41" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>113</v>
+      </c>
+      <c r="B41">
+        <v>0.14302201400538245</v>
+      </c>
+      <c r="C41" t="s">
+        <v>52</v>
+      </c>
+      <c r="E41" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="F41" t="s">
+        <v>32</v>
+      </c>
+      <c r="G41" t="s">
+        <v>53</v>
+      </c>
+      <c r="H41" t="s">
+        <v>12</v>
+      </c>
+      <c r="I41" t="s">
+        <v>56</v>
+      </c>
+      <c r="J41">
+        <v>2</v>
+      </c>
+      <c r="K41">
+        <v>-1.9447567164768222</v>
+      </c>
+      <c r="L41">
+        <v>1.5</v>
+      </c>
+      <c r="M41">
+        <v>1.2</v>
+      </c>
+      <c r="N41">
+        <v>1.5</v>
+      </c>
+      <c r="O41">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="P41">
+        <v>2</v>
+      </c>
+      <c r="Q41">
+        <v>1.2</v>
+      </c>
+      <c r="R41">
+        <v>1.05</v>
+      </c>
+      <c r="S41">
+        <v>0.47095746419981693</v>
+      </c>
+    </row>
+    <row r="42" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>57</v>
+      </c>
+      <c r="B42">
+        <v>6.9143483761158198E-3</v>
+      </c>
+      <c r="C42" t="s">
+        <v>10</v>
+      </c>
+      <c r="D42" t="s">
         <v>58</v>
       </c>
-      <c r="F38" s="4" t="s">
+      <c r="F42" t="s">
         <v>59</v>
       </c>
-      <c r="H38" s="4" t="s">
+      <c r="H42" t="s">
         <v>60</v>
       </c>
-      <c r="I38" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="J38" s="4">
-        <v>2</v>
-      </c>
-      <c r="K38" s="4">
-        <v>-2.6946271807700697</v>
-      </c>
-      <c r="L38" s="4">
-        <v>1.05</v>
-      </c>
-      <c r="M38" s="8">
-        <v>1.2</v>
-      </c>
-      <c r="N38" s="4">
-        <v>1</v>
-      </c>
-      <c r="O38" s="4">
-        <v>1.01</v>
-      </c>
-      <c r="P38" s="4">
-        <v>1.2</v>
-      </c>
-      <c r="Q38" s="4">
-        <v>1.2</v>
-      </c>
-      <c r="R38" s="4">
-        <v>1.05</v>
-      </c>
-      <c r="S38" s="4">
-        <v>0.16169679924070957</v>
-      </c>
-    </row>
-    <row r="39" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="B39" s="5">
-        <v>6.9444444444444448E-6</v>
-      </c>
-      <c r="C39" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D39" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="F39" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="H39" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="I39" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="J39" s="4">
-        <v>2</v>
-      </c>
-      <c r="K39" s="4">
-        <v>-11.877568578558138</v>
-      </c>
-      <c r="L39" s="4">
-        <v>1.05</v>
-      </c>
-      <c r="M39" s="8">
-        <v>1.2</v>
-      </c>
-      <c r="N39" s="4">
-        <v>1</v>
-      </c>
-      <c r="O39" s="4">
-        <v>1.01</v>
-      </c>
-      <c r="P39" s="4">
-        <v>1.2</v>
-      </c>
-      <c r="Q39" s="4">
-        <v>1.2</v>
-      </c>
-      <c r="R39" s="4">
+      <c r="I42" t="s">
+        <v>61</v>
+      </c>
+      <c r="J42">
+        <v>2</v>
+      </c>
+      <c r="K42">
+        <v>-4.9741565516945512</v>
+      </c>
+      <c r="L42">
         <v>1.5</v>
       </c>
-      <c r="S39" s="4">
-        <v>0.25816898211842121</v>
-      </c>
-    </row>
-    <row r="40" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="B40" s="9">
-        <v>3.7537537537536729E-5</v>
-      </c>
-      <c r="C40" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D40" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="F40" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="H40" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="I40" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="M40" s="8"/>
-    </row>
-    <row r="41" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B41" s="5"/>
-    </row>
-    <row r="42" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="2" t="s">
+      <c r="M42">
+        <v>1.2</v>
+      </c>
+      <c r="N42">
+        <v>1.5</v>
+      </c>
+      <c r="O42">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="P42">
+        <v>2</v>
+      </c>
+      <c r="Q42">
+        <v>1.2</v>
+      </c>
+      <c r="R42">
+        <v>1.05</v>
+      </c>
+      <c r="S42">
+        <v>0.47095746419981693</v>
+      </c>
+    </row>
+    <row r="44" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B42" s="3" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="43" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B43" s="5" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="44" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B44" s="5" t="s">
-        <v>5</v>
+      <c r="B44" s="3" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="45" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A45" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B45" s="10" t="s">
-        <v>45</v>
+        <v>2</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="46" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A46" s="4" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>94</v>
+        <v>5</v>
       </c>
     </row>
     <row r="47" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A47" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B47" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="48" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="49" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B47" s="5" t="s">
+      <c r="B49" s="5" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="48" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="6" t="s">
+    <row r="50" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B48" s="5"/>
-    </row>
-    <row r="49" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="2" t="s">
+      <c r="B50" s="5"/>
+    </row>
+    <row r="51" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B49" s="3" t="s">
+      <c r="B51" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C49" s="2" t="s">
+      <c r="C51" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D49" s="2" t="s">
+      <c r="D51" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E49" s="2" t="s">
+      <c r="E51" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F49" s="2" t="s">
+      <c r="F51" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G49" s="2" t="s">
+      <c r="G51" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H49" s="2" t="s">
+      <c r="H51" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="I49" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="J49" s="2" t="s">
+      <c r="I51" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J51" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="K49" s="2" t="s">
+      <c r="K51" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="L49" s="2" t="s">
+      <c r="L51" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="M49" s="2" t="s">
+      <c r="M51" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="N49" s="2" t="s">
+      <c r="N51" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="O49" s="2" t="s">
+      <c r="O51" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="P49" s="2" t="s">
+      <c r="P51" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="Q49" s="2" t="s">
+      <c r="Q51" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="R49" s="2" t="s">
+      <c r="R51" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="S49" s="2" t="s">
+      <c r="S51" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="T49" s="2" t="s">
+      <c r="T51" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="U49" s="2"/>
-    </row>
-    <row r="50" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="B50" s="5">
-        <v>1</v>
-      </c>
-      <c r="C50" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="E50" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="F50" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="G50" s="4" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="51" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="B51" s="7">
-        <v>6.509296454909041E-10</v>
-      </c>
-      <c r="C51" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E51" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="F51" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="G51" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="H51" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="I51" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="J51" s="4">
-        <v>2</v>
-      </c>
-      <c r="K51" s="4">
-        <v>-21.152619551002662</v>
-      </c>
-      <c r="L51" s="4">
-        <v>1.05</v>
-      </c>
-      <c r="M51" s="8">
-        <v>1.2</v>
-      </c>
-      <c r="N51" s="4">
-        <v>1</v>
-      </c>
-      <c r="O51" s="4">
-        <v>1.01</v>
-      </c>
-      <c r="P51" s="4">
-        <v>1.2</v>
-      </c>
-      <c r="Q51" s="4">
-        <v>1.2</v>
-      </c>
-      <c r="R51" s="4">
-        <v>3</v>
-      </c>
-      <c r="S51" s="4">
-        <v>0.57209088006881903</v>
-      </c>
+      <c r="U51" s="2"/>
     </row>
     <row r="52" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A52" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="B52" s="7">
-        <v>6.509296454909041E-10</v>
+        <v>92</v>
+      </c>
+      <c r="B52" s="5">
+        <v>1</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E52" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="E52" t="s">
         <v>45</v>
       </c>
       <c r="F52" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G52" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="H52" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="I52" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="J52" s="4">
-        <v>2</v>
-      </c>
-      <c r="K52" s="4">
-        <v>-21.152619551002662</v>
-      </c>
-      <c r="L52" s="4">
-        <v>1.05</v>
-      </c>
-      <c r="M52" s="8">
-        <v>1.2</v>
-      </c>
-      <c r="N52" s="4">
-        <v>1</v>
-      </c>
-      <c r="O52" s="4">
-        <v>1.01</v>
-      </c>
-      <c r="P52" s="4">
-        <v>1.2</v>
-      </c>
-      <c r="Q52" s="4">
-        <v>1.2</v>
-      </c>
-      <c r="R52" s="4">
-        <v>3</v>
-      </c>
-      <c r="S52" s="4">
-        <v>0.57209088006881903</v>
+        <v>94</v>
       </c>
     </row>
     <row r="53" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A53" s="4" t="s">
-        <v>100</v>
+        <v>63</v>
       </c>
       <c r="B53" s="7">
-        <v>6.509296454909041E-10</v>
+        <v>3.984190731178683E-7</v>
       </c>
       <c r="C53" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E53" s="4" t="s">
-        <v>45</v>
+        <v>64</v>
       </c>
       <c r="F53" s="4" t="s">
         <v>32</v>
       </c>
       <c r="G53" s="4" t="s">
-        <v>101</v>
+        <v>65</v>
       </c>
       <c r="H53" s="4" t="s">
         <v>39</v>
       </c>
       <c r="I53" s="4" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="J53" s="4">
         <v>2</v>
       </c>
       <c r="K53" s="4">
-        <v>-21.152619551002662</v>
+        <v>-14.735761438090067</v>
       </c>
       <c r="L53" s="4">
         <v>1.05</v>
@@ -2392,31 +2456,34 @@
     </row>
     <row r="54" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A54" s="4" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="B54" s="7">
-        <v>9.4583599412497203E-9</v>
+        <v>7.9683814623573661E-7</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>10</v>
+        <v>68</v>
       </c>
       <c r="E54" s="4" t="s">
-        <v>45</v>
+        <v>64</v>
       </c>
       <c r="F54" s="4" t="s">
         <v>32</v>
       </c>
       <c r="G54" s="4" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="H54" s="4" t="s">
-        <v>79</v>
+        <v>39</v>
+      </c>
+      <c r="I54" s="4" t="s">
+        <v>70</v>
       </c>
       <c r="J54" s="4">
         <v>2</v>
       </c>
       <c r="K54" s="4">
-        <v>-18.476366836645134</v>
+        <v>-14.042614257530122</v>
       </c>
       <c r="L54" s="4">
         <v>1.05</v>
@@ -2437,39 +2504,42 @@
         <v>1.2</v>
       </c>
       <c r="R54" s="4">
-        <v>1.05</v>
+        <v>3</v>
       </c>
       <c r="S54" s="4">
-        <v>0.16169679924070957</v>
+        <v>0.57209088006881903</v>
       </c>
     </row>
     <row r="55" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A55" s="4" t="s">
-        <v>80</v>
+        <v>113</v>
       </c>
       <c r="B55" s="7">
-        <v>-9.4583599412497203E-9</v>
+        <v>7.3399999999999995E-4</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E55" s="10" t="s">
-        <v>114</v>
+        <v>52</v>
+      </c>
+      <c r="E55" t="s">
+        <v>45</v>
       </c>
       <c r="F55" s="4" t="s">
         <v>32</v>
       </c>
       <c r="G55" s="4" t="s">
-        <v>81</v>
+        <v>53</v>
       </c>
       <c r="H55" s="4" t="s">
-        <v>79</v>
+        <v>12</v>
+      </c>
+      <c r="I55" s="4" t="s">
+        <v>76</v>
       </c>
       <c r="J55" s="4">
-        <v>1</v>
-      </c>
-      <c r="K55" s="4" t="s">
-        <v>51</v>
+        <v>2</v>
+      </c>
+      <c r="K55" s="4">
+        <v>-7.2170015293497585</v>
       </c>
       <c r="L55" s="4">
         <v>1.05</v>
@@ -2490,13 +2560,10 @@
         <v>1.2</v>
       </c>
       <c r="R55" s="4">
-        <v>3</v>
+        <v>1.05</v>
       </c>
       <c r="S55" s="4">
-        <v>0.57209088006881903</v>
-      </c>
-      <c r="T55" s="4" t="b">
-        <v>1</v>
+        <v>0.16169679924070957</v>
       </c>
     </row>
     <row r="56" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -2504,12 +2571,12 @@
         <v>1</v>
       </c>
       <c r="B56" s="9">
-        <v>1.6629947742052215E-3</v>
+        <v>7.5075075075075066E-3</v>
       </c>
       <c r="C56" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E56" s="10" t="s">
+      <c r="E56" t="s">
         <v>45</v>
       </c>
       <c r="F56" s="4" t="s">
@@ -2528,7 +2595,7 @@
         <v>2</v>
       </c>
       <c r="K56" s="4">
-        <v>-6.399135221166409</v>
+        <v>-4.8918517581062888</v>
       </c>
       <c r="L56" s="4">
         <v>1.05</v>
@@ -2560,12 +2627,12 @@
         <v>1</v>
       </c>
       <c r="B57" s="9">
-        <v>8.31497387102593E-6</v>
+        <v>3.7537537537536729E-5</v>
       </c>
       <c r="C57" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E57" s="10" t="s">
+      <c r="E57" t="s">
         <v>45</v>
       </c>
       <c r="F57" s="4" t="s">
@@ -2584,7 +2651,7 @@
         <v>2</v>
       </c>
       <c r="K57" s="4">
-        <v>-11.697452587714467</v>
+        <v>-10.190169124654346</v>
       </c>
       <c r="L57" s="4">
         <v>1.05</v>
@@ -2616,8 +2683,8 @@
         <v>87</v>
       </c>
       <c r="B58" s="5">
-        <f>0.014966952967847/1000</f>
-        <v>1.4966952967847001E-5</v>
+        <f>0.0675675675675676/1000</f>
+        <v>6.7567567567567596E-5</v>
       </c>
       <c r="C58" s="4" t="s">
         <v>116</v>
@@ -2638,7 +2705,7 @@
         <v>2</v>
       </c>
       <c r="K58" s="4">
-        <v>-4.2019106438301899</v>
+        <v>-2.6946271807700697</v>
       </c>
       <c r="L58" s="4">
         <v>1.05</v>
@@ -2723,7 +2790,7 @@
         <v>57</v>
       </c>
       <c r="B60" s="9">
-        <v>8.31497387102593E-6</v>
+        <v>3.7537537537536729E-5</v>
       </c>
       <c r="C60" s="4" t="s">
         <v>10</v>
@@ -2750,7 +2817,7 @@
         <v>0</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="63" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -2758,7 +2825,7 @@
         <v>2</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="64" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -2864,7 +2931,7 @@
     </row>
     <row r="70" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A70" s="4" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B70" s="5">
         <v>1</v>
@@ -2884,37 +2951,37 @@
     </row>
     <row r="71" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A71" s="4" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="B71" s="7">
-        <v>6.2590774062544461E-7</v>
+        <v>6.509296454909041E-10</v>
       </c>
       <c r="C71" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E71" s="4" t="s">
-        <v>64</v>
+        <v>45</v>
       </c>
       <c r="F71" s="4" t="s">
         <v>32</v>
       </c>
       <c r="G71" s="4" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="H71" s="4" t="s">
         <v>39</v>
       </c>
       <c r="I71" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J71" s="4">
         <v>2</v>
       </c>
       <c r="K71" s="4">
-        <v>-14.284062855900274</v>
+        <v>-21.152619551002662</v>
       </c>
       <c r="L71" s="4">
-        <v>1</v>
+        <v>1.05</v>
       </c>
       <c r="M71" s="8">
         <v>1.2</v>
@@ -2935,39 +3002,39 @@
         <v>3</v>
       </c>
       <c r="S71" s="4">
-        <v>0.57157051623399524</v>
+        <v>0.57209088006881903</v>
       </c>
     </row>
     <row r="72" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A72" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B72" s="9">
-        <v>2.0556127902646181E-3</v>
+        <v>98</v>
+      </c>
+      <c r="B72" s="7">
+        <v>6.509296454909041E-10</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E72" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E72" s="4" t="s">
         <v>45</v>
       </c>
       <c r="F72" s="4" t="s">
         <v>32</v>
       </c>
       <c r="G72" s="4" t="s">
-        <v>8</v>
+        <v>99</v>
       </c>
       <c r="H72" s="4" t="s">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="I72" s="4" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="J72" s="4">
         <v>2</v>
       </c>
       <c r="K72" s="4">
-        <v>-6.1871812807091953</v>
+        <v>-21.152619551002662</v>
       </c>
       <c r="L72" s="4">
         <v>1.05</v>
@@ -2988,42 +3055,42 @@
         <v>1.2</v>
       </c>
       <c r="R72" s="4">
-        <v>1.05</v>
+        <v>3</v>
       </c>
       <c r="S72" s="4">
-        <v>0.16169679924070957</v>
+        <v>0.57209088006881903</v>
       </c>
     </row>
     <row r="73" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A73" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B73" s="9">
-        <v>1.1511431625481964E-5</v>
+        <v>100</v>
+      </c>
+      <c r="B73" s="7">
+        <v>6.509296454909041E-10</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E73" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E73" s="4" t="s">
         <v>45</v>
       </c>
       <c r="F73" s="4" t="s">
         <v>32</v>
       </c>
       <c r="G73" s="4" t="s">
-        <v>8</v>
+        <v>101</v>
       </c>
       <c r="H73" s="4" t="s">
-        <v>85</v>
+        <v>39</v>
       </c>
       <c r="I73" s="4" t="s">
-        <v>86</v>
+        <v>71</v>
       </c>
       <c r="J73" s="4">
         <v>2</v>
       </c>
       <c r="K73" s="4">
-        <v>-11.37216996195022</v>
+        <v>-21.152619551002662</v>
       </c>
       <c r="L73" s="4">
         <v>1.05</v>
@@ -3044,590 +3111,1250 @@
         <v>1.2</v>
       </c>
       <c r="R73" s="4">
-        <v>1.05</v>
+        <v>3</v>
       </c>
       <c r="S73" s="4">
-        <v>0.16169679924070957</v>
+        <v>0.57209088006881903</v>
       </c>
     </row>
     <row r="74" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A74" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="B74" s="7">
+        <v>9.4583599412497203E-9</v>
+      </c>
+      <c r="C74" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E74" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F74" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G74" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="H74" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="J74" s="4">
+        <v>2</v>
+      </c>
+      <c r="K74" s="4">
+        <v>-18.476366836645134</v>
+      </c>
+      <c r="L74" s="4">
+        <v>1.05</v>
+      </c>
+      <c r="M74" s="8">
+        <v>1.2</v>
+      </c>
+      <c r="N74" s="4">
+        <v>1</v>
+      </c>
+      <c r="O74" s="4">
+        <v>1.01</v>
+      </c>
+      <c r="P74" s="4">
+        <v>1.2</v>
+      </c>
+      <c r="Q74" s="4">
+        <v>1.2</v>
+      </c>
+      <c r="R74" s="4">
+        <v>1.05</v>
+      </c>
+      <c r="S74" s="4">
+        <v>0.16169679924070957</v>
+      </c>
+    </row>
+    <row r="75" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="B75" s="7">
+        <v>-9.4583599412497203E-9</v>
+      </c>
+      <c r="C75" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E75" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="F75" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G75" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="H75" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="J75" s="4">
+        <v>1</v>
+      </c>
+      <c r="K75" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="L75" s="4">
+        <v>1.05</v>
+      </c>
+      <c r="M75" s="8">
+        <v>1.2</v>
+      </c>
+      <c r="N75" s="4">
+        <v>1</v>
+      </c>
+      <c r="O75" s="4">
+        <v>1.01</v>
+      </c>
+      <c r="P75" s="4">
+        <v>1.2</v>
+      </c>
+      <c r="Q75" s="4">
+        <v>1.2</v>
+      </c>
+      <c r="R75" s="4">
+        <v>3</v>
+      </c>
+      <c r="S75" s="4">
+        <v>0.57209088006881903</v>
+      </c>
+      <c r="T75" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B76" s="9">
+        <v>1.6629947742052215E-3</v>
+      </c>
+      <c r="C76" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E76" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="F76" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G76" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H76" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I76" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="J76" s="4">
+        <v>2</v>
+      </c>
+      <c r="K76" s="4">
+        <v>-6.399135221166409</v>
+      </c>
+      <c r="L76" s="4">
+        <v>1.05</v>
+      </c>
+      <c r="M76" s="8">
+        <v>1.2</v>
+      </c>
+      <c r="N76" s="4">
+        <v>1</v>
+      </c>
+      <c r="O76" s="4">
+        <v>1.01</v>
+      </c>
+      <c r="P76" s="4">
+        <v>1.2</v>
+      </c>
+      <c r="Q76" s="4">
+        <v>1.2</v>
+      </c>
+      <c r="R76" s="4">
+        <v>1.05</v>
+      </c>
+      <c r="S76" s="4">
+        <v>0.16169679924070957</v>
+      </c>
+    </row>
+    <row r="77" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A77" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B77" s="9">
+        <v>8.31497387102593E-6</v>
+      </c>
+      <c r="C77" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E77" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="F77" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G77" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H77" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="I77" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="J77" s="4">
+        <v>2</v>
+      </c>
+      <c r="K77" s="4">
+        <v>-11.697452587714467</v>
+      </c>
+      <c r="L77" s="4">
+        <v>1.05</v>
+      </c>
+      <c r="M77" s="8">
+        <v>1.2</v>
+      </c>
+      <c r="N77" s="4">
+        <v>1</v>
+      </c>
+      <c r="O77" s="4">
+        <v>1.01</v>
+      </c>
+      <c r="P77" s="4">
+        <v>1.2</v>
+      </c>
+      <c r="Q77" s="4">
+        <v>1.2</v>
+      </c>
+      <c r="R77" s="4">
+        <v>1.05</v>
+      </c>
+      <c r="S77" s="4">
+        <v>0.16169679924070957</v>
+      </c>
+    </row>
+    <row r="78" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A78" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="B74" s="5">
+      <c r="B78" s="5">
+        <f>0.014966952967847/1000</f>
+        <v>1.4966952967847001E-5</v>
+      </c>
+      <c r="C78" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="D78" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="F78" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="H78" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="I78" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="J78" s="4">
+        <v>2</v>
+      </c>
+      <c r="K78" s="4">
+        <v>-4.2019106438301899</v>
+      </c>
+      <c r="L78" s="4">
+        <v>1.05</v>
+      </c>
+      <c r="M78" s="8">
+        <v>1.2</v>
+      </c>
+      <c r="N78" s="4">
+        <v>1</v>
+      </c>
+      <c r="O78" s="4">
+        <v>1.01</v>
+      </c>
+      <c r="P78" s="4">
+        <v>1.2</v>
+      </c>
+      <c r="Q78" s="4">
+        <v>1.2</v>
+      </c>
+      <c r="R78" s="4">
+        <v>1.05</v>
+      </c>
+      <c r="S78" s="4">
+        <v>0.16169679924070957</v>
+      </c>
+    </row>
+    <row r="79" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A79" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B79" s="5">
+        <v>6.9444444444444448E-6</v>
+      </c>
+      <c r="C79" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D79" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="F79" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="H79" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="I79" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="J79" s="4">
+        <v>2</v>
+      </c>
+      <c r="K79" s="4">
+        <v>-11.877568578558138</v>
+      </c>
+      <c r="L79" s="4">
+        <v>1.05</v>
+      </c>
+      <c r="M79" s="8">
+        <v>1.2</v>
+      </c>
+      <c r="N79" s="4">
+        <v>1</v>
+      </c>
+      <c r="O79" s="4">
+        <v>1.01</v>
+      </c>
+      <c r="P79" s="4">
+        <v>1.2</v>
+      </c>
+      <c r="Q79" s="4">
+        <v>1.2</v>
+      </c>
+      <c r="R79" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="S79" s="4">
+        <v>0.25816898211842121</v>
+      </c>
+    </row>
+    <row r="80" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A80" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B80" s="9">
+        <v>8.31497387102593E-6</v>
+      </c>
+      <c r="C80" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D80" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="F80" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="H80" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="I80" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="M80" s="8"/>
+    </row>
+    <row r="81" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B81" s="5"/>
+    </row>
+    <row r="82" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A82" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B82" s="3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="83" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A83" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B83" s="5" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="84" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A84" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B84" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="85" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A85" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B85" s="10" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="86" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A86" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B86" s="5" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="87" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A87" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B87" s="5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="88" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A88" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B88" s="5"/>
+    </row>
+    <row r="89" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A89" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B89" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E89" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F89" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G89" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H89" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I89" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J89" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K89" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L89" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M89" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="N89" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="O89" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="P89" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q89" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="R89" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="S89" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="T89" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="U89" s="2"/>
+    </row>
+    <row r="90" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A90" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="B90" s="5">
+        <v>1</v>
+      </c>
+      <c r="C90" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="E90" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="F90" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G90" s="4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="91" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A91" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="B91" s="7">
+        <v>6.2590774062544461E-7</v>
+      </c>
+      <c r="C91" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E91" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="F91" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G91" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="H91" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="I91" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="J91" s="4">
+        <v>2</v>
+      </c>
+      <c r="K91" s="4">
+        <v>-14.284062855900274</v>
+      </c>
+      <c r="L91" s="4">
+        <v>1</v>
+      </c>
+      <c r="M91" s="8">
+        <v>1.2</v>
+      </c>
+      <c r="N91" s="4">
+        <v>1</v>
+      </c>
+      <c r="O91" s="4">
+        <v>1.01</v>
+      </c>
+      <c r="P91" s="4">
+        <v>1.2</v>
+      </c>
+      <c r="Q91" s="4">
+        <v>1.2</v>
+      </c>
+      <c r="R91" s="4">
+        <v>3</v>
+      </c>
+      <c r="S91" s="4">
+        <v>0.57157051623399524</v>
+      </c>
+    </row>
+    <row r="92" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A92" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B92" s="9">
+        <v>2.0556127902646181E-3</v>
+      </c>
+      <c r="C92" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E92" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="F92" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G92" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H92" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I92" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="J92" s="4">
+        <v>2</v>
+      </c>
+      <c r="K92" s="4">
+        <v>-6.1871812807091953</v>
+      </c>
+      <c r="L92" s="4">
+        <v>1.05</v>
+      </c>
+      <c r="M92" s="8">
+        <v>1.2</v>
+      </c>
+      <c r="N92" s="4">
+        <v>1</v>
+      </c>
+      <c r="O92" s="4">
+        <v>1.01</v>
+      </c>
+      <c r="P92" s="4">
+        <v>1.2</v>
+      </c>
+      <c r="Q92" s="4">
+        <v>1.2</v>
+      </c>
+      <c r="R92" s="4">
+        <v>1.05</v>
+      </c>
+      <c r="S92" s="4">
+        <v>0.16169679924070957</v>
+      </c>
+    </row>
+    <row r="93" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A93" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B93" s="9">
+        <v>1.1511431625481964E-5</v>
+      </c>
+      <c r="C93" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E93" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="F93" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G93" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H93" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="I93" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="J93" s="4">
+        <v>2</v>
+      </c>
+      <c r="K93" s="4">
+        <v>-11.37216996195022</v>
+      </c>
+      <c r="L93" s="4">
+        <v>1.05</v>
+      </c>
+      <c r="M93" s="8">
+        <v>1.2</v>
+      </c>
+      <c r="N93" s="4">
+        <v>1</v>
+      </c>
+      <c r="O93" s="4">
+        <v>1.01</v>
+      </c>
+      <c r="P93" s="4">
+        <v>1.2</v>
+      </c>
+      <c r="Q93" s="4">
+        <v>1.2</v>
+      </c>
+      <c r="R93" s="4">
+        <v>1.05</v>
+      </c>
+      <c r="S93" s="4">
+        <v>0.16169679924070957</v>
+      </c>
+    </row>
+    <row r="94" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A94" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="B94" s="5">
         <f>0.0185005151123816/1000</f>
         <v>1.8500515112381598E-5</v>
       </c>
-      <c r="C74" s="4" t="s">
+      <c r="C94" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="D74" s="4" t="s">
+      <c r="D94" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="F74" s="4" t="s">
+      <c r="F94" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="H74" s="4" t="s">
+      <c r="H94" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="I74" s="4" t="s">
+      <c r="I94" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="J74" s="4">
-        <v>2</v>
-      </c>
-      <c r="K74" s="4">
+      <c r="J94" s="4">
+        <v>2</v>
+      </c>
+      <c r="K94" s="4">
         <v>-3.9899567033729753</v>
       </c>
-      <c r="L74" s="4">
-        <v>1.05</v>
-      </c>
-      <c r="M74" s="8">
-        <v>1.2</v>
-      </c>
-      <c r="N74" s="4">
-        <v>1</v>
-      </c>
-      <c r="O74" s="4">
+      <c r="L94" s="4">
+        <v>1.05</v>
+      </c>
+      <c r="M94" s="8">
+        <v>1.2</v>
+      </c>
+      <c r="N94" s="4">
+        <v>1</v>
+      </c>
+      <c r="O94" s="4">
         <v>1.01</v>
       </c>
-      <c r="P74" s="4">
-        <v>1.2</v>
-      </c>
-      <c r="Q74" s="4">
-        <v>1.2</v>
-      </c>
-      <c r="R74" s="4">
-        <v>1.05</v>
-      </c>
-      <c r="S74" s="4">
+      <c r="P94" s="4">
+        <v>1.2</v>
+      </c>
+      <c r="Q94" s="4">
+        <v>1.2</v>
+      </c>
+      <c r="R94" s="4">
+        <v>1.05</v>
+      </c>
+      <c r="S94" s="4">
         <v>0.16169679924070957</v>
       </c>
     </row>
-    <row r="75" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="4" t="s">
+    <row r="95" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A95" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="B75" s="9">
+      <c r="B95" s="9">
         <v>1.1511431625481964E-5</v>
       </c>
-      <c r="C75" s="4" t="s">
+      <c r="C95" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D75" s="4" t="s">
+      <c r="D95" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="F75" s="4" t="s">
+      <c r="F95" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="H75" s="4" t="s">
+      <c r="H95" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="I75" s="4" t="s">
+      <c r="I95" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="M75" s="8"/>
-    </row>
-    <row r="76" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B76" s="5"/>
-    </row>
-    <row r="77" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="2" t="s">
+      <c r="M95" s="8"/>
+    </row>
+    <row r="96" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B96" s="5"/>
+    </row>
+    <row r="97" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A97" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B77" s="3" t="s">
+      <c r="B97" s="3" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="78" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B78" s="5" t="s">
+    <row r="98" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A98" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B98" s="5" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="79" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="4" t="s">
+    <row r="99" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A99" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B79" s="5" t="s">
+      <c r="B99" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="80" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="4" t="s">
+    <row r="100" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A100" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B80" s="10" t="s">
+      <c r="B100" s="10" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="81" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="4" t="s">
+    <row r="101" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A101" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B81" s="5" t="s">
+      <c r="B101" s="5" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="82" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="4" t="s">
+    <row r="102" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A102" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B82" s="5" t="s">
+      <c r="B102" s="5" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="83" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="6" t="s">
+    <row r="103" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A103" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B83" s="5"/>
-    </row>
-    <row r="84" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="2" t="s">
+      <c r="B103" s="5"/>
+    </row>
+    <row r="104" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A104" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B84" s="3" t="s">
+      <c r="B104" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C84" s="2" t="s">
+      <c r="C104" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D84" s="2" t="s">
+      <c r="D104" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E84" s="2" t="s">
+      <c r="E104" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F84" s="2" t="s">
+      <c r="F104" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G84" s="2" t="s">
+      <c r="G104" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H84" s="2" t="s">
+      <c r="H104" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="I84" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="J84" s="2" t="s">
+      <c r="I104" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J104" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="K84" s="2" t="s">
+      <c r="K104" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="L84" s="2" t="s">
+      <c r="L104" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="M84" s="2" t="s">
+      <c r="M104" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="N84" s="2" t="s">
+      <c r="N104" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="O84" s="2" t="s">
+      <c r="O104" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="P84" s="2" t="s">
+      <c r="P104" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="Q84" s="2" t="s">
+      <c r="Q104" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="R84" s="2" t="s">
+      <c r="R104" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="S84" s="2" t="s">
+      <c r="S104" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="T84" s="2" t="s">
+      <c r="T104" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="U84" s="2"/>
-    </row>
-    <row r="85" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="4" t="s">
+      <c r="U104" s="2"/>
+    </row>
+    <row r="105" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A105" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="B85" s="5">
-        <v>1</v>
-      </c>
-      <c r="C85" s="4" t="s">
+      <c r="B105" s="5">
+        <v>1</v>
+      </c>
+      <c r="C105" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="E85" s="10" t="s">
+      <c r="E105" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="F85" s="4" t="s">
+      <c r="F105" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="G85" s="4" t="s">
+      <c r="G105" s="4" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="86" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="4" t="s">
+    <row r="106" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A106" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="B86" s="7">
+      <c r="B106" s="7">
         <v>1.0548435380476651E-9</v>
       </c>
-      <c r="C86" s="4" t="s">
+      <c r="C106" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E86" s="10" t="s">
+      <c r="E106" s="10" t="s">
         <v>115</v>
       </c>
-      <c r="F86" s="4" t="s">
+      <c r="F106" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="G86" s="4" t="s">
+      <c r="G106" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="H86" s="4" t="s">
+      <c r="H106" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="I86" s="4" t="s">
+      <c r="I106" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="J86" s="4">
-        <v>2</v>
-      </c>
-      <c r="K86" s="4">
+      <c r="J106" s="4">
+        <v>2</v>
+      </c>
+      <c r="K106" s="4">
         <v>-20.669873386184769</v>
       </c>
-      <c r="L86" s="4">
-        <v>1</v>
-      </c>
-      <c r="M86" s="8">
-        <v>1.2</v>
-      </c>
-      <c r="N86" s="4">
-        <v>1</v>
-      </c>
-      <c r="O86" s="4">
+      <c r="L106" s="4">
+        <v>1</v>
+      </c>
+      <c r="M106" s="8">
+        <v>1.2</v>
+      </c>
+      <c r="N106" s="4">
+        <v>1</v>
+      </c>
+      <c r="O106" s="4">
         <v>1.01</v>
       </c>
-      <c r="P86" s="4">
-        <v>1.2</v>
-      </c>
-      <c r="Q86" s="4">
-        <v>1.2</v>
-      </c>
-      <c r="R86" s="4">
+      <c r="P106" s="4">
+        <v>1.2</v>
+      </c>
+      <c r="Q106" s="4">
+        <v>1.2</v>
+      </c>
+      <c r="R106" s="4">
         <v>3</v>
       </c>
-      <c r="S86" s="4">
+      <c r="S106" s="4">
         <v>0.57157051623399524</v>
       </c>
     </row>
-    <row r="87" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="4" t="s">
+    <row r="107" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A107" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="B87" s="7">
+      <c r="B107" s="7">
         <v>1.0548435380476651E-9</v>
       </c>
-      <c r="C87" s="4" t="s">
+      <c r="C107" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E87" s="10" t="s">
+      <c r="E107" s="10" t="s">
         <v>115</v>
       </c>
-      <c r="F87" s="4" t="s">
+      <c r="F107" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="G87" s="4" t="s">
+      <c r="G107" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="H87" s="4" t="s">
+      <c r="H107" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="I87" s="4" t="s">
+      <c r="I107" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="J87" s="4">
-        <v>2</v>
-      </c>
-      <c r="K87" s="4">
+      <c r="J107" s="4">
+        <v>2</v>
+      </c>
+      <c r="K107" s="4">
         <v>-20.669873386184769</v>
       </c>
-      <c r="L87" s="4">
-        <v>1</v>
-      </c>
-      <c r="M87" s="8">
-        <v>1.2</v>
-      </c>
-      <c r="N87" s="4">
-        <v>1</v>
-      </c>
-      <c r="O87" s="4">
+      <c r="L107" s="4">
+        <v>1</v>
+      </c>
+      <c r="M107" s="8">
+        <v>1.2</v>
+      </c>
+      <c r="N107" s="4">
+        <v>1</v>
+      </c>
+      <c r="O107" s="4">
         <v>1.01</v>
       </c>
-      <c r="P87" s="4">
-        <v>1.2</v>
-      </c>
-      <c r="Q87" s="4">
-        <v>1.2</v>
-      </c>
-      <c r="R87" s="4">
+      <c r="P107" s="4">
+        <v>1.2</v>
+      </c>
+      <c r="Q107" s="4">
+        <v>1.2</v>
+      </c>
+      <c r="R107" s="4">
         <v>3</v>
       </c>
-      <c r="S87" s="4">
+      <c r="S107" s="4">
         <v>0.57157051623399524</v>
       </c>
     </row>
-    <row r="88" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="4" t="s">
+    <row r="108" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A108" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="B88" s="7">
+      <c r="B108" s="7">
         <v>1.9594773562773428E-6</v>
       </c>
-      <c r="C88" s="4" t="s">
+      <c r="C108" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E88" s="10" t="s">
+      <c r="E108" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="F88" s="4" t="s">
+      <c r="F108" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="G88" s="4" t="s">
+      <c r="G108" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="H88" s="4" t="s">
+      <c r="H108" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="J88" s="4">
-        <v>2</v>
-      </c>
-      <c r="K88" s="4">
+      <c r="J108" s="4">
+        <v>2</v>
+      </c>
+      <c r="K108" s="4">
         <v>-13.142832775241143</v>
       </c>
-      <c r="L88" s="4">
-        <v>1</v>
-      </c>
-      <c r="M88" s="8">
-        <v>1.2</v>
-      </c>
-      <c r="N88" s="4">
-        <v>1</v>
-      </c>
-      <c r="O88" s="4">
+      <c r="L108" s="4">
+        <v>1</v>
+      </c>
+      <c r="M108" s="8">
+        <v>1.2</v>
+      </c>
+      <c r="N108" s="4">
+        <v>1</v>
+      </c>
+      <c r="O108" s="4">
         <v>1.01</v>
       </c>
-      <c r="P88" s="4">
-        <v>1.2</v>
-      </c>
-      <c r="Q88" s="4">
-        <v>1.2</v>
-      </c>
-      <c r="R88" s="4">
-        <v>1.05</v>
-      </c>
-      <c r="S88" s="4">
+      <c r="P108" s="4">
+        <v>1.2</v>
+      </c>
+      <c r="Q108" s="4">
+        <v>1.2</v>
+      </c>
+      <c r="R108" s="4">
+        <v>1.05</v>
+      </c>
+      <c r="S108" s="4">
         <v>0.15984597228197622</v>
       </c>
     </row>
-    <row r="89" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B89" s="9">
+    <row r="109" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A109" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B109" s="9">
         <v>2.061739642547709E-3</v>
       </c>
-      <c r="C89" s="4" t="s">
+      <c r="C109" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E89" s="10" t="s">
+      <c r="E109" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="F89" s="4" t="s">
+      <c r="F109" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="G89" s="4" t="s">
+      <c r="G109" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="H89" s="4" t="s">
+      <c r="H109" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="I89" s="4" t="s">
+      <c r="I109" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="J89" s="4">
-        <v>2</v>
-      </c>
-      <c r="K89" s="4">
+      <c r="J109" s="4">
+        <v>2</v>
+      </c>
+      <c r="K109" s="4">
         <v>-6.1842051658852499</v>
       </c>
-      <c r="L89" s="4">
-        <v>1.05</v>
-      </c>
-      <c r="M89" s="8">
-        <v>1.2</v>
-      </c>
-      <c r="N89" s="4">
-        <v>1</v>
-      </c>
-      <c r="O89" s="4">
+      <c r="L109" s="4">
+        <v>1.05</v>
+      </c>
+      <c r="M109" s="8">
+        <v>1.2</v>
+      </c>
+      <c r="N109" s="4">
+        <v>1</v>
+      </c>
+      <c r="O109" s="4">
         <v>1.01</v>
       </c>
-      <c r="P89" s="4">
-        <v>1.2</v>
-      </c>
-      <c r="Q89" s="4">
-        <v>1.2</v>
-      </c>
-      <c r="R89" s="4">
-        <v>1.05</v>
-      </c>
-      <c r="S89" s="4">
+      <c r="P109" s="4">
+        <v>1.2</v>
+      </c>
+      <c r="Q109" s="4">
+        <v>1.2</v>
+      </c>
+      <c r="R109" s="4">
+        <v>1.05</v>
+      </c>
+      <c r="S109" s="4">
         <v>0.16169679924070957</v>
       </c>
     </row>
-    <row r="90" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B90" s="9">
+    <row r="110" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A110" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B110" s="9">
         <v>1.1545741998267272E-5</v>
       </c>
-      <c r="C90" s="4" t="s">
+      <c r="C110" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E90" s="10" t="s">
+      <c r="E110" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="F90" s="4" t="s">
+      <c r="F110" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="G90" s="4" t="s">
+      <c r="G110" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="H90" s="4" t="s">
+      <c r="H110" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="I90" s="4" t="s">
+      <c r="I110" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="J90" s="4">
-        <v>2</v>
-      </c>
-      <c r="K90" s="4">
+      <c r="J110" s="4">
+        <v>2</v>
+      </c>
+      <c r="K110" s="4">
         <v>-11.369193847126274</v>
       </c>
-      <c r="L90" s="4">
-        <v>1.05</v>
-      </c>
-      <c r="M90" s="8">
-        <v>1.2</v>
-      </c>
-      <c r="N90" s="4">
-        <v>1</v>
-      </c>
-      <c r="O90" s="4">
+      <c r="L110" s="4">
+        <v>1.05</v>
+      </c>
+      <c r="M110" s="8">
+        <v>1.2</v>
+      </c>
+      <c r="N110" s="4">
+        <v>1</v>
+      </c>
+      <c r="O110" s="4">
         <v>1.01</v>
       </c>
-      <c r="P90" s="4">
-        <v>1.2</v>
-      </c>
-      <c r="Q90" s="4">
-        <v>1.2</v>
-      </c>
-      <c r="R90" s="4">
-        <v>1.05</v>
-      </c>
-      <c r="S90" s="4">
+      <c r="P110" s="4">
+        <v>1.2</v>
+      </c>
+      <c r="Q110" s="4">
+        <v>1.2</v>
+      </c>
+      <c r="R110" s="4">
+        <v>1.05</v>
+      </c>
+      <c r="S110" s="4">
         <v>0.16169679924070957</v>
       </c>
     </row>
-    <row r="91" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="4" t="s">
+    <row r="111" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A111" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="B91" s="5">
+      <c r="B111" s="5">
         <f>0.0185556567829294/1000</f>
         <v>1.8555656782929398E-5</v>
       </c>
-      <c r="C91" s="4" t="s">
+      <c r="C111" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="D91" s="4" t="s">
+      <c r="D111" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="F91" s="4" t="s">
+      <c r="F111" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="H91" s="4" t="s">
+      <c r="H111" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="I91" s="4" t="s">
+      <c r="I111" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="J91" s="4">
-        <v>2</v>
-      </c>
-      <c r="K91" s="4">
+      <c r="J111" s="4">
+        <v>2</v>
+      </c>
+      <c r="K111" s="4">
         <v>-3.9869805885490299</v>
       </c>
-      <c r="L91" s="4">
-        <v>1.05</v>
-      </c>
-      <c r="M91" s="8">
-        <v>1.2</v>
-      </c>
-      <c r="N91" s="4">
-        <v>1</v>
-      </c>
-      <c r="O91" s="4">
+      <c r="L111" s="4">
+        <v>1.05</v>
+      </c>
+      <c r="M111" s="8">
+        <v>1.2</v>
+      </c>
+      <c r="N111" s="4">
+        <v>1</v>
+      </c>
+      <c r="O111" s="4">
         <v>1.01</v>
       </c>
-      <c r="P91" s="4">
-        <v>1.2</v>
-      </c>
-      <c r="Q91" s="4">
-        <v>1.2</v>
-      </c>
-      <c r="R91" s="4">
-        <v>1.05</v>
-      </c>
-      <c r="S91" s="4">
+      <c r="P111" s="4">
+        <v>1.2</v>
+      </c>
+      <c r="Q111" s="4">
+        <v>1.2</v>
+      </c>
+      <c r="R111" s="4">
+        <v>1.05</v>
+      </c>
+      <c r="S111" s="4">
         <v>0.16169679924070957</v>
       </c>
     </row>
-    <row r="92" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="4" t="s">
+    <row r="112" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A112" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="B92" s="9">
+      <c r="B112" s="9">
         <v>1.1545741998267272E-5</v>
       </c>
-      <c r="C92" s="4" t="s">
+      <c r="C112" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D92" s="4" t="s">
+      <c r="D112" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="F92" s="4" t="s">
+      <c r="F112" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="H92" s="4" t="s">
+      <c r="H112" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="I92" s="4" t="s">
+      <c r="I112" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="M92" s="8"/>
-    </row>
-    <row r="93" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B93" s="5"/>
+      <c r="M112" s="8"/>
+    </row>
+    <row r="113" spans="2:2" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B113" s="5"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:W93" xr:uid="{0E2FA153-E6EA-3E4B-BE1A-EC0443996927}"/>
+  <autoFilter ref="A1:W113" xr:uid="{0E2FA153-E6EA-3E4B-BE1A-EC0443996927}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/premise/data/additional_inventories/lci-hydrogen-heating.xlsx
+++ b/premise/data/additional_inventories/lci-hydrogen-heating.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romain/Github/premise/premise/data/additional_inventories/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8828EB46-C4A9-704A-AE41-DDEE5691C2DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C98D162A-A2B2-7246-9839-D2307DA9EA52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="44800" windowHeight="23000" xr2:uid="{CF516D2F-FFD4-214F-BF62-5C2F0868DC96}"/>
   </bookViews>
@@ -813,7 +813,7 @@
   <dimension ref="A1:W113"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4356,5 +4356,6 @@
   </sheetData>
   <autoFilter ref="A1:W113" xr:uid="{0E2FA153-E6EA-3E4B-BE1A-EC0443996927}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/premise/data/additional_inventories/lci-hydrogen-heating.xlsx
+++ b/premise/data/additional_inventories/lci-hydrogen-heating.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romain/GitHub/premise/premise/data/additional_inventories/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{979DF0C1-CC93-2C4D-B291-264680790969}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{511BC481-408D-304B-8313-1D7EC760DAD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{CF516D2F-FFD4-214F-BF62-5C2F0868DC96}"/>
   </bookViews>
@@ -553,9 +553,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -593,7 +593,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -699,7 +699,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -841,7 +841,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -851,8 +851,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E2FA153-E6EA-3E4B-BE1A-EC0443996927}">
   <dimension ref="A1:W148"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
-      <selection activeCell="A151" sqref="A151"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/premise/data/additional_inventories/lci-hydrogen-heating.xlsx
+++ b/premise/data/additional_inventories/lci-hydrogen-heating.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10315"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romain/GitHub/premise/premise/data/additional_inventories/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{511BC481-408D-304B-8313-1D7EC760DAD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A65336C7-DDA1-C244-9BF5-71DE7F09D2FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{CF516D2F-FFD4-214F-BF62-5C2F0868DC96}"/>
+    <workbookView xWindow="31900" yWindow="-760" windowWidth="30240" windowHeight="18880" xr2:uid="{CF516D2F-FFD4-214F-BF62-5C2F0868DC96}"/>
   </bookViews>
   <sheets>
     <sheet name="hydrogen boiler" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="766" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1721" uniqueCount="182">
   <si>
     <t>Activity</t>
   </si>
@@ -441,6 +441,150 @@
   </si>
   <si>
     <t>This dataset represents the supply of 1 kilowatt hour of electricity in a residence, by hydrogen conversion in a fuel cell, SOFC. The hydrogen is produced by  Electrolysis, PEM, with electricity from grid as feedstock. Electricity conversion efficiency [% LHV input]: 47%. LHV [kWh/kg]: 33.3333333333333. Market price [Euro/MJ]: 0.0266666666666667. Synthesis efficiency [% LHV input]: 0%. Total cap. Input-related [kW]: 268.75. CO2 biogenic share [%]: 0%. Power [kW]: 90. Lifetime [years]: 19.5121951219512. Annual operation [hours]: 4100. Allocation factor: 0.918355110155111. On-site storage loss [%]: 0. Use loss [%]: 0.56. For more information, refer to: Sacchi, R. and Bauer, C. LCA of Power-to-X processes and applications in the residential sector. Paul Scherrer Institut, 2023.</t>
+  </si>
+  <si>
+    <t>heat, residential, by combustion of synthetic natural gas from catalytic methanation using boiler, distributed by pipeline, produced by Electrolysis, PEM using electricity from grid and carbon sourced from DAC</t>
+  </si>
+  <si>
+    <t>This dataset represents the supply of 1 megajoule of heat in a residence, by synthetic natural gas from catalytic methanation combustion in a boiler.  The synthetic natural gas from catalytic methanation is produced by  Electrolysis, PEM, with electricity from grid as feedstock. The carbon is sourced from DAC. Heat conversion efficiency [% LHV input]: 109.5%. LHV [MJ/kg]: 48. Market price [Euro/MJ]: 0.0266666666666667. Distribution loss [% output]: 0.019%. Storage loss [% output]: 0%. CO2 biogenic share [%]: 100%. Power [kW]: 16.4. Lifetime [years]: 20. Annual operation [hours]: 2100. : .  For more information, refer to: Sacchi, R. and Bauer, C. LCA of Power-to-X processes and applications in the residential sector. Paul Scherrer Institut, 2023.</t>
+  </si>
+  <si>
+    <t>1/(Cap. [kW] * lifetime [y] * annual operation [h] * 3.6 [MJ/kWh])</t>
+  </si>
+  <si>
+    <t>grid electricity</t>
+  </si>
+  <si>
+    <t>synthetic natural gas</t>
+  </si>
+  <si>
+    <t>Methane input. 1 [MJ SNG]/ 47.5 [MJ/kg SNG]/ eff.(th)</t>
+  </si>
+  <si>
+    <t>SNG biological - w CO2 from DAC</t>
+  </si>
+  <si>
+    <t>Acetaldehyde</t>
+  </si>
+  <si>
+    <t>air::urban air close to ground</t>
+  </si>
+  <si>
+    <t>Adapted from "heat production, biomethane, at boiler condensing modulating &lt;100kW"</t>
+  </si>
+  <si>
+    <t>Acetic acid</t>
+  </si>
+  <si>
+    <t>Benzene</t>
+  </si>
+  <si>
+    <t>Benzo(a)pyrene</t>
+  </si>
+  <si>
+    <t>Carbon dioxide, fossil</t>
+  </si>
+  <si>
+    <t>Carbon dioxide, non-fossil</t>
+  </si>
+  <si>
+    <t>Carbon monoxide, non-fossil</t>
+  </si>
+  <si>
+    <t>Dinitrogen monoxide</t>
+  </si>
+  <si>
+    <t>Dioxins, measured as 2,3,7,8-tetrachlorodibenzo-p-dioxin</t>
+  </si>
+  <si>
+    <t>Formaldehyde</t>
+  </si>
+  <si>
+    <t>Mercury II</t>
+  </si>
+  <si>
+    <t>Methane, non-fossil</t>
+  </si>
+  <si>
+    <t>Methane, fossil</t>
+  </si>
+  <si>
+    <t>PAH, polycyclic aromatic hydrocarbons</t>
+  </si>
+  <si>
+    <t>Particulate Matter, &lt; 2.5 um</t>
+  </si>
+  <si>
+    <t>Pentane</t>
+  </si>
+  <si>
+    <t>Propionic acid</t>
+  </si>
+  <si>
+    <t>Sulfur dioxide</t>
+  </si>
+  <si>
+    <t>Toluene</t>
+  </si>
+  <si>
+    <t>Nitrate</t>
+  </si>
+  <si>
+    <t>water::surface water</t>
+  </si>
+  <si>
+    <t>Nitrite</t>
+  </si>
+  <si>
+    <t>Sulfate</t>
+  </si>
+  <si>
+    <t>Sulfite</t>
+  </si>
+  <si>
+    <t>methane, from electrochemical methanation, with carbon from atmosphere</t>
+  </si>
+  <si>
+    <t>methane, from electrochemical methanation</t>
+  </si>
+  <si>
+    <t>heat, residential, by combustion of coal-based natural gas using boiler, distributed by pipeline</t>
+  </si>
+  <si>
+    <t>methane, synthetic, gaseous, 5 bar, from coal-based hydrogen, at fuelling station</t>
+  </si>
+  <si>
+    <t>methane, high pressure</t>
+  </si>
+  <si>
+    <t>Carbon monoxide, fossil</t>
+  </si>
+  <si>
+    <t>heat, residential, by combustion of biomethane using boiler, distributed by pipeline</t>
+  </si>
+  <si>
+    <t>biomethane, gaseous, 5 bar, from sewage sludge fermentation, at fuelling station</t>
+  </si>
+  <si>
+    <t>biomethane, high pressure</t>
+  </si>
+  <si>
+    <t>heat, residential, by combustion of liquefied petroleum gas using boiler, distributed by pipeline</t>
+  </si>
+  <si>
+    <t>This dataset represents the supply of 1 megajoule of heat in a residence, by coal-based natural gas combustion in a boiler. Heat conversion efficiency [% LHV input]: 109.5%. LHV [MJ/kg]: 48. Market price [Euro/MJ]: 0.0266666666666667. Distribution loss [% output]: 0.019%. Storage loss [% output]: 0%. CO2 biogenic share [%]: 100%. Power [kW]: 16.4. Lifetime [years]: 20. Annual operation [hours]: 2100. : .  For more information, refer to: Sacchi, R. and Bauer, C. LCA of Power-to-X processes and applications in the residential sector. Paul Scherrer Institut, 2023.</t>
+  </si>
+  <si>
+    <t>This dataset represents the supply of 1 megajoule of heat in a residence, by biomethane methanation combustion in a boiler. Heat conversion efficiency [% LHV input]: 109.5%. LHV [MJ/kg]: 48. Market price [Euro/MJ]: 0.0266666666666667. Distribution loss [% output]: 0.019%. Storage loss [% output]: 0%. CO2 biogenic share [%]: 100%. Power [kW]: 16.4. Lifetime [years]: 20. Annual operation [hours]: 2100. : .  For more information, refer to: Sacchi, R. and Bauer, C. LCA of Power-to-X processes and applications in the residential sector. Paul Scherrer Institut, 2023.</t>
+  </si>
+  <si>
+    <t>This dataset represents the supply of 1 megajoule of heat in a residence, by LPG combustion in a boiler. Assumptions and perforances of a natural gas boiler used. Heat conversion efficiency [% LHV input]: 109.5%. LHV [MJ/kg]: 48. Market price [Euro/MJ]: 0.0266666666666667. Distribution loss [% output]: 0.019%. Storage loss [% output]: 0%. CO2 biogenic share [%]: 100%. Power [kW]: 16.4. Lifetime [years]: 20. Annual operation [hours]: 2100. : .  For more information, refer to: Sacchi, R. and Bauer, C. LCA of Power-to-X processes and applications in the residential sector. Paul Scherrer Institut, 2023.</t>
+  </si>
+  <si>
+    <t>market for liquefied petroleum gas</t>
+  </si>
+  <si>
+    <t>liquefied petroleum gas</t>
   </si>
 </sst>
 </file>
@@ -849,10 +993,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E2FA153-E6EA-3E4B-BE1A-EC0443996927}">
-  <dimension ref="A1:W148"/>
+  <dimension ref="A1:W292"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView tabSelected="1" topLeftCell="A252" workbookViewId="0">
+      <selection activeCell="C269" sqref="C269"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5220,7 +5364,7 @@
         <v>0.16169679924070957</v>
       </c>
     </row>
-    <row r="145" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>113</v>
       </c>
@@ -5282,7 +5426,7 @@
         <v>0.16169679924070957</v>
       </c>
     </row>
-    <row r="146" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A146" s="4" t="s">
         <v>83</v>
       </c>
@@ -5339,7 +5483,7 @@
         <v>0.16169679924070957</v>
       </c>
     </row>
-    <row r="147" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A147" s="4" t="s">
         <v>53</v>
       </c>
@@ -5366,8 +5510,6587 @@
       </c>
       <c r="O147" s="8"/>
     </row>
-    <row r="148" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B148" s="5"/>
+    </row>
+    <row r="149" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A149" t="s">
+        <v>0</v>
+      </c>
+      <c r="B149" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="150" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A150" t="s">
+        <v>1</v>
+      </c>
+      <c r="B150" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="151" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A151" t="s">
+        <v>2</v>
+      </c>
+      <c r="B151" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="152" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A152" t="s">
+        <v>4</v>
+      </c>
+      <c r="B152" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="153" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A153" t="s">
+        <v>5</v>
+      </c>
+      <c r="B153" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="154" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A154" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="155" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A155" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B155" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C155" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D155" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E155" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F155" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G155" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H155" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I155" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J155" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="K155" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="L155" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="M155" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="N155" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="O155" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="P155" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q155" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="R155" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="S155" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="T155" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="U155" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="V155" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="W155" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="156" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A156" t="s">
+        <v>134</v>
+      </c>
+      <c r="B156">
+        <v>1</v>
+      </c>
+      <c r="C156" t="s">
+        <v>91</v>
+      </c>
+      <c r="E156" t="s">
+        <v>41</v>
+      </c>
+      <c r="F156" t="s">
+        <v>28</v>
+      </c>
+      <c r="G156" t="s">
+        <v>90</v>
+      </c>
+      <c r="K156" t="s">
+        <v>134</v>
+      </c>
+      <c r="W156" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="157" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A157" t="s">
+        <v>59</v>
+      </c>
+      <c r="B157">
+        <v>4.0327784230223253E-7</v>
+      </c>
+      <c r="C157" t="s">
+        <v>7</v>
+      </c>
+      <c r="E157" t="s">
+        <v>60</v>
+      </c>
+      <c r="F157" t="s">
+        <v>29</v>
+      </c>
+      <c r="G157" t="s">
+        <v>61</v>
+      </c>
+      <c r="H157" t="s">
+        <v>35</v>
+      </c>
+      <c r="I157" t="s">
+        <v>136</v>
+      </c>
+      <c r="K157" t="s">
+        <v>134</v>
+      </c>
+      <c r="L157">
+        <v>2</v>
+      </c>
+      <c r="M157">
+        <v>-14.723640077557722</v>
+      </c>
+      <c r="N157">
+        <v>1.05</v>
+      </c>
+      <c r="O157">
+        <v>1.2</v>
+      </c>
+      <c r="P157">
+        <v>1</v>
+      </c>
+      <c r="Q157">
+        <v>1.01</v>
+      </c>
+      <c r="R157">
+        <v>1.2</v>
+      </c>
+      <c r="S157">
+        <v>1.2</v>
+      </c>
+      <c r="T157">
+        <v>3</v>
+      </c>
+      <c r="U157">
+        <v>0.57209088006881903</v>
+      </c>
+    </row>
+    <row r="158" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A158" t="s">
+        <v>63</v>
+      </c>
+      <c r="B158">
+        <v>8.8199999999999998E-7</v>
+      </c>
+      <c r="C158" t="s">
+        <v>64</v>
+      </c>
+      <c r="E158" t="s">
+        <v>60</v>
+      </c>
+      <c r="F158" t="s">
+        <v>29</v>
+      </c>
+      <c r="G158" t="s">
+        <v>65</v>
+      </c>
+      <c r="H158" t="s">
+        <v>35</v>
+      </c>
+      <c r="I158" t="s">
+        <v>66</v>
+      </c>
+      <c r="K158" t="s">
+        <v>134</v>
+      </c>
+      <c r="L158">
+        <v>2</v>
+      </c>
+      <c r="M158">
+        <v>-13.94107378093962</v>
+      </c>
+      <c r="N158">
+        <v>1.05</v>
+      </c>
+      <c r="O158">
+        <v>1.2</v>
+      </c>
+      <c r="P158">
+        <v>1</v>
+      </c>
+      <c r="Q158">
+        <v>1.01</v>
+      </c>
+      <c r="R158">
+        <v>1.2</v>
+      </c>
+      <c r="S158">
+        <v>1.2</v>
+      </c>
+      <c r="T158">
+        <v>3</v>
+      </c>
+      <c r="U158">
+        <v>0.57209088006881903</v>
+      </c>
+    </row>
+    <row r="159" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A159" t="s">
+        <v>109</v>
+      </c>
+      <c r="B159">
+        <v>7.3399999999999995E-4</v>
+      </c>
+      <c r="C159" t="s">
+        <v>48</v>
+      </c>
+      <c r="E159" t="s">
+        <v>41</v>
+      </c>
+      <c r="F159" t="s">
+        <v>29</v>
+      </c>
+      <c r="G159" t="s">
+        <v>49</v>
+      </c>
+      <c r="H159" t="s">
+        <v>10</v>
+      </c>
+      <c r="I159" t="s">
+        <v>72</v>
+      </c>
+      <c r="J159" t="s">
+        <v>137</v>
+      </c>
+      <c r="K159" t="s">
+        <v>134</v>
+      </c>
+      <c r="L159">
+        <v>2</v>
+      </c>
+      <c r="M159">
+        <v>-7.2170015293497585</v>
+      </c>
+      <c r="N159">
+        <v>1.05</v>
+      </c>
+      <c r="O159">
+        <v>1.2</v>
+      </c>
+      <c r="P159">
+        <v>1</v>
+      </c>
+      <c r="Q159">
+        <v>1.01</v>
+      </c>
+      <c r="R159">
+        <v>1.2</v>
+      </c>
+      <c r="S159">
+        <v>1.2</v>
+      </c>
+      <c r="T159">
+        <v>1.05</v>
+      </c>
+      <c r="U159">
+        <v>0.16169679924070957</v>
+      </c>
+    </row>
+    <row r="160" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A160" t="s">
+        <v>167</v>
+      </c>
+      <c r="B160">
+        <v>1.9025875190258751E-2</v>
+      </c>
+      <c r="C160" t="s">
+        <v>8</v>
+      </c>
+      <c r="E160" t="s">
+        <v>41</v>
+      </c>
+      <c r="F160" t="s">
+        <v>29</v>
+      </c>
+      <c r="G160" t="s">
+        <v>168</v>
+      </c>
+      <c r="H160" t="s">
+        <v>138</v>
+      </c>
+      <c r="I160" t="s">
+        <v>139</v>
+      </c>
+      <c r="J160" t="s">
+        <v>140</v>
+      </c>
+      <c r="K160" t="s">
+        <v>134</v>
+      </c>
+      <c r="L160">
+        <v>2</v>
+      </c>
+      <c r="M160">
+        <v>-3.9619553741763553</v>
+      </c>
+      <c r="N160">
+        <v>1.05</v>
+      </c>
+      <c r="O160">
+        <v>1.2</v>
+      </c>
+      <c r="P160">
+        <v>1</v>
+      </c>
+      <c r="Q160">
+        <v>1.01</v>
+      </c>
+      <c r="R160">
+        <v>1.2</v>
+      </c>
+      <c r="S160">
+        <v>1.2</v>
+      </c>
+      <c r="T160">
+        <v>1.05</v>
+      </c>
+      <c r="U160">
+        <v>0.16169679924070957</v>
+      </c>
+    </row>
+    <row r="161" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A161" t="s">
+        <v>141</v>
+      </c>
+      <c r="B161">
+        <v>9.7999999999999992E-10</v>
+      </c>
+      <c r="C161" t="s">
+        <v>8</v>
+      </c>
+      <c r="D161" t="s">
+        <v>142</v>
+      </c>
+      <c r="F161" t="s">
+        <v>55</v>
+      </c>
+      <c r="H161" t="s">
+        <v>56</v>
+      </c>
+      <c r="I161" t="s">
+        <v>143</v>
+      </c>
+      <c r="K161" t="s">
+        <v>134</v>
+      </c>
+      <c r="L161">
+        <v>2</v>
+      </c>
+      <c r="M161">
+        <v>-20.74346854426393</v>
+      </c>
+      <c r="N161">
+        <v>1.5</v>
+      </c>
+      <c r="O161">
+        <v>1.2</v>
+      </c>
+      <c r="P161">
+        <v>1.5</v>
+      </c>
+      <c r="Q161">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="R161">
+        <v>2</v>
+      </c>
+      <c r="S161">
+        <v>1.2</v>
+      </c>
+      <c r="T161">
+        <v>1.5</v>
+      </c>
+      <c r="U161">
+        <v>0.51215847306170115</v>
+      </c>
+    </row>
+    <row r="162" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A162" t="s">
+        <v>144</v>
+      </c>
+      <c r="B162">
+        <v>1.4700000000000001E-7</v>
+      </c>
+      <c r="C162" t="s">
+        <v>8</v>
+      </c>
+      <c r="D162" t="s">
+        <v>142</v>
+      </c>
+      <c r="F162" t="s">
+        <v>55</v>
+      </c>
+      <c r="H162" t="s">
+        <v>56</v>
+      </c>
+      <c r="I162" t="s">
+        <v>143</v>
+      </c>
+      <c r="K162" t="s">
+        <v>134</v>
+      </c>
+      <c r="L162">
+        <v>2</v>
+      </c>
+      <c r="M162">
+        <v>-15.732833250167674</v>
+      </c>
+      <c r="N162">
+        <v>1.5</v>
+      </c>
+      <c r="O162">
+        <v>1.2</v>
+      </c>
+      <c r="P162">
+        <v>1.5</v>
+      </c>
+      <c r="Q162">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="R162">
+        <v>2</v>
+      </c>
+      <c r="S162">
+        <v>1.2</v>
+      </c>
+      <c r="T162">
+        <v>1.5</v>
+      </c>
+      <c r="U162">
+        <v>0.51215847306170115</v>
+      </c>
+    </row>
+    <row r="163" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A163" t="s">
+        <v>145</v>
+      </c>
+      <c r="B163">
+        <v>3.9200000000000002E-7</v>
+      </c>
+      <c r="C163" t="s">
+        <v>8</v>
+      </c>
+      <c r="D163" t="s">
+        <v>142</v>
+      </c>
+      <c r="F163" t="s">
+        <v>55</v>
+      </c>
+      <c r="H163" t="s">
+        <v>56</v>
+      </c>
+      <c r="I163" t="s">
+        <v>143</v>
+      </c>
+      <c r="K163" t="s">
+        <v>134</v>
+      </c>
+      <c r="L163">
+        <v>2</v>
+      </c>
+      <c r="M163">
+        <v>-14.752003997155949</v>
+      </c>
+      <c r="N163">
+        <v>1.5</v>
+      </c>
+      <c r="O163">
+        <v>1.2</v>
+      </c>
+      <c r="P163">
+        <v>1.5</v>
+      </c>
+      <c r="Q163">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="R163">
+        <v>2</v>
+      </c>
+      <c r="S163">
+        <v>1.2</v>
+      </c>
+      <c r="T163">
+        <v>1.5</v>
+      </c>
+      <c r="U163">
+        <v>0.51215847306170115</v>
+      </c>
+    </row>
+    <row r="164" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A164" t="s">
+        <v>146</v>
+      </c>
+      <c r="B164">
+        <v>9.7999999999999994E-12</v>
+      </c>
+      <c r="C164" t="s">
+        <v>8</v>
+      </c>
+      <c r="D164" t="s">
+        <v>142</v>
+      </c>
+      <c r="F164" t="s">
+        <v>55</v>
+      </c>
+      <c r="H164" t="s">
+        <v>56</v>
+      </c>
+      <c r="I164" t="s">
+        <v>143</v>
+      </c>
+      <c r="K164" t="s">
+        <v>134</v>
+      </c>
+      <c r="L164">
+        <v>2</v>
+      </c>
+      <c r="M164">
+        <v>-25.348638730252024</v>
+      </c>
+      <c r="N164">
+        <v>1.5</v>
+      </c>
+      <c r="O164">
+        <v>1.2</v>
+      </c>
+      <c r="P164">
+        <v>1.5</v>
+      </c>
+      <c r="Q164">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="R164">
+        <v>2</v>
+      </c>
+      <c r="S164">
+        <v>1.2</v>
+      </c>
+      <c r="T164">
+        <v>1.5</v>
+      </c>
+      <c r="U164">
+        <v>0.51215847306170115</v>
+      </c>
+    </row>
+    <row r="165" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A165" t="s">
+        <v>147</v>
+      </c>
+      <c r="B165">
+        <v>0</v>
+      </c>
+      <c r="C165" t="s">
+        <v>8</v>
+      </c>
+      <c r="D165" t="s">
+        <v>142</v>
+      </c>
+      <c r="F165" t="s">
+        <v>55</v>
+      </c>
+      <c r="H165" t="s">
+        <v>56</v>
+      </c>
+      <c r="I165" t="s">
+        <v>143</v>
+      </c>
+      <c r="K165" t="s">
+        <v>134</v>
+      </c>
+      <c r="L165">
+        <v>1</v>
+      </c>
+      <c r="M165" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="166" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A166" t="s">
+        <v>148</v>
+      </c>
+      <c r="B166">
+        <v>5.2130898021308984E-2</v>
+      </c>
+      <c r="C166" t="s">
+        <v>8</v>
+      </c>
+      <c r="D166" t="s">
+        <v>142</v>
+      </c>
+      <c r="F166" t="s">
+        <v>55</v>
+      </c>
+      <c r="H166" t="s">
+        <v>56</v>
+      </c>
+      <c r="I166" t="s">
+        <v>143</v>
+      </c>
+      <c r="K166" t="s">
+        <v>134</v>
+      </c>
+      <c r="L166">
+        <v>2</v>
+      </c>
+      <c r="M166">
+        <v>-2.9539974537763762</v>
+      </c>
+      <c r="N166">
+        <v>1.5</v>
+      </c>
+      <c r="O166">
+        <v>1.2</v>
+      </c>
+      <c r="P166">
+        <v>1.5</v>
+      </c>
+      <c r="Q166">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="R166">
+        <v>2</v>
+      </c>
+      <c r="S166">
+        <v>1.2</v>
+      </c>
+      <c r="T166">
+        <v>1.05</v>
+      </c>
+      <c r="U166">
+        <v>0.47095746419981693</v>
+      </c>
+    </row>
+    <row r="167" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A167" t="s">
+        <v>149</v>
+      </c>
+      <c r="B167">
+        <v>5.7819999999999999E-6</v>
+      </c>
+      <c r="C167" t="s">
+        <v>8</v>
+      </c>
+      <c r="D167" t="s">
+        <v>142</v>
+      </c>
+      <c r="F167" t="s">
+        <v>55</v>
+      </c>
+      <c r="H167" t="s">
+        <v>56</v>
+      </c>
+      <c r="I167" t="s">
+        <v>143</v>
+      </c>
+      <c r="K167" t="s">
+        <v>134</v>
+      </c>
+      <c r="L167">
+        <v>2</v>
+      </c>
+      <c r="M167">
+        <v>-12.060760914370119</v>
+      </c>
+      <c r="N167">
+        <v>1.5</v>
+      </c>
+      <c r="O167">
+        <v>1.2</v>
+      </c>
+      <c r="P167">
+        <v>1.5</v>
+      </c>
+      <c r="Q167">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="R167">
+        <v>2</v>
+      </c>
+      <c r="S167">
+        <v>1.2</v>
+      </c>
+      <c r="T167">
+        <v>5</v>
+      </c>
+      <c r="U167">
+        <v>0.93208283513358414</v>
+      </c>
+    </row>
+    <row r="168" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A168" t="s">
+        <v>150</v>
+      </c>
+      <c r="B168">
+        <v>4.8999999999999997E-7</v>
+      </c>
+      <c r="C168" t="s">
+        <v>8</v>
+      </c>
+      <c r="D168" t="s">
+        <v>142</v>
+      </c>
+      <c r="F168" t="s">
+        <v>55</v>
+      </c>
+      <c r="H168" t="s">
+        <v>56</v>
+      </c>
+      <c r="I168" t="s">
+        <v>143</v>
+      </c>
+      <c r="K168" t="s">
+        <v>134</v>
+      </c>
+      <c r="L168">
+        <v>2</v>
+      </c>
+      <c r="M168">
+        <v>-14.528860445841739</v>
+      </c>
+      <c r="N168">
+        <v>1.5</v>
+      </c>
+      <c r="O168">
+        <v>1.2</v>
+      </c>
+      <c r="P168">
+        <v>1.5</v>
+      </c>
+      <c r="Q168">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="R168">
+        <v>2</v>
+      </c>
+      <c r="S168">
+        <v>1.2</v>
+      </c>
+      <c r="T168">
+        <v>1.5</v>
+      </c>
+      <c r="U168">
+        <v>0.51215847306170115</v>
+      </c>
+    </row>
+    <row r="169" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A169" t="s">
+        <v>151</v>
+      </c>
+      <c r="B169">
+        <v>2.9400000000000001E-17</v>
+      </c>
+      <c r="C169" t="s">
+        <v>8</v>
+      </c>
+      <c r="D169" t="s">
+        <v>142</v>
+      </c>
+      <c r="F169" t="s">
+        <v>55</v>
+      </c>
+      <c r="H169" t="s">
+        <v>56</v>
+      </c>
+      <c r="I169" t="s">
+        <v>143</v>
+      </c>
+      <c r="K169" t="s">
+        <v>134</v>
+      </c>
+      <c r="L169">
+        <v>2</v>
+      </c>
+      <c r="M169">
+        <v>-38.065536999548186</v>
+      </c>
+      <c r="N169">
+        <v>1.5</v>
+      </c>
+      <c r="O169">
+        <v>1.2</v>
+      </c>
+      <c r="P169">
+        <v>1.5</v>
+      </c>
+      <c r="Q169">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="R169">
+        <v>2</v>
+      </c>
+      <c r="S169">
+        <v>1.2</v>
+      </c>
+      <c r="T169">
+        <v>1.5</v>
+      </c>
+      <c r="U169">
+        <v>0.51215847306170115</v>
+      </c>
+    </row>
+    <row r="170" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A170" t="s">
+        <v>152</v>
+      </c>
+      <c r="B170">
+        <v>9.8000000000000004E-8</v>
+      </c>
+      <c r="C170" t="s">
+        <v>8</v>
+      </c>
+      <c r="D170" t="s">
+        <v>142</v>
+      </c>
+      <c r="F170" t="s">
+        <v>55</v>
+      </c>
+      <c r="H170" t="s">
+        <v>56</v>
+      </c>
+      <c r="I170" t="s">
+        <v>143</v>
+      </c>
+      <c r="K170" t="s">
+        <v>134</v>
+      </c>
+      <c r="L170">
+        <v>2</v>
+      </c>
+      <c r="M170">
+        <v>-16.13829835827584</v>
+      </c>
+      <c r="N170">
+        <v>1.5</v>
+      </c>
+      <c r="O170">
+        <v>1.2</v>
+      </c>
+      <c r="P170">
+        <v>1.5</v>
+      </c>
+      <c r="Q170">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="R170">
+        <v>2</v>
+      </c>
+      <c r="S170">
+        <v>1.2</v>
+      </c>
+      <c r="T170">
+        <v>1.5</v>
+      </c>
+      <c r="U170">
+        <v>0.51215847306170115</v>
+      </c>
+    </row>
+    <row r="171" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A171" t="s">
+        <v>153</v>
+      </c>
+      <c r="B171">
+        <v>2.9400000000000003E-11</v>
+      </c>
+      <c r="C171" t="s">
+        <v>8</v>
+      </c>
+      <c r="D171" t="s">
+        <v>142</v>
+      </c>
+      <c r="F171" t="s">
+        <v>55</v>
+      </c>
+      <c r="H171" t="s">
+        <v>56</v>
+      </c>
+      <c r="I171" t="s">
+        <v>143</v>
+      </c>
+      <c r="K171" t="s">
+        <v>134</v>
+      </c>
+      <c r="L171">
+        <v>2</v>
+      </c>
+      <c r="M171">
+        <v>-24.250026441583913</v>
+      </c>
+      <c r="N171">
+        <v>1.5</v>
+      </c>
+      <c r="O171">
+        <v>1.2</v>
+      </c>
+      <c r="P171">
+        <v>1.5</v>
+      </c>
+      <c r="Q171">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="R171">
+        <v>2</v>
+      </c>
+      <c r="S171">
+        <v>1.2</v>
+      </c>
+      <c r="T171">
+        <v>5</v>
+      </c>
+      <c r="U171">
+        <v>0.93208283513358414</v>
+      </c>
+    </row>
+    <row r="172" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A172" t="s">
+        <v>154</v>
+      </c>
+      <c r="B172">
+        <v>1.9599999999999999E-6</v>
+      </c>
+      <c r="C172" t="s">
+        <v>8</v>
+      </c>
+      <c r="D172" t="s">
+        <v>142</v>
+      </c>
+      <c r="F172" t="s">
+        <v>55</v>
+      </c>
+      <c r="H172" t="s">
+        <v>56</v>
+      </c>
+      <c r="I172" t="s">
+        <v>143</v>
+      </c>
+      <c r="K172" t="s">
+        <v>134</v>
+      </c>
+      <c r="L172">
+        <v>2</v>
+      </c>
+      <c r="M172">
+        <v>-13.142566084721848</v>
+      </c>
+      <c r="N172">
+        <v>1.5</v>
+      </c>
+      <c r="O172">
+        <v>1.2</v>
+      </c>
+      <c r="P172">
+        <v>1.5</v>
+      </c>
+      <c r="Q172">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="R172">
+        <v>2</v>
+      </c>
+      <c r="S172">
+        <v>1.2</v>
+      </c>
+      <c r="T172">
+        <v>1.5</v>
+      </c>
+      <c r="U172">
+        <v>0.51215847306170115</v>
+      </c>
+    </row>
+    <row r="173" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A173" t="s">
+        <v>155</v>
+      </c>
+      <c r="B173">
+        <v>0</v>
+      </c>
+      <c r="C173" t="s">
+        <v>8</v>
+      </c>
+      <c r="D173" t="s">
+        <v>142</v>
+      </c>
+      <c r="F173" t="s">
+        <v>55</v>
+      </c>
+      <c r="H173" t="s">
+        <v>56</v>
+      </c>
+      <c r="I173" t="s">
+        <v>143</v>
+      </c>
+      <c r="K173" t="s">
+        <v>134</v>
+      </c>
+      <c r="L173">
+        <v>1</v>
+      </c>
+      <c r="M173" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="174" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A174" t="s">
+        <v>85</v>
+      </c>
+      <c r="B174">
+        <v>9.7019999999999996E-6</v>
+      </c>
+      <c r="C174" t="s">
+        <v>8</v>
+      </c>
+      <c r="D174" t="s">
+        <v>142</v>
+      </c>
+      <c r="F174" t="s">
+        <v>55</v>
+      </c>
+      <c r="H174" t="s">
+        <v>56</v>
+      </c>
+      <c r="I174" t="s">
+        <v>143</v>
+      </c>
+      <c r="K174" t="s">
+        <v>134</v>
+      </c>
+      <c r="L174">
+        <v>2</v>
+      </c>
+      <c r="M174">
+        <v>-11.543178508141249</v>
+      </c>
+      <c r="N174">
+        <v>1.5</v>
+      </c>
+      <c r="O174">
+        <v>1.2</v>
+      </c>
+      <c r="P174">
+        <v>1.5</v>
+      </c>
+      <c r="Q174">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="R174">
+        <v>2</v>
+      </c>
+      <c r="S174">
+        <v>1.2</v>
+      </c>
+      <c r="T174">
+        <v>1.5</v>
+      </c>
+      <c r="U174">
+        <v>0.51215847306170115</v>
+      </c>
+    </row>
+    <row r="175" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A175" t="s">
+        <v>156</v>
+      </c>
+      <c r="B175">
+        <v>9.8000000000000001E-9</v>
+      </c>
+      <c r="C175" t="s">
+        <v>8</v>
+      </c>
+      <c r="D175" t="s">
+        <v>142</v>
+      </c>
+      <c r="F175" t="s">
+        <v>55</v>
+      </c>
+      <c r="H175" t="s">
+        <v>56</v>
+      </c>
+      <c r="I175" t="s">
+        <v>143</v>
+      </c>
+      <c r="K175" t="s">
+        <v>134</v>
+      </c>
+      <c r="L175">
+        <v>2</v>
+      </c>
+      <c r="M175">
+        <v>-18.440883451269883</v>
+      </c>
+      <c r="N175">
+        <v>1.5</v>
+      </c>
+      <c r="O175">
+        <v>1.2</v>
+      </c>
+      <c r="P175">
+        <v>1.5</v>
+      </c>
+      <c r="Q175">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="R175">
+        <v>2</v>
+      </c>
+      <c r="S175">
+        <v>1.2</v>
+      </c>
+      <c r="T175">
+        <v>3</v>
+      </c>
+      <c r="U175">
+        <v>0.72314801614797197</v>
+      </c>
+    </row>
+    <row r="176" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A176" t="s">
+        <v>157</v>
+      </c>
+      <c r="B176">
+        <v>9.8000000000000004E-8</v>
+      </c>
+      <c r="C176" t="s">
+        <v>8</v>
+      </c>
+      <c r="D176" t="s">
+        <v>142</v>
+      </c>
+      <c r="F176" t="s">
+        <v>55</v>
+      </c>
+      <c r="H176" t="s">
+        <v>56</v>
+      </c>
+      <c r="I176" t="s">
+        <v>143</v>
+      </c>
+      <c r="K176" t="s">
+        <v>134</v>
+      </c>
+      <c r="L176">
+        <v>2</v>
+      </c>
+      <c r="M176">
+        <v>-16.13829835827584</v>
+      </c>
+      <c r="N176">
+        <v>1.5</v>
+      </c>
+      <c r="O176">
+        <v>1.2</v>
+      </c>
+      <c r="P176">
+        <v>1.5</v>
+      </c>
+      <c r="Q176">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="R176">
+        <v>2</v>
+      </c>
+      <c r="S176">
+        <v>1.2</v>
+      </c>
+      <c r="T176">
+        <v>3</v>
+      </c>
+      <c r="U176">
+        <v>0.72314801614797197</v>
+      </c>
+    </row>
+    <row r="177" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A177" t="s">
+        <v>158</v>
+      </c>
+      <c r="B177">
+        <v>1.176E-6</v>
+      </c>
+      <c r="C177" t="s">
+        <v>8</v>
+      </c>
+      <c r="D177" t="s">
+        <v>142</v>
+      </c>
+      <c r="F177" t="s">
+        <v>55</v>
+      </c>
+      <c r="H177" t="s">
+        <v>56</v>
+      </c>
+      <c r="I177" t="s">
+        <v>143</v>
+      </c>
+      <c r="K177" t="s">
+        <v>134</v>
+      </c>
+      <c r="L177">
+        <v>2</v>
+      </c>
+      <c r="M177">
+        <v>-13.653391708487838</v>
+      </c>
+      <c r="N177">
+        <v>1.5</v>
+      </c>
+      <c r="O177">
+        <v>1.2</v>
+      </c>
+      <c r="P177">
+        <v>1.5</v>
+      </c>
+      <c r="Q177">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="R177">
+        <v>2</v>
+      </c>
+      <c r="S177">
+        <v>1.2</v>
+      </c>
+      <c r="T177">
+        <v>1.5</v>
+      </c>
+      <c r="U177">
+        <v>0.51215847306170115</v>
+      </c>
+    </row>
+    <row r="178" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A178" t="s">
+        <v>159</v>
+      </c>
+      <c r="B178">
+        <v>1.96E-8</v>
+      </c>
+      <c r="C178" t="s">
+        <v>8</v>
+      </c>
+      <c r="D178" t="s">
+        <v>142</v>
+      </c>
+      <c r="F178" t="s">
+        <v>55</v>
+      </c>
+      <c r="H178" t="s">
+        <v>56</v>
+      </c>
+      <c r="I178" t="s">
+        <v>143</v>
+      </c>
+      <c r="K178" t="s">
+        <v>134</v>
+      </c>
+      <c r="L178">
+        <v>2</v>
+      </c>
+      <c r="M178">
+        <v>-17.74773627070994</v>
+      </c>
+      <c r="N178">
+        <v>1.5</v>
+      </c>
+      <c r="O178">
+        <v>1.2</v>
+      </c>
+      <c r="P178">
+        <v>1.5</v>
+      </c>
+      <c r="Q178">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="R178">
+        <v>2</v>
+      </c>
+      <c r="S178">
+        <v>1.2</v>
+      </c>
+      <c r="T178">
+        <v>1.5</v>
+      </c>
+      <c r="U178">
+        <v>0.51215847306170115</v>
+      </c>
+    </row>
+    <row r="179" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A179" t="s">
+        <v>160</v>
+      </c>
+      <c r="B179">
+        <v>4.8999999999999997E-7</v>
+      </c>
+      <c r="C179" t="s">
+        <v>8</v>
+      </c>
+      <c r="D179" t="s">
+        <v>142</v>
+      </c>
+      <c r="F179" t="s">
+        <v>55</v>
+      </c>
+      <c r="H179" t="s">
+        <v>56</v>
+      </c>
+      <c r="I179" t="s">
+        <v>143</v>
+      </c>
+      <c r="K179" t="s">
+        <v>134</v>
+      </c>
+      <c r="L179">
+        <v>2</v>
+      </c>
+      <c r="M179">
+        <v>-14.528860445841739</v>
+      </c>
+      <c r="N179">
+        <v>1.5</v>
+      </c>
+      <c r="O179">
+        <v>1.2</v>
+      </c>
+      <c r="P179">
+        <v>1.5</v>
+      </c>
+      <c r="Q179">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="R179">
+        <v>2</v>
+      </c>
+      <c r="S179">
+        <v>1.2</v>
+      </c>
+      <c r="T179">
+        <v>1.5</v>
+      </c>
+      <c r="U179">
+        <v>0.51215847306170115</v>
+      </c>
+    </row>
+    <row r="180" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A180" t="s">
+        <v>161</v>
+      </c>
+      <c r="B180">
+        <v>1.9600000000000001E-7</v>
+      </c>
+      <c r="C180" t="s">
+        <v>8</v>
+      </c>
+      <c r="D180" t="s">
+        <v>142</v>
+      </c>
+      <c r="F180" t="s">
+        <v>55</v>
+      </c>
+      <c r="H180" t="s">
+        <v>56</v>
+      </c>
+      <c r="I180" t="s">
+        <v>143</v>
+      </c>
+      <c r="K180" t="s">
+        <v>134</v>
+      </c>
+      <c r="L180">
+        <v>2</v>
+      </c>
+      <c r="M180">
+        <v>-15.445151177715895</v>
+      </c>
+      <c r="N180">
+        <v>1.5</v>
+      </c>
+      <c r="O180">
+        <v>1.2</v>
+      </c>
+      <c r="P180">
+        <v>1.5</v>
+      </c>
+      <c r="Q180">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="R180">
+        <v>2</v>
+      </c>
+      <c r="S180">
+        <v>1.2</v>
+      </c>
+      <c r="T180">
+        <v>1.5</v>
+      </c>
+      <c r="U180">
+        <v>0.51215847306170115</v>
+      </c>
+    </row>
+    <row r="181" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A181" t="s">
+        <v>162</v>
+      </c>
+      <c r="B181">
+        <v>1.2739999999999999E-7</v>
+      </c>
+      <c r="C181" t="s">
+        <v>8</v>
+      </c>
+      <c r="D181" t="s">
+        <v>163</v>
+      </c>
+      <c r="F181" t="s">
+        <v>55</v>
+      </c>
+      <c r="H181" t="s">
+        <v>56</v>
+      </c>
+      <c r="I181" t="s">
+        <v>143</v>
+      </c>
+      <c r="K181" t="s">
+        <v>134</v>
+      </c>
+      <c r="L181">
+        <v>2</v>
+      </c>
+      <c r="M181">
+        <v>-15.875934093808349</v>
+      </c>
+      <c r="N181">
+        <v>1.5</v>
+      </c>
+      <c r="O181">
+        <v>1.2</v>
+      </c>
+      <c r="P181">
+        <v>1.5</v>
+      </c>
+      <c r="Q181">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="R181">
+        <v>2</v>
+      </c>
+      <c r="S181">
+        <v>1.2</v>
+      </c>
+      <c r="T181">
+        <v>1.5</v>
+      </c>
+      <c r="U181">
+        <v>0.51215847306170115</v>
+      </c>
+    </row>
+    <row r="182" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A182" t="s">
+        <v>164</v>
+      </c>
+      <c r="B182">
+        <v>2.9400000000000002E-9</v>
+      </c>
+      <c r="C182" t="s">
+        <v>8</v>
+      </c>
+      <c r="D182" t="s">
+        <v>163</v>
+      </c>
+      <c r="F182" t="s">
+        <v>55</v>
+      </c>
+      <c r="H182" t="s">
+        <v>56</v>
+      </c>
+      <c r="I182" t="s">
+        <v>143</v>
+      </c>
+      <c r="K182" t="s">
+        <v>134</v>
+      </c>
+      <c r="L182">
+        <v>2</v>
+      </c>
+      <c r="M182">
+        <v>-19.644856255595823</v>
+      </c>
+      <c r="N182">
+        <v>1.5</v>
+      </c>
+      <c r="O182">
+        <v>1.2</v>
+      </c>
+      <c r="P182">
+        <v>1.5</v>
+      </c>
+      <c r="Q182">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="R182">
+        <v>2</v>
+      </c>
+      <c r="S182">
+        <v>1.2</v>
+      </c>
+      <c r="T182">
+        <v>1.5</v>
+      </c>
+      <c r="U182">
+        <v>0.51215847306170115</v>
+      </c>
+    </row>
+    <row r="183" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A183" t="s">
+        <v>165</v>
+      </c>
+      <c r="B183">
+        <v>4.9000000000000002E-8</v>
+      </c>
+      <c r="C183" t="s">
+        <v>8</v>
+      </c>
+      <c r="D183" t="s">
+        <v>163</v>
+      </c>
+      <c r="F183" t="s">
+        <v>55</v>
+      </c>
+      <c r="H183" t="s">
+        <v>56</v>
+      </c>
+      <c r="I183" t="s">
+        <v>143</v>
+      </c>
+      <c r="K183" t="s">
+        <v>134</v>
+      </c>
+      <c r="L183">
+        <v>2</v>
+      </c>
+      <c r="M183">
+        <v>-16.831445538835784</v>
+      </c>
+      <c r="N183">
+        <v>1.5</v>
+      </c>
+      <c r="O183">
+        <v>1.2</v>
+      </c>
+      <c r="P183">
+        <v>1.5</v>
+      </c>
+      <c r="Q183">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="R183">
+        <v>2</v>
+      </c>
+      <c r="S183">
+        <v>1.2</v>
+      </c>
+      <c r="T183">
+        <v>1.5</v>
+      </c>
+      <c r="U183">
+        <v>0.51215847306170115</v>
+      </c>
+    </row>
+    <row r="184" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A184" t="s">
+        <v>166</v>
+      </c>
+      <c r="B184">
+        <v>4.9000000000000002E-8</v>
+      </c>
+      <c r="C184" t="s">
+        <v>8</v>
+      </c>
+      <c r="D184" t="s">
+        <v>163</v>
+      </c>
+      <c r="F184" t="s">
+        <v>55</v>
+      </c>
+      <c r="H184" t="s">
+        <v>56</v>
+      </c>
+      <c r="I184" t="s">
+        <v>143</v>
+      </c>
+      <c r="K184" t="s">
+        <v>134</v>
+      </c>
+      <c r="L184">
+        <v>2</v>
+      </c>
+      <c r="M184">
+        <v>-16.831445538835784</v>
+      </c>
+      <c r="N184">
+        <v>1.5</v>
+      </c>
+      <c r="O184">
+        <v>1.2</v>
+      </c>
+      <c r="P184">
+        <v>1.5</v>
+      </c>
+      <c r="Q184">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="R184">
+        <v>2</v>
+      </c>
+      <c r="S184">
+        <v>1.2</v>
+      </c>
+      <c r="T184">
+        <v>1.5</v>
+      </c>
+      <c r="U184">
+        <v>0.51215847306170115</v>
+      </c>
+    </row>
+    <row r="186" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A186" t="s">
+        <v>0</v>
+      </c>
+      <c r="B186" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="187" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A187" t="s">
+        <v>1</v>
+      </c>
+      <c r="B187" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="188" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A188" t="s">
+        <v>2</v>
+      </c>
+      <c r="B188" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="189" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A189" t="s">
+        <v>4</v>
+      </c>
+      <c r="B189" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="190" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A190" t="s">
+        <v>5</v>
+      </c>
+      <c r="B190" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="191" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A191" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="192" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A192" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B192" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C192" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D192" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E192" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F192" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G192" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H192" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I192" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J192" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="K192" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="L192" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="M192" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="N192" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="O192" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="P192" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q192" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="R192" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="S192" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="T192" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="U192" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="V192" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="W192" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="193" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A193" t="str">
+        <f>B186</f>
+        <v>heat, residential, by combustion of coal-based natural gas using boiler, distributed by pipeline</v>
+      </c>
+      <c r="B193">
+        <v>1</v>
+      </c>
+      <c r="C193" t="s">
+        <v>91</v>
+      </c>
+      <c r="E193" t="s">
+        <v>41</v>
+      </c>
+      <c r="F193" t="s">
+        <v>28</v>
+      </c>
+      <c r="G193" t="s">
+        <v>90</v>
+      </c>
+      <c r="K193" t="s">
+        <v>134</v>
+      </c>
+      <c r="W193" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="194" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A194" t="s">
+        <v>59</v>
+      </c>
+      <c r="B194">
+        <v>4.0327784230223253E-7</v>
+      </c>
+      <c r="C194" t="s">
+        <v>7</v>
+      </c>
+      <c r="E194" t="s">
+        <v>60</v>
+      </c>
+      <c r="F194" t="s">
+        <v>29</v>
+      </c>
+      <c r="G194" t="s">
+        <v>61</v>
+      </c>
+      <c r="H194" t="s">
+        <v>35</v>
+      </c>
+      <c r="I194" t="s">
+        <v>136</v>
+      </c>
+      <c r="K194" t="s">
+        <v>134</v>
+      </c>
+      <c r="L194">
+        <v>2</v>
+      </c>
+      <c r="M194">
+        <v>-14.723640077557722</v>
+      </c>
+      <c r="N194">
+        <v>1.05</v>
+      </c>
+      <c r="O194">
+        <v>1.2</v>
+      </c>
+      <c r="P194">
+        <v>1</v>
+      </c>
+      <c r="Q194">
+        <v>1.01</v>
+      </c>
+      <c r="R194">
+        <v>1.2</v>
+      </c>
+      <c r="S194">
+        <v>1.2</v>
+      </c>
+      <c r="T194">
+        <v>3</v>
+      </c>
+      <c r="U194">
+        <v>0.57209088006881903</v>
+      </c>
+    </row>
+    <row r="195" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A195" t="s">
+        <v>63</v>
+      </c>
+      <c r="B195">
+        <v>8.8199999999999998E-7</v>
+      </c>
+      <c r="C195" t="s">
+        <v>64</v>
+      </c>
+      <c r="E195" t="s">
+        <v>60</v>
+      </c>
+      <c r="F195" t="s">
+        <v>29</v>
+      </c>
+      <c r="G195" t="s">
+        <v>65</v>
+      </c>
+      <c r="H195" t="s">
+        <v>35</v>
+      </c>
+      <c r="I195" t="s">
+        <v>66</v>
+      </c>
+      <c r="K195" t="s">
+        <v>134</v>
+      </c>
+      <c r="L195">
+        <v>2</v>
+      </c>
+      <c r="M195">
+        <v>-13.94107378093962</v>
+      </c>
+      <c r="N195">
+        <v>1.05</v>
+      </c>
+      <c r="O195">
+        <v>1.2</v>
+      </c>
+      <c r="P195">
+        <v>1</v>
+      </c>
+      <c r="Q195">
+        <v>1.01</v>
+      </c>
+      <c r="R195">
+        <v>1.2</v>
+      </c>
+      <c r="S195">
+        <v>1.2</v>
+      </c>
+      <c r="T195">
+        <v>3</v>
+      </c>
+      <c r="U195">
+        <v>0.57209088006881903</v>
+      </c>
+    </row>
+    <row r="196" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A196" t="s">
+        <v>109</v>
+      </c>
+      <c r="B196">
+        <v>7.3399999999999995E-4</v>
+      </c>
+      <c r="C196" t="s">
+        <v>48</v>
+      </c>
+      <c r="E196" t="s">
+        <v>41</v>
+      </c>
+      <c r="F196" t="s">
+        <v>29</v>
+      </c>
+      <c r="G196" t="s">
+        <v>49</v>
+      </c>
+      <c r="H196" t="s">
+        <v>10</v>
+      </c>
+      <c r="I196" t="s">
+        <v>72</v>
+      </c>
+      <c r="J196" t="s">
+        <v>137</v>
+      </c>
+      <c r="K196" t="s">
+        <v>134</v>
+      </c>
+      <c r="L196">
+        <v>2</v>
+      </c>
+      <c r="M196">
+        <v>-7.2170015293497585</v>
+      </c>
+      <c r="N196">
+        <v>1.05</v>
+      </c>
+      <c r="O196">
+        <v>1.2</v>
+      </c>
+      <c r="P196">
+        <v>1</v>
+      </c>
+      <c r="Q196">
+        <v>1.01</v>
+      </c>
+      <c r="R196">
+        <v>1.2</v>
+      </c>
+      <c r="S196">
+        <v>1.2</v>
+      </c>
+      <c r="T196">
+        <v>1.05</v>
+      </c>
+      <c r="U196">
+        <v>0.16169679924070957</v>
+      </c>
+    </row>
+    <row r="197" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A197" t="s">
+        <v>170</v>
+      </c>
+      <c r="B197">
+        <v>1.9025875190258751E-2</v>
+      </c>
+      <c r="C197" t="s">
+        <v>8</v>
+      </c>
+      <c r="E197" t="s">
+        <v>41</v>
+      </c>
+      <c r="F197" t="s">
+        <v>29</v>
+      </c>
+      <c r="G197" t="s">
+        <v>171</v>
+      </c>
+      <c r="H197" t="s">
+        <v>138</v>
+      </c>
+      <c r="I197" t="s">
+        <v>139</v>
+      </c>
+      <c r="J197" t="s">
+        <v>140</v>
+      </c>
+      <c r="K197" t="s">
+        <v>134</v>
+      </c>
+      <c r="L197">
+        <v>2</v>
+      </c>
+      <c r="M197">
+        <v>-3.9619553741763553</v>
+      </c>
+      <c r="N197">
+        <v>1.05</v>
+      </c>
+      <c r="O197">
+        <v>1.2</v>
+      </c>
+      <c r="P197">
+        <v>1</v>
+      </c>
+      <c r="Q197">
+        <v>1.01</v>
+      </c>
+      <c r="R197">
+        <v>1.2</v>
+      </c>
+      <c r="S197">
+        <v>1.2</v>
+      </c>
+      <c r="T197">
+        <v>1.05</v>
+      </c>
+      <c r="U197">
+        <v>0.16169679924070957</v>
+      </c>
+    </row>
+    <row r="198" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A198" t="s">
+        <v>141</v>
+      </c>
+      <c r="B198">
+        <v>9.7999999999999992E-10</v>
+      </c>
+      <c r="C198" t="s">
+        <v>8</v>
+      </c>
+      <c r="D198" t="s">
+        <v>142</v>
+      </c>
+      <c r="F198" t="s">
+        <v>55</v>
+      </c>
+      <c r="H198" t="s">
+        <v>56</v>
+      </c>
+      <c r="I198" t="s">
+        <v>143</v>
+      </c>
+      <c r="K198" t="s">
+        <v>134</v>
+      </c>
+      <c r="L198">
+        <v>2</v>
+      </c>
+      <c r="M198">
+        <v>-20.74346854426393</v>
+      </c>
+      <c r="N198">
+        <v>1.5</v>
+      </c>
+      <c r="O198">
+        <v>1.2</v>
+      </c>
+      <c r="P198">
+        <v>1.5</v>
+      </c>
+      <c r="Q198">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="R198">
+        <v>2</v>
+      </c>
+      <c r="S198">
+        <v>1.2</v>
+      </c>
+      <c r="T198">
+        <v>1.5</v>
+      </c>
+      <c r="U198">
+        <v>0.51215847306170115</v>
+      </c>
+    </row>
+    <row r="199" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A199" t="s">
+        <v>144</v>
+      </c>
+      <c r="B199">
+        <v>1.4700000000000001E-7</v>
+      </c>
+      <c r="C199" t="s">
+        <v>8</v>
+      </c>
+      <c r="D199" t="s">
+        <v>142</v>
+      </c>
+      <c r="F199" t="s">
+        <v>55</v>
+      </c>
+      <c r="H199" t="s">
+        <v>56</v>
+      </c>
+      <c r="I199" t="s">
+        <v>143</v>
+      </c>
+      <c r="K199" t="s">
+        <v>134</v>
+      </c>
+      <c r="L199">
+        <v>2</v>
+      </c>
+      <c r="M199">
+        <v>-15.732833250167674</v>
+      </c>
+      <c r="N199">
+        <v>1.5</v>
+      </c>
+      <c r="O199">
+        <v>1.2</v>
+      </c>
+      <c r="P199">
+        <v>1.5</v>
+      </c>
+      <c r="Q199">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="R199">
+        <v>2</v>
+      </c>
+      <c r="S199">
+        <v>1.2</v>
+      </c>
+      <c r="T199">
+        <v>1.5</v>
+      </c>
+      <c r="U199">
+        <v>0.51215847306170115</v>
+      </c>
+    </row>
+    <row r="200" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A200" t="s">
+        <v>145</v>
+      </c>
+      <c r="B200">
+        <v>3.9200000000000002E-7</v>
+      </c>
+      <c r="C200" t="s">
+        <v>8</v>
+      </c>
+      <c r="D200" t="s">
+        <v>142</v>
+      </c>
+      <c r="F200" t="s">
+        <v>55</v>
+      </c>
+      <c r="H200" t="s">
+        <v>56</v>
+      </c>
+      <c r="I200" t="s">
+        <v>143</v>
+      </c>
+      <c r="K200" t="s">
+        <v>134</v>
+      </c>
+      <c r="L200">
+        <v>2</v>
+      </c>
+      <c r="M200">
+        <v>-14.752003997155949</v>
+      </c>
+      <c r="N200">
+        <v>1.5</v>
+      </c>
+      <c r="O200">
+        <v>1.2</v>
+      </c>
+      <c r="P200">
+        <v>1.5</v>
+      </c>
+      <c r="Q200">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="R200">
+        <v>2</v>
+      </c>
+      <c r="S200">
+        <v>1.2</v>
+      </c>
+      <c r="T200">
+        <v>1.5</v>
+      </c>
+      <c r="U200">
+        <v>0.51215847306170115</v>
+      </c>
+    </row>
+    <row r="201" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A201" t="s">
+        <v>146</v>
+      </c>
+      <c r="B201">
+        <v>9.7999999999999994E-12</v>
+      </c>
+      <c r="C201" t="s">
+        <v>8</v>
+      </c>
+      <c r="D201" t="s">
+        <v>142</v>
+      </c>
+      <c r="F201" t="s">
+        <v>55</v>
+      </c>
+      <c r="H201" t="s">
+        <v>56</v>
+      </c>
+      <c r="I201" t="s">
+        <v>143</v>
+      </c>
+      <c r="K201" t="s">
+        <v>134</v>
+      </c>
+      <c r="L201">
+        <v>2</v>
+      </c>
+      <c r="M201">
+        <v>-25.348638730252024</v>
+      </c>
+      <c r="N201">
+        <v>1.5</v>
+      </c>
+      <c r="O201">
+        <v>1.2</v>
+      </c>
+      <c r="P201">
+        <v>1.5</v>
+      </c>
+      <c r="Q201">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="R201">
+        <v>2</v>
+      </c>
+      <c r="S201">
+        <v>1.2</v>
+      </c>
+      <c r="T201">
+        <v>1.5</v>
+      </c>
+      <c r="U201">
+        <v>0.51215847306170115</v>
+      </c>
+    </row>
+    <row r="202" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A202" t="s">
+        <v>147</v>
+      </c>
+      <c r="B202">
+        <v>5.2130898021308984E-2</v>
+      </c>
+      <c r="C202" t="s">
+        <v>8</v>
+      </c>
+      <c r="D202" t="s">
+        <v>142</v>
+      </c>
+      <c r="F202" t="s">
+        <v>55</v>
+      </c>
+      <c r="H202" t="s">
+        <v>56</v>
+      </c>
+      <c r="I202" t="s">
+        <v>143</v>
+      </c>
+      <c r="K202" t="s">
+        <v>134</v>
+      </c>
+      <c r="L202">
+        <v>1</v>
+      </c>
+      <c r="M202" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="203" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A203" t="s">
+        <v>172</v>
+      </c>
+      <c r="B203">
+        <v>5.7819999999999999E-6</v>
+      </c>
+      <c r="C203" t="s">
+        <v>8</v>
+      </c>
+      <c r="D203" t="s">
+        <v>142</v>
+      </c>
+      <c r="F203" t="s">
+        <v>55</v>
+      </c>
+      <c r="H203" t="s">
+        <v>56</v>
+      </c>
+      <c r="I203" t="s">
+        <v>143</v>
+      </c>
+      <c r="K203" t="s">
+        <v>134</v>
+      </c>
+      <c r="L203">
+        <v>2</v>
+      </c>
+      <c r="M203">
+        <v>-12.060760914370119</v>
+      </c>
+      <c r="N203">
+        <v>1.5</v>
+      </c>
+      <c r="O203">
+        <v>1.2</v>
+      </c>
+      <c r="P203">
+        <v>1.5</v>
+      </c>
+      <c r="Q203">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="R203">
+        <v>2</v>
+      </c>
+      <c r="S203">
+        <v>1.2</v>
+      </c>
+      <c r="T203">
+        <v>5</v>
+      </c>
+      <c r="U203">
+        <v>0.93208283513358414</v>
+      </c>
+    </row>
+    <row r="204" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A204" t="s">
+        <v>150</v>
+      </c>
+      <c r="B204">
+        <v>4.8999999999999997E-7</v>
+      </c>
+      <c r="C204" t="s">
+        <v>8</v>
+      </c>
+      <c r="D204" t="s">
+        <v>142</v>
+      </c>
+      <c r="F204" t="s">
+        <v>55</v>
+      </c>
+      <c r="H204" t="s">
+        <v>56</v>
+      </c>
+      <c r="I204" t="s">
+        <v>143</v>
+      </c>
+      <c r="K204" t="s">
+        <v>134</v>
+      </c>
+      <c r="L204">
+        <v>2</v>
+      </c>
+      <c r="M204">
+        <v>-14.528860445841739</v>
+      </c>
+      <c r="N204">
+        <v>1.5</v>
+      </c>
+      <c r="O204">
+        <v>1.2</v>
+      </c>
+      <c r="P204">
+        <v>1.5</v>
+      </c>
+      <c r="Q204">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="R204">
+        <v>2</v>
+      </c>
+      <c r="S204">
+        <v>1.2</v>
+      </c>
+      <c r="T204">
+        <v>1.5</v>
+      </c>
+      <c r="U204">
+        <v>0.51215847306170115</v>
+      </c>
+    </row>
+    <row r="205" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A205" t="s">
+        <v>151</v>
+      </c>
+      <c r="B205">
+        <v>2.9400000000000001E-17</v>
+      </c>
+      <c r="C205" t="s">
+        <v>8</v>
+      </c>
+      <c r="D205" t="s">
+        <v>142</v>
+      </c>
+      <c r="F205" t="s">
+        <v>55</v>
+      </c>
+      <c r="H205" t="s">
+        <v>56</v>
+      </c>
+      <c r="I205" t="s">
+        <v>143</v>
+      </c>
+      <c r="K205" t="s">
+        <v>134</v>
+      </c>
+      <c r="L205">
+        <v>2</v>
+      </c>
+      <c r="M205">
+        <v>-38.065536999548186</v>
+      </c>
+      <c r="N205">
+        <v>1.5</v>
+      </c>
+      <c r="O205">
+        <v>1.2</v>
+      </c>
+      <c r="P205">
+        <v>1.5</v>
+      </c>
+      <c r="Q205">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="R205">
+        <v>2</v>
+      </c>
+      <c r="S205">
+        <v>1.2</v>
+      </c>
+      <c r="T205">
+        <v>1.5</v>
+      </c>
+      <c r="U205">
+        <v>0.51215847306170115</v>
+      </c>
+    </row>
+    <row r="206" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A206" t="s">
+        <v>152</v>
+      </c>
+      <c r="B206">
+        <v>9.8000000000000004E-8</v>
+      </c>
+      <c r="C206" t="s">
+        <v>8</v>
+      </c>
+      <c r="D206" t="s">
+        <v>142</v>
+      </c>
+      <c r="F206" t="s">
+        <v>55</v>
+      </c>
+      <c r="H206" t="s">
+        <v>56</v>
+      </c>
+      <c r="I206" t="s">
+        <v>143</v>
+      </c>
+      <c r="K206" t="s">
+        <v>134</v>
+      </c>
+      <c r="L206">
+        <v>2</v>
+      </c>
+      <c r="M206">
+        <v>-16.13829835827584</v>
+      </c>
+      <c r="N206">
+        <v>1.5</v>
+      </c>
+      <c r="O206">
+        <v>1.2</v>
+      </c>
+      <c r="P206">
+        <v>1.5</v>
+      </c>
+      <c r="Q206">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="R206">
+        <v>2</v>
+      </c>
+      <c r="S206">
+        <v>1.2</v>
+      </c>
+      <c r="T206">
+        <v>1.5</v>
+      </c>
+      <c r="U206">
+        <v>0.51215847306170115</v>
+      </c>
+    </row>
+    <row r="207" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A207" t="s">
+        <v>153</v>
+      </c>
+      <c r="B207">
+        <v>2.9400000000000003E-11</v>
+      </c>
+      <c r="C207" t="s">
+        <v>8</v>
+      </c>
+      <c r="D207" t="s">
+        <v>142</v>
+      </c>
+      <c r="F207" t="s">
+        <v>55</v>
+      </c>
+      <c r="H207" t="s">
+        <v>56</v>
+      </c>
+      <c r="I207" t="s">
+        <v>143</v>
+      </c>
+      <c r="K207" t="s">
+        <v>134</v>
+      </c>
+      <c r="L207">
+        <v>2</v>
+      </c>
+      <c r="M207">
+        <v>-24.250026441583913</v>
+      </c>
+      <c r="N207">
+        <v>1.5</v>
+      </c>
+      <c r="O207">
+        <v>1.2</v>
+      </c>
+      <c r="P207">
+        <v>1.5</v>
+      </c>
+      <c r="Q207">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="R207">
+        <v>2</v>
+      </c>
+      <c r="S207">
+        <v>1.2</v>
+      </c>
+      <c r="T207">
+        <v>5</v>
+      </c>
+      <c r="U207">
+        <v>0.93208283513358414</v>
+      </c>
+    </row>
+    <row r="208" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A208" t="s">
+        <v>155</v>
+      </c>
+      <c r="B208">
+        <v>1.9599999999999999E-6</v>
+      </c>
+      <c r="C208" t="s">
+        <v>8</v>
+      </c>
+      <c r="D208" t="s">
+        <v>142</v>
+      </c>
+      <c r="F208" t="s">
+        <v>55</v>
+      </c>
+      <c r="H208" t="s">
+        <v>56</v>
+      </c>
+      <c r="I208" t="s">
+        <v>143</v>
+      </c>
+      <c r="K208" t="s">
+        <v>134</v>
+      </c>
+      <c r="L208">
+        <v>2</v>
+      </c>
+      <c r="M208">
+        <v>-13.142566084721848</v>
+      </c>
+      <c r="N208">
+        <v>1.5</v>
+      </c>
+      <c r="O208">
+        <v>1.2</v>
+      </c>
+      <c r="P208">
+        <v>1.5</v>
+      </c>
+      <c r="Q208">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="R208">
+        <v>2</v>
+      </c>
+      <c r="S208">
+        <v>1.2</v>
+      </c>
+      <c r="T208">
+        <v>1.5</v>
+      </c>
+      <c r="U208">
+        <v>0.51215847306170115</v>
+      </c>
+    </row>
+    <row r="209" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A209" t="s">
+        <v>155</v>
+      </c>
+      <c r="B209">
+        <v>0</v>
+      </c>
+      <c r="C209" t="s">
+        <v>8</v>
+      </c>
+      <c r="D209" t="s">
+        <v>142</v>
+      </c>
+      <c r="F209" t="s">
+        <v>55</v>
+      </c>
+      <c r="H209" t="s">
+        <v>56</v>
+      </c>
+      <c r="I209" t="s">
+        <v>143</v>
+      </c>
+      <c r="K209" t="s">
+        <v>134</v>
+      </c>
+      <c r="L209">
+        <v>1</v>
+      </c>
+      <c r="M209" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="210" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A210" t="s">
+        <v>85</v>
+      </c>
+      <c r="B210">
+        <v>9.7019999999999996E-6</v>
+      </c>
+      <c r="C210" t="s">
+        <v>8</v>
+      </c>
+      <c r="D210" t="s">
+        <v>142</v>
+      </c>
+      <c r="F210" t="s">
+        <v>55</v>
+      </c>
+      <c r="H210" t="s">
+        <v>56</v>
+      </c>
+      <c r="I210" t="s">
+        <v>143</v>
+      </c>
+      <c r="K210" t="s">
+        <v>134</v>
+      </c>
+      <c r="L210">
+        <v>2</v>
+      </c>
+      <c r="M210">
+        <v>-11.543178508141249</v>
+      </c>
+      <c r="N210">
+        <v>1.5</v>
+      </c>
+      <c r="O210">
+        <v>1.2</v>
+      </c>
+      <c r="P210">
+        <v>1.5</v>
+      </c>
+      <c r="Q210">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="R210">
+        <v>2</v>
+      </c>
+      <c r="S210">
+        <v>1.2</v>
+      </c>
+      <c r="T210">
+        <v>1.5</v>
+      </c>
+      <c r="U210">
+        <v>0.51215847306170115</v>
+      </c>
+    </row>
+    <row r="211" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A211" t="s">
+        <v>156</v>
+      </c>
+      <c r="B211">
+        <v>9.8000000000000001E-9</v>
+      </c>
+      <c r="C211" t="s">
+        <v>8</v>
+      </c>
+      <c r="D211" t="s">
+        <v>142</v>
+      </c>
+      <c r="F211" t="s">
+        <v>55</v>
+      </c>
+      <c r="H211" t="s">
+        <v>56</v>
+      </c>
+      <c r="I211" t="s">
+        <v>143</v>
+      </c>
+      <c r="K211" t="s">
+        <v>134</v>
+      </c>
+      <c r="L211">
+        <v>2</v>
+      </c>
+      <c r="M211">
+        <v>-18.440883451269883</v>
+      </c>
+      <c r="N211">
+        <v>1.5</v>
+      </c>
+      <c r="O211">
+        <v>1.2</v>
+      </c>
+      <c r="P211">
+        <v>1.5</v>
+      </c>
+      <c r="Q211">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="R211">
+        <v>2</v>
+      </c>
+      <c r="S211">
+        <v>1.2</v>
+      </c>
+      <c r="T211">
+        <v>3</v>
+      </c>
+      <c r="U211">
+        <v>0.72314801614797197</v>
+      </c>
+    </row>
+    <row r="212" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A212" t="s">
+        <v>157</v>
+      </c>
+      <c r="B212">
+        <v>9.8000000000000004E-8</v>
+      </c>
+      <c r="C212" t="s">
+        <v>8</v>
+      </c>
+      <c r="D212" t="s">
+        <v>142</v>
+      </c>
+      <c r="F212" t="s">
+        <v>55</v>
+      </c>
+      <c r="H212" t="s">
+        <v>56</v>
+      </c>
+      <c r="I212" t="s">
+        <v>143</v>
+      </c>
+      <c r="K212" t="s">
+        <v>134</v>
+      </c>
+      <c r="L212">
+        <v>2</v>
+      </c>
+      <c r="M212">
+        <v>-16.13829835827584</v>
+      </c>
+      <c r="N212">
+        <v>1.5</v>
+      </c>
+      <c r="O212">
+        <v>1.2</v>
+      </c>
+      <c r="P212">
+        <v>1.5</v>
+      </c>
+      <c r="Q212">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="R212">
+        <v>2</v>
+      </c>
+      <c r="S212">
+        <v>1.2</v>
+      </c>
+      <c r="T212">
+        <v>3</v>
+      </c>
+      <c r="U212">
+        <v>0.72314801614797197</v>
+      </c>
+    </row>
+    <row r="213" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A213" t="s">
+        <v>158</v>
+      </c>
+      <c r="B213">
+        <v>1.176E-6</v>
+      </c>
+      <c r="C213" t="s">
+        <v>8</v>
+      </c>
+      <c r="D213" t="s">
+        <v>142</v>
+      </c>
+      <c r="F213" t="s">
+        <v>55</v>
+      </c>
+      <c r="H213" t="s">
+        <v>56</v>
+      </c>
+      <c r="I213" t="s">
+        <v>143</v>
+      </c>
+      <c r="K213" t="s">
+        <v>134</v>
+      </c>
+      <c r="L213">
+        <v>2</v>
+      </c>
+      <c r="M213">
+        <v>-13.653391708487838</v>
+      </c>
+      <c r="N213">
+        <v>1.5</v>
+      </c>
+      <c r="O213">
+        <v>1.2</v>
+      </c>
+      <c r="P213">
+        <v>1.5</v>
+      </c>
+      <c r="Q213">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="R213">
+        <v>2</v>
+      </c>
+      <c r="S213">
+        <v>1.2</v>
+      </c>
+      <c r="T213">
+        <v>1.5</v>
+      </c>
+      <c r="U213">
+        <v>0.51215847306170115</v>
+      </c>
+    </row>
+    <row r="214" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A214" t="s">
+        <v>159</v>
+      </c>
+      <c r="B214">
+        <v>1.96E-8</v>
+      </c>
+      <c r="C214" t="s">
+        <v>8</v>
+      </c>
+      <c r="D214" t="s">
+        <v>142</v>
+      </c>
+      <c r="F214" t="s">
+        <v>55</v>
+      </c>
+      <c r="H214" t="s">
+        <v>56</v>
+      </c>
+      <c r="I214" t="s">
+        <v>143</v>
+      </c>
+      <c r="K214" t="s">
+        <v>134</v>
+      </c>
+      <c r="L214">
+        <v>2</v>
+      </c>
+      <c r="M214">
+        <v>-17.74773627070994</v>
+      </c>
+      <c r="N214">
+        <v>1.5</v>
+      </c>
+      <c r="O214">
+        <v>1.2</v>
+      </c>
+      <c r="P214">
+        <v>1.5</v>
+      </c>
+      <c r="Q214">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="R214">
+        <v>2</v>
+      </c>
+      <c r="S214">
+        <v>1.2</v>
+      </c>
+      <c r="T214">
+        <v>1.5</v>
+      </c>
+      <c r="U214">
+        <v>0.51215847306170115</v>
+      </c>
+    </row>
+    <row r="215" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A215" t="s">
+        <v>160</v>
+      </c>
+      <c r="B215">
+        <v>4.8999999999999997E-7</v>
+      </c>
+      <c r="C215" t="s">
+        <v>8</v>
+      </c>
+      <c r="D215" t="s">
+        <v>142</v>
+      </c>
+      <c r="F215" t="s">
+        <v>55</v>
+      </c>
+      <c r="H215" t="s">
+        <v>56</v>
+      </c>
+      <c r="I215" t="s">
+        <v>143</v>
+      </c>
+      <c r="K215" t="s">
+        <v>134</v>
+      </c>
+      <c r="L215">
+        <v>2</v>
+      </c>
+      <c r="M215">
+        <v>-14.528860445841739</v>
+      </c>
+      <c r="N215">
+        <v>1.5</v>
+      </c>
+      <c r="O215">
+        <v>1.2</v>
+      </c>
+      <c r="P215">
+        <v>1.5</v>
+      </c>
+      <c r="Q215">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="R215">
+        <v>2</v>
+      </c>
+      <c r="S215">
+        <v>1.2</v>
+      </c>
+      <c r="T215">
+        <v>1.5</v>
+      </c>
+      <c r="U215">
+        <v>0.51215847306170115</v>
+      </c>
+    </row>
+    <row r="216" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A216" t="s">
+        <v>161</v>
+      </c>
+      <c r="B216">
+        <v>1.9600000000000001E-7</v>
+      </c>
+      <c r="C216" t="s">
+        <v>8</v>
+      </c>
+      <c r="D216" t="s">
+        <v>142</v>
+      </c>
+      <c r="F216" t="s">
+        <v>55</v>
+      </c>
+      <c r="H216" t="s">
+        <v>56</v>
+      </c>
+      <c r="I216" t="s">
+        <v>143</v>
+      </c>
+      <c r="K216" t="s">
+        <v>134</v>
+      </c>
+      <c r="L216">
+        <v>2</v>
+      </c>
+      <c r="M216">
+        <v>-15.445151177715895</v>
+      </c>
+      <c r="N216">
+        <v>1.5</v>
+      </c>
+      <c r="O216">
+        <v>1.2</v>
+      </c>
+      <c r="P216">
+        <v>1.5</v>
+      </c>
+      <c r="Q216">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="R216">
+        <v>2</v>
+      </c>
+      <c r="S216">
+        <v>1.2</v>
+      </c>
+      <c r="T216">
+        <v>1.5</v>
+      </c>
+      <c r="U216">
+        <v>0.51215847306170115</v>
+      </c>
+    </row>
+    <row r="217" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A217" t="s">
+        <v>162</v>
+      </c>
+      <c r="B217">
+        <v>1.2739999999999999E-7</v>
+      </c>
+      <c r="C217" t="s">
+        <v>8</v>
+      </c>
+      <c r="D217" t="s">
+        <v>163</v>
+      </c>
+      <c r="F217" t="s">
+        <v>55</v>
+      </c>
+      <c r="H217" t="s">
+        <v>56</v>
+      </c>
+      <c r="I217" t="s">
+        <v>143</v>
+      </c>
+      <c r="K217" t="s">
+        <v>134</v>
+      </c>
+      <c r="L217">
+        <v>2</v>
+      </c>
+      <c r="M217">
+        <v>-15.875934093808349</v>
+      </c>
+      <c r="N217">
+        <v>1.5</v>
+      </c>
+      <c r="O217">
+        <v>1.2</v>
+      </c>
+      <c r="P217">
+        <v>1.5</v>
+      </c>
+      <c r="Q217">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="R217">
+        <v>2</v>
+      </c>
+      <c r="S217">
+        <v>1.2</v>
+      </c>
+      <c r="T217">
+        <v>1.5</v>
+      </c>
+      <c r="U217">
+        <v>0.51215847306170115</v>
+      </c>
+    </row>
+    <row r="218" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A218" t="s">
+        <v>164</v>
+      </c>
+      <c r="B218">
+        <v>2.9400000000000002E-9</v>
+      </c>
+      <c r="C218" t="s">
+        <v>8</v>
+      </c>
+      <c r="D218" t="s">
+        <v>163</v>
+      </c>
+      <c r="F218" t="s">
+        <v>55</v>
+      </c>
+      <c r="H218" t="s">
+        <v>56</v>
+      </c>
+      <c r="I218" t="s">
+        <v>143</v>
+      </c>
+      <c r="K218" t="s">
+        <v>134</v>
+      </c>
+      <c r="L218">
+        <v>2</v>
+      </c>
+      <c r="M218">
+        <v>-19.644856255595823</v>
+      </c>
+      <c r="N218">
+        <v>1.5</v>
+      </c>
+      <c r="O218">
+        <v>1.2</v>
+      </c>
+      <c r="P218">
+        <v>1.5</v>
+      </c>
+      <c r="Q218">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="R218">
+        <v>2</v>
+      </c>
+      <c r="S218">
+        <v>1.2</v>
+      </c>
+      <c r="T218">
+        <v>1.5</v>
+      </c>
+      <c r="U218">
+        <v>0.51215847306170115</v>
+      </c>
+    </row>
+    <row r="219" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A219" t="s">
+        <v>165</v>
+      </c>
+      <c r="B219">
+        <v>4.9000000000000002E-8</v>
+      </c>
+      <c r="C219" t="s">
+        <v>8</v>
+      </c>
+      <c r="D219" t="s">
+        <v>163</v>
+      </c>
+      <c r="F219" t="s">
+        <v>55</v>
+      </c>
+      <c r="H219" t="s">
+        <v>56</v>
+      </c>
+      <c r="I219" t="s">
+        <v>143</v>
+      </c>
+      <c r="K219" t="s">
+        <v>134</v>
+      </c>
+      <c r="L219">
+        <v>2</v>
+      </c>
+      <c r="M219">
+        <v>-16.831445538835784</v>
+      </c>
+      <c r="N219">
+        <v>1.5</v>
+      </c>
+      <c r="O219">
+        <v>1.2</v>
+      </c>
+      <c r="P219">
+        <v>1.5</v>
+      </c>
+      <c r="Q219">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="R219">
+        <v>2</v>
+      </c>
+      <c r="S219">
+        <v>1.2</v>
+      </c>
+      <c r="T219">
+        <v>1.5</v>
+      </c>
+      <c r="U219">
+        <v>0.51215847306170115</v>
+      </c>
+    </row>
+    <row r="220" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A220" t="s">
+        <v>166</v>
+      </c>
+      <c r="B220">
+        <v>4.9000000000000002E-8</v>
+      </c>
+      <c r="C220" t="s">
+        <v>8</v>
+      </c>
+      <c r="D220" t="s">
+        <v>163</v>
+      </c>
+      <c r="F220" t="s">
+        <v>55</v>
+      </c>
+      <c r="H220" t="s">
+        <v>56</v>
+      </c>
+      <c r="I220" t="s">
+        <v>143</v>
+      </c>
+      <c r="K220" t="s">
+        <v>134</v>
+      </c>
+      <c r="L220">
+        <v>2</v>
+      </c>
+      <c r="M220">
+        <v>-16.831445538835784</v>
+      </c>
+      <c r="N220">
+        <v>1.5</v>
+      </c>
+      <c r="O220">
+        <v>1.2</v>
+      </c>
+      <c r="P220">
+        <v>1.5</v>
+      </c>
+      <c r="Q220">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="R220">
+        <v>2</v>
+      </c>
+      <c r="S220">
+        <v>1.2</v>
+      </c>
+      <c r="T220">
+        <v>1.5</v>
+      </c>
+      <c r="U220">
+        <v>0.51215847306170115</v>
+      </c>
+    </row>
+    <row r="222" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A222" t="s">
+        <v>0</v>
+      </c>
+      <c r="B222" s="1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="223" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A223" t="s">
+        <v>1</v>
+      </c>
+      <c r="B223" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="224" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A224" t="s">
+        <v>2</v>
+      </c>
+      <c r="B224" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="225" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A225" t="s">
+        <v>4</v>
+      </c>
+      <c r="B225" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="226" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A226" t="s">
+        <v>5</v>
+      </c>
+      <c r="B226" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="227" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A227" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="228" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A228" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B228" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C228" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D228" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E228" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F228" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G228" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H228" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I228" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J228" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="K228" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="L228" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="M228" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="N228" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="O228" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="P228" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q228" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="R228" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="S228" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="T228" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="U228" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="V228" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="W228" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="229" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A229" t="str">
+        <f>B222</f>
+        <v>heat, residential, by combustion of biomethane using boiler, distributed by pipeline</v>
+      </c>
+      <c r="B229">
+        <v>1</v>
+      </c>
+      <c r="C229" t="s">
+        <v>91</v>
+      </c>
+      <c r="E229" t="s">
+        <v>41</v>
+      </c>
+      <c r="F229" t="s">
+        <v>28</v>
+      </c>
+      <c r="G229" t="s">
+        <v>90</v>
+      </c>
+      <c r="K229" t="s">
+        <v>134</v>
+      </c>
+      <c r="W229" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="230" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A230" t="s">
+        <v>59</v>
+      </c>
+      <c r="B230">
+        <v>4.0327784230223253E-7</v>
+      </c>
+      <c r="C230" t="s">
+        <v>7</v>
+      </c>
+      <c r="E230" t="s">
+        <v>60</v>
+      </c>
+      <c r="F230" t="s">
+        <v>29</v>
+      </c>
+      <c r="G230" t="s">
+        <v>61</v>
+      </c>
+      <c r="H230" t="s">
+        <v>35</v>
+      </c>
+      <c r="I230" t="s">
+        <v>136</v>
+      </c>
+      <c r="K230" t="s">
+        <v>134</v>
+      </c>
+      <c r="L230">
+        <v>2</v>
+      </c>
+      <c r="M230">
+        <v>-14.723640077557722</v>
+      </c>
+      <c r="N230">
+        <v>1.05</v>
+      </c>
+      <c r="O230">
+        <v>1.2</v>
+      </c>
+      <c r="P230">
+        <v>1</v>
+      </c>
+      <c r="Q230">
+        <v>1.01</v>
+      </c>
+      <c r="R230">
+        <v>1.2</v>
+      </c>
+      <c r="S230">
+        <v>1.2</v>
+      </c>
+      <c r="T230">
+        <v>3</v>
+      </c>
+      <c r="U230">
+        <v>0.57209088006881903</v>
+      </c>
+    </row>
+    <row r="231" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A231" t="s">
+        <v>63</v>
+      </c>
+      <c r="B231">
+        <v>8.8199999999999998E-7</v>
+      </c>
+      <c r="C231" t="s">
+        <v>64</v>
+      </c>
+      <c r="E231" t="s">
+        <v>60</v>
+      </c>
+      <c r="F231" t="s">
+        <v>29</v>
+      </c>
+      <c r="G231" t="s">
+        <v>65</v>
+      </c>
+      <c r="H231" t="s">
+        <v>35</v>
+      </c>
+      <c r="I231" t="s">
+        <v>66</v>
+      </c>
+      <c r="K231" t="s">
+        <v>134</v>
+      </c>
+      <c r="L231">
+        <v>2</v>
+      </c>
+      <c r="M231">
+        <v>-13.94107378093962</v>
+      </c>
+      <c r="N231">
+        <v>1.05</v>
+      </c>
+      <c r="O231">
+        <v>1.2</v>
+      </c>
+      <c r="P231">
+        <v>1</v>
+      </c>
+      <c r="Q231">
+        <v>1.01</v>
+      </c>
+      <c r="R231">
+        <v>1.2</v>
+      </c>
+      <c r="S231">
+        <v>1.2</v>
+      </c>
+      <c r="T231">
+        <v>3</v>
+      </c>
+      <c r="U231">
+        <v>0.57209088006881903</v>
+      </c>
+    </row>
+    <row r="232" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A232" t="s">
+        <v>109</v>
+      </c>
+      <c r="B232">
+        <v>7.3399999999999995E-4</v>
+      </c>
+      <c r="C232" t="s">
+        <v>48</v>
+      </c>
+      <c r="E232" t="s">
+        <v>41</v>
+      </c>
+      <c r="F232" t="s">
+        <v>29</v>
+      </c>
+      <c r="G232" t="s">
+        <v>49</v>
+      </c>
+      <c r="H232" t="s">
+        <v>10</v>
+      </c>
+      <c r="I232" t="s">
+        <v>72</v>
+      </c>
+      <c r="J232" t="s">
+        <v>137</v>
+      </c>
+      <c r="K232" t="s">
+        <v>134</v>
+      </c>
+      <c r="L232">
+        <v>2</v>
+      </c>
+      <c r="M232">
+        <v>-7.2170015293497585</v>
+      </c>
+      <c r="N232">
+        <v>1.05</v>
+      </c>
+      <c r="O232">
+        <v>1.2</v>
+      </c>
+      <c r="P232">
+        <v>1</v>
+      </c>
+      <c r="Q232">
+        <v>1.01</v>
+      </c>
+      <c r="R232">
+        <v>1.2</v>
+      </c>
+      <c r="S232">
+        <v>1.2</v>
+      </c>
+      <c r="T232">
+        <v>1.05</v>
+      </c>
+      <c r="U232">
+        <v>0.16169679924070957</v>
+      </c>
+    </row>
+    <row r="233" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A233" t="s">
+        <v>174</v>
+      </c>
+      <c r="B233">
+        <v>1.9025875190258751E-2</v>
+      </c>
+      <c r="C233" t="s">
+        <v>8</v>
+      </c>
+      <c r="E233" t="s">
+        <v>41</v>
+      </c>
+      <c r="F233" t="s">
+        <v>29</v>
+      </c>
+      <c r="G233" t="s">
+        <v>168</v>
+      </c>
+      <c r="H233" t="s">
+        <v>175</v>
+      </c>
+      <c r="I233" t="s">
+        <v>139</v>
+      </c>
+      <c r="J233" t="s">
+        <v>140</v>
+      </c>
+      <c r="K233" t="s">
+        <v>134</v>
+      </c>
+      <c r="L233">
+        <v>2</v>
+      </c>
+      <c r="M233">
+        <v>-3.9619553741763553</v>
+      </c>
+      <c r="N233">
+        <v>1.05</v>
+      </c>
+      <c r="O233">
+        <v>1.2</v>
+      </c>
+      <c r="P233">
+        <v>1</v>
+      </c>
+      <c r="Q233">
+        <v>1.01</v>
+      </c>
+      <c r="R233">
+        <v>1.2</v>
+      </c>
+      <c r="S233">
+        <v>1.2</v>
+      </c>
+      <c r="T233">
+        <v>1.05</v>
+      </c>
+      <c r="U233">
+        <v>0.16169679924070957</v>
+      </c>
+    </row>
+    <row r="234" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A234" t="s">
+        <v>141</v>
+      </c>
+      <c r="B234">
+        <v>9.7999999999999992E-10</v>
+      </c>
+      <c r="C234" t="s">
+        <v>8</v>
+      </c>
+      <c r="D234" t="s">
+        <v>142</v>
+      </c>
+      <c r="F234" t="s">
+        <v>55</v>
+      </c>
+      <c r="H234" t="s">
+        <v>56</v>
+      </c>
+      <c r="I234" t="s">
+        <v>143</v>
+      </c>
+      <c r="K234" t="s">
+        <v>134</v>
+      </c>
+      <c r="L234">
+        <v>2</v>
+      </c>
+      <c r="M234">
+        <v>-20.74346854426393</v>
+      </c>
+      <c r="N234">
+        <v>1.5</v>
+      </c>
+      <c r="O234">
+        <v>1.2</v>
+      </c>
+      <c r="P234">
+        <v>1.5</v>
+      </c>
+      <c r="Q234">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="R234">
+        <v>2</v>
+      </c>
+      <c r="S234">
+        <v>1.2</v>
+      </c>
+      <c r="T234">
+        <v>1.5</v>
+      </c>
+      <c r="U234">
+        <v>0.51215847306170115</v>
+      </c>
+    </row>
+    <row r="235" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A235" t="s">
+        <v>144</v>
+      </c>
+      <c r="B235">
+        <v>1.4700000000000001E-7</v>
+      </c>
+      <c r="C235" t="s">
+        <v>8</v>
+      </c>
+      <c r="D235" t="s">
+        <v>142</v>
+      </c>
+      <c r="F235" t="s">
+        <v>55</v>
+      </c>
+      <c r="H235" t="s">
+        <v>56</v>
+      </c>
+      <c r="I235" t="s">
+        <v>143</v>
+      </c>
+      <c r="K235" t="s">
+        <v>134</v>
+      </c>
+      <c r="L235">
+        <v>2</v>
+      </c>
+      <c r="M235">
+        <v>-15.732833250167674</v>
+      </c>
+      <c r="N235">
+        <v>1.5</v>
+      </c>
+      <c r="O235">
+        <v>1.2</v>
+      </c>
+      <c r="P235">
+        <v>1.5</v>
+      </c>
+      <c r="Q235">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="R235">
+        <v>2</v>
+      </c>
+      <c r="S235">
+        <v>1.2</v>
+      </c>
+      <c r="T235">
+        <v>1.5</v>
+      </c>
+      <c r="U235">
+        <v>0.51215847306170115</v>
+      </c>
+    </row>
+    <row r="236" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A236" t="s">
+        <v>145</v>
+      </c>
+      <c r="B236">
+        <v>3.9200000000000002E-7</v>
+      </c>
+      <c r="C236" t="s">
+        <v>8</v>
+      </c>
+      <c r="D236" t="s">
+        <v>142</v>
+      </c>
+      <c r="F236" t="s">
+        <v>55</v>
+      </c>
+      <c r="H236" t="s">
+        <v>56</v>
+      </c>
+      <c r="I236" t="s">
+        <v>143</v>
+      </c>
+      <c r="K236" t="s">
+        <v>134</v>
+      </c>
+      <c r="L236">
+        <v>2</v>
+      </c>
+      <c r="M236">
+        <v>-14.752003997155949</v>
+      </c>
+      <c r="N236">
+        <v>1.5</v>
+      </c>
+      <c r="O236">
+        <v>1.2</v>
+      </c>
+      <c r="P236">
+        <v>1.5</v>
+      </c>
+      <c r="Q236">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="R236">
+        <v>2</v>
+      </c>
+      <c r="S236">
+        <v>1.2</v>
+      </c>
+      <c r="T236">
+        <v>1.5</v>
+      </c>
+      <c r="U236">
+        <v>0.51215847306170115</v>
+      </c>
+    </row>
+    <row r="237" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A237" t="s">
+        <v>146</v>
+      </c>
+      <c r="B237">
+        <v>9.7999999999999994E-12</v>
+      </c>
+      <c r="C237" t="s">
+        <v>8</v>
+      </c>
+      <c r="D237" t="s">
+        <v>142</v>
+      </c>
+      <c r="F237" t="s">
+        <v>55</v>
+      </c>
+      <c r="H237" t="s">
+        <v>56</v>
+      </c>
+      <c r="I237" t="s">
+        <v>143</v>
+      </c>
+      <c r="K237" t="s">
+        <v>134</v>
+      </c>
+      <c r="L237">
+        <v>2</v>
+      </c>
+      <c r="M237">
+        <v>-25.348638730252024</v>
+      </c>
+      <c r="N237">
+        <v>1.5</v>
+      </c>
+      <c r="O237">
+        <v>1.2</v>
+      </c>
+      <c r="P237">
+        <v>1.5</v>
+      </c>
+      <c r="Q237">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="R237">
+        <v>2</v>
+      </c>
+      <c r="S237">
+        <v>1.2</v>
+      </c>
+      <c r="T237">
+        <v>1.5</v>
+      </c>
+      <c r="U237">
+        <v>0.51215847306170115</v>
+      </c>
+    </row>
+    <row r="238" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A238" t="s">
+        <v>148</v>
+      </c>
+      <c r="B238">
+        <v>5.2130898021308984E-2</v>
+      </c>
+      <c r="C238" t="s">
+        <v>8</v>
+      </c>
+      <c r="D238" t="s">
+        <v>142</v>
+      </c>
+      <c r="F238" t="s">
+        <v>55</v>
+      </c>
+      <c r="H238" t="s">
+        <v>56</v>
+      </c>
+      <c r="I238" t="s">
+        <v>143</v>
+      </c>
+      <c r="K238" t="s">
+        <v>134</v>
+      </c>
+      <c r="L238">
+        <v>2</v>
+      </c>
+      <c r="M238">
+        <v>-2.9539974537763762</v>
+      </c>
+      <c r="N238">
+        <v>1.5</v>
+      </c>
+      <c r="O238">
+        <v>1.2</v>
+      </c>
+      <c r="P238">
+        <v>1.5</v>
+      </c>
+      <c r="Q238">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="R238">
+        <v>2</v>
+      </c>
+      <c r="S238">
+        <v>1.2</v>
+      </c>
+      <c r="T238">
+        <v>1.05</v>
+      </c>
+      <c r="U238">
+        <v>0.47095746419981693</v>
+      </c>
+    </row>
+    <row r="239" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A239" t="s">
+        <v>149</v>
+      </c>
+      <c r="B239">
+        <v>5.7819999999999999E-6</v>
+      </c>
+      <c r="C239" t="s">
+        <v>8</v>
+      </c>
+      <c r="D239" t="s">
+        <v>142</v>
+      </c>
+      <c r="F239" t="s">
+        <v>55</v>
+      </c>
+      <c r="H239" t="s">
+        <v>56</v>
+      </c>
+      <c r="I239" t="s">
+        <v>143</v>
+      </c>
+      <c r="K239" t="s">
+        <v>134</v>
+      </c>
+      <c r="L239">
+        <v>2</v>
+      </c>
+      <c r="M239">
+        <v>-12.060760914370119</v>
+      </c>
+      <c r="N239">
+        <v>1.5</v>
+      </c>
+      <c r="O239">
+        <v>1.2</v>
+      </c>
+      <c r="P239">
+        <v>1.5</v>
+      </c>
+      <c r="Q239">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="R239">
+        <v>2</v>
+      </c>
+      <c r="S239">
+        <v>1.2</v>
+      </c>
+      <c r="T239">
+        <v>5</v>
+      </c>
+      <c r="U239">
+        <v>0.93208283513358414</v>
+      </c>
+    </row>
+    <row r="240" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A240" t="s">
+        <v>150</v>
+      </c>
+      <c r="B240">
+        <v>4.8999999999999997E-7</v>
+      </c>
+      <c r="C240" t="s">
+        <v>8</v>
+      </c>
+      <c r="D240" t="s">
+        <v>142</v>
+      </c>
+      <c r="F240" t="s">
+        <v>55</v>
+      </c>
+      <c r="H240" t="s">
+        <v>56</v>
+      </c>
+      <c r="I240" t="s">
+        <v>143</v>
+      </c>
+      <c r="K240" t="s">
+        <v>134</v>
+      </c>
+      <c r="L240">
+        <v>2</v>
+      </c>
+      <c r="M240">
+        <v>-14.528860445841739</v>
+      </c>
+      <c r="N240">
+        <v>1.5</v>
+      </c>
+      <c r="O240">
+        <v>1.2</v>
+      </c>
+      <c r="P240">
+        <v>1.5</v>
+      </c>
+      <c r="Q240">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="R240">
+        <v>2</v>
+      </c>
+      <c r="S240">
+        <v>1.2</v>
+      </c>
+      <c r="T240">
+        <v>1.5</v>
+      </c>
+      <c r="U240">
+        <v>0.51215847306170115</v>
+      </c>
+    </row>
+    <row r="241" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A241" t="s">
+        <v>151</v>
+      </c>
+      <c r="B241">
+        <v>2.9400000000000001E-17</v>
+      </c>
+      <c r="C241" t="s">
+        <v>8</v>
+      </c>
+      <c r="D241" t="s">
+        <v>142</v>
+      </c>
+      <c r="F241" t="s">
+        <v>55</v>
+      </c>
+      <c r="H241" t="s">
+        <v>56</v>
+      </c>
+      <c r="I241" t="s">
+        <v>143</v>
+      </c>
+      <c r="K241" t="s">
+        <v>134</v>
+      </c>
+      <c r="L241">
+        <v>2</v>
+      </c>
+      <c r="M241">
+        <v>-38.065536999548186</v>
+      </c>
+      <c r="N241">
+        <v>1.5</v>
+      </c>
+      <c r="O241">
+        <v>1.2</v>
+      </c>
+      <c r="P241">
+        <v>1.5</v>
+      </c>
+      <c r="Q241">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="R241">
+        <v>2</v>
+      </c>
+      <c r="S241">
+        <v>1.2</v>
+      </c>
+      <c r="T241">
+        <v>1.5</v>
+      </c>
+      <c r="U241">
+        <v>0.51215847306170115</v>
+      </c>
+    </row>
+    <row r="242" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A242" t="s">
+        <v>152</v>
+      </c>
+      <c r="B242">
+        <v>9.8000000000000004E-8</v>
+      </c>
+      <c r="C242" t="s">
+        <v>8</v>
+      </c>
+      <c r="D242" t="s">
+        <v>142</v>
+      </c>
+      <c r="F242" t="s">
+        <v>55</v>
+      </c>
+      <c r="H242" t="s">
+        <v>56</v>
+      </c>
+      <c r="I242" t="s">
+        <v>143</v>
+      </c>
+      <c r="K242" t="s">
+        <v>134</v>
+      </c>
+      <c r="L242">
+        <v>2</v>
+      </c>
+      <c r="M242">
+        <v>-16.13829835827584</v>
+      </c>
+      <c r="N242">
+        <v>1.5</v>
+      </c>
+      <c r="O242">
+        <v>1.2</v>
+      </c>
+      <c r="P242">
+        <v>1.5</v>
+      </c>
+      <c r="Q242">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="R242">
+        <v>2</v>
+      </c>
+      <c r="S242">
+        <v>1.2</v>
+      </c>
+      <c r="T242">
+        <v>1.5</v>
+      </c>
+      <c r="U242">
+        <v>0.51215847306170115</v>
+      </c>
+    </row>
+    <row r="243" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A243" t="s">
+        <v>153</v>
+      </c>
+      <c r="B243">
+        <v>2.9400000000000003E-11</v>
+      </c>
+      <c r="C243" t="s">
+        <v>8</v>
+      </c>
+      <c r="D243" t="s">
+        <v>142</v>
+      </c>
+      <c r="F243" t="s">
+        <v>55</v>
+      </c>
+      <c r="H243" t="s">
+        <v>56</v>
+      </c>
+      <c r="I243" t="s">
+        <v>143</v>
+      </c>
+      <c r="K243" t="s">
+        <v>134</v>
+      </c>
+      <c r="L243">
+        <v>2</v>
+      </c>
+      <c r="M243">
+        <v>-24.250026441583913</v>
+      </c>
+      <c r="N243">
+        <v>1.5</v>
+      </c>
+      <c r="O243">
+        <v>1.2</v>
+      </c>
+      <c r="P243">
+        <v>1.5</v>
+      </c>
+      <c r="Q243">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="R243">
+        <v>2</v>
+      </c>
+      <c r="S243">
+        <v>1.2</v>
+      </c>
+      <c r="T243">
+        <v>5</v>
+      </c>
+      <c r="U243">
+        <v>0.93208283513358414</v>
+      </c>
+    </row>
+    <row r="244" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A244" t="s">
+        <v>154</v>
+      </c>
+      <c r="B244">
+        <v>1.9599999999999999E-6</v>
+      </c>
+      <c r="C244" t="s">
+        <v>8</v>
+      </c>
+      <c r="D244" t="s">
+        <v>142</v>
+      </c>
+      <c r="F244" t="s">
+        <v>55</v>
+      </c>
+      <c r="H244" t="s">
+        <v>56</v>
+      </c>
+      <c r="I244" t="s">
+        <v>143</v>
+      </c>
+      <c r="K244" t="s">
+        <v>134</v>
+      </c>
+      <c r="L244">
+        <v>2</v>
+      </c>
+      <c r="M244">
+        <v>-13.142566084721848</v>
+      </c>
+      <c r="N244">
+        <v>1.5</v>
+      </c>
+      <c r="O244">
+        <v>1.2</v>
+      </c>
+      <c r="P244">
+        <v>1.5</v>
+      </c>
+      <c r="Q244">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="R244">
+        <v>2</v>
+      </c>
+      <c r="S244">
+        <v>1.2</v>
+      </c>
+      <c r="T244">
+        <v>1.5</v>
+      </c>
+      <c r="U244">
+        <v>0.51215847306170115</v>
+      </c>
+    </row>
+    <row r="245" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A245" t="s">
+        <v>155</v>
+      </c>
+      <c r="B245">
+        <v>0</v>
+      </c>
+      <c r="C245" t="s">
+        <v>8</v>
+      </c>
+      <c r="D245" t="s">
+        <v>142</v>
+      </c>
+      <c r="F245" t="s">
+        <v>55</v>
+      </c>
+      <c r="H245" t="s">
+        <v>56</v>
+      </c>
+      <c r="I245" t="s">
+        <v>143</v>
+      </c>
+      <c r="K245" t="s">
+        <v>134</v>
+      </c>
+      <c r="L245">
+        <v>1</v>
+      </c>
+      <c r="M245" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="246" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A246" t="s">
+        <v>85</v>
+      </c>
+      <c r="B246">
+        <v>9.7019999999999996E-6</v>
+      </c>
+      <c r="C246" t="s">
+        <v>8</v>
+      </c>
+      <c r="D246" t="s">
+        <v>142</v>
+      </c>
+      <c r="F246" t="s">
+        <v>55</v>
+      </c>
+      <c r="H246" t="s">
+        <v>56</v>
+      </c>
+      <c r="I246" t="s">
+        <v>143</v>
+      </c>
+      <c r="K246" t="s">
+        <v>134</v>
+      </c>
+      <c r="L246">
+        <v>2</v>
+      </c>
+      <c r="M246">
+        <v>-11.543178508141249</v>
+      </c>
+      <c r="N246">
+        <v>1.5</v>
+      </c>
+      <c r="O246">
+        <v>1.2</v>
+      </c>
+      <c r="P246">
+        <v>1.5</v>
+      </c>
+      <c r="Q246">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="R246">
+        <v>2</v>
+      </c>
+      <c r="S246">
+        <v>1.2</v>
+      </c>
+      <c r="T246">
+        <v>1.5</v>
+      </c>
+      <c r="U246">
+        <v>0.51215847306170115</v>
+      </c>
+    </row>
+    <row r="247" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A247" t="s">
+        <v>156</v>
+      </c>
+      <c r="B247">
+        <v>9.8000000000000001E-9</v>
+      </c>
+      <c r="C247" t="s">
+        <v>8</v>
+      </c>
+      <c r="D247" t="s">
+        <v>142</v>
+      </c>
+      <c r="F247" t="s">
+        <v>55</v>
+      </c>
+      <c r="H247" t="s">
+        <v>56</v>
+      </c>
+      <c r="I247" t="s">
+        <v>143</v>
+      </c>
+      <c r="K247" t="s">
+        <v>134</v>
+      </c>
+      <c r="L247">
+        <v>2</v>
+      </c>
+      <c r="M247">
+        <v>-18.440883451269883</v>
+      </c>
+      <c r="N247">
+        <v>1.5</v>
+      </c>
+      <c r="O247">
+        <v>1.2</v>
+      </c>
+      <c r="P247">
+        <v>1.5</v>
+      </c>
+      <c r="Q247">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="R247">
+        <v>2</v>
+      </c>
+      <c r="S247">
+        <v>1.2</v>
+      </c>
+      <c r="T247">
+        <v>3</v>
+      </c>
+      <c r="U247">
+        <v>0.72314801614797197</v>
+      </c>
+    </row>
+    <row r="248" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A248" t="s">
+        <v>157</v>
+      </c>
+      <c r="B248">
+        <v>9.8000000000000004E-8</v>
+      </c>
+      <c r="C248" t="s">
+        <v>8</v>
+      </c>
+      <c r="D248" t="s">
+        <v>142</v>
+      </c>
+      <c r="F248" t="s">
+        <v>55</v>
+      </c>
+      <c r="H248" t="s">
+        <v>56</v>
+      </c>
+      <c r="I248" t="s">
+        <v>143</v>
+      </c>
+      <c r="K248" t="s">
+        <v>134</v>
+      </c>
+      <c r="L248">
+        <v>2</v>
+      </c>
+      <c r="M248">
+        <v>-16.13829835827584</v>
+      </c>
+      <c r="N248">
+        <v>1.5</v>
+      </c>
+      <c r="O248">
+        <v>1.2</v>
+      </c>
+      <c r="P248">
+        <v>1.5</v>
+      </c>
+      <c r="Q248">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="R248">
+        <v>2</v>
+      </c>
+      <c r="S248">
+        <v>1.2</v>
+      </c>
+      <c r="T248">
+        <v>3</v>
+      </c>
+      <c r="U248">
+        <v>0.72314801614797197</v>
+      </c>
+    </row>
+    <row r="249" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A249" t="s">
+        <v>158</v>
+      </c>
+      <c r="B249">
+        <v>1.176E-6</v>
+      </c>
+      <c r="C249" t="s">
+        <v>8</v>
+      </c>
+      <c r="D249" t="s">
+        <v>142</v>
+      </c>
+      <c r="F249" t="s">
+        <v>55</v>
+      </c>
+      <c r="H249" t="s">
+        <v>56</v>
+      </c>
+      <c r="I249" t="s">
+        <v>143</v>
+      </c>
+      <c r="K249" t="s">
+        <v>134</v>
+      </c>
+      <c r="L249">
+        <v>2</v>
+      </c>
+      <c r="M249">
+        <v>-13.653391708487838</v>
+      </c>
+      <c r="N249">
+        <v>1.5</v>
+      </c>
+      <c r="O249">
+        <v>1.2</v>
+      </c>
+      <c r="P249">
+        <v>1.5</v>
+      </c>
+      <c r="Q249">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="R249">
+        <v>2</v>
+      </c>
+      <c r="S249">
+        <v>1.2</v>
+      </c>
+      <c r="T249">
+        <v>1.5</v>
+      </c>
+      <c r="U249">
+        <v>0.51215847306170115</v>
+      </c>
+    </row>
+    <row r="250" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A250" t="s">
+        <v>159</v>
+      </c>
+      <c r="B250">
+        <v>1.96E-8</v>
+      </c>
+      <c r="C250" t="s">
+        <v>8</v>
+      </c>
+      <c r="D250" t="s">
+        <v>142</v>
+      </c>
+      <c r="F250" t="s">
+        <v>55</v>
+      </c>
+      <c r="H250" t="s">
+        <v>56</v>
+      </c>
+      <c r="I250" t="s">
+        <v>143</v>
+      </c>
+      <c r="K250" t="s">
+        <v>134</v>
+      </c>
+      <c r="L250">
+        <v>2</v>
+      </c>
+      <c r="M250">
+        <v>-17.74773627070994</v>
+      </c>
+      <c r="N250">
+        <v>1.5</v>
+      </c>
+      <c r="O250">
+        <v>1.2</v>
+      </c>
+      <c r="P250">
+        <v>1.5</v>
+      </c>
+      <c r="Q250">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="R250">
+        <v>2</v>
+      </c>
+      <c r="S250">
+        <v>1.2</v>
+      </c>
+      <c r="T250">
+        <v>1.5</v>
+      </c>
+      <c r="U250">
+        <v>0.51215847306170115</v>
+      </c>
+    </row>
+    <row r="251" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A251" t="s">
+        <v>160</v>
+      </c>
+      <c r="B251">
+        <v>4.8999999999999997E-7</v>
+      </c>
+      <c r="C251" t="s">
+        <v>8</v>
+      </c>
+      <c r="D251" t="s">
+        <v>142</v>
+      </c>
+      <c r="F251" t="s">
+        <v>55</v>
+      </c>
+      <c r="H251" t="s">
+        <v>56</v>
+      </c>
+      <c r="I251" t="s">
+        <v>143</v>
+      </c>
+      <c r="K251" t="s">
+        <v>134</v>
+      </c>
+      <c r="L251">
+        <v>2</v>
+      </c>
+      <c r="M251">
+        <v>-14.528860445841739</v>
+      </c>
+      <c r="N251">
+        <v>1.5</v>
+      </c>
+      <c r="O251">
+        <v>1.2</v>
+      </c>
+      <c r="P251">
+        <v>1.5</v>
+      </c>
+      <c r="Q251">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="R251">
+        <v>2</v>
+      </c>
+      <c r="S251">
+        <v>1.2</v>
+      </c>
+      <c r="T251">
+        <v>1.5</v>
+      </c>
+      <c r="U251">
+        <v>0.51215847306170115</v>
+      </c>
+    </row>
+    <row r="252" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A252" t="s">
+        <v>161</v>
+      </c>
+      <c r="B252">
+        <v>1.9600000000000001E-7</v>
+      </c>
+      <c r="C252" t="s">
+        <v>8</v>
+      </c>
+      <c r="D252" t="s">
+        <v>142</v>
+      </c>
+      <c r="F252" t="s">
+        <v>55</v>
+      </c>
+      <c r="H252" t="s">
+        <v>56</v>
+      </c>
+      <c r="I252" t="s">
+        <v>143</v>
+      </c>
+      <c r="K252" t="s">
+        <v>134</v>
+      </c>
+      <c r="L252">
+        <v>2</v>
+      </c>
+      <c r="M252">
+        <v>-15.445151177715895</v>
+      </c>
+      <c r="N252">
+        <v>1.5</v>
+      </c>
+      <c r="O252">
+        <v>1.2</v>
+      </c>
+      <c r="P252">
+        <v>1.5</v>
+      </c>
+      <c r="Q252">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="R252">
+        <v>2</v>
+      </c>
+      <c r="S252">
+        <v>1.2</v>
+      </c>
+      <c r="T252">
+        <v>1.5</v>
+      </c>
+      <c r="U252">
+        <v>0.51215847306170115</v>
+      </c>
+    </row>
+    <row r="253" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A253" t="s">
+        <v>162</v>
+      </c>
+      <c r="B253">
+        <v>1.2739999999999999E-7</v>
+      </c>
+      <c r="C253" t="s">
+        <v>8</v>
+      </c>
+      <c r="D253" t="s">
+        <v>163</v>
+      </c>
+      <c r="F253" t="s">
+        <v>55</v>
+      </c>
+      <c r="H253" t="s">
+        <v>56</v>
+      </c>
+      <c r="I253" t="s">
+        <v>143</v>
+      </c>
+      <c r="K253" t="s">
+        <v>134</v>
+      </c>
+      <c r="L253">
+        <v>2</v>
+      </c>
+      <c r="M253">
+        <v>-15.875934093808349</v>
+      </c>
+      <c r="N253">
+        <v>1.5</v>
+      </c>
+      <c r="O253">
+        <v>1.2</v>
+      </c>
+      <c r="P253">
+        <v>1.5</v>
+      </c>
+      <c r="Q253">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="R253">
+        <v>2</v>
+      </c>
+      <c r="S253">
+        <v>1.2</v>
+      </c>
+      <c r="T253">
+        <v>1.5</v>
+      </c>
+      <c r="U253">
+        <v>0.51215847306170115</v>
+      </c>
+    </row>
+    <row r="254" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A254" t="s">
+        <v>164</v>
+      </c>
+      <c r="B254">
+        <v>2.9400000000000002E-9</v>
+      </c>
+      <c r="C254" t="s">
+        <v>8</v>
+      </c>
+      <c r="D254" t="s">
+        <v>163</v>
+      </c>
+      <c r="F254" t="s">
+        <v>55</v>
+      </c>
+      <c r="H254" t="s">
+        <v>56</v>
+      </c>
+      <c r="I254" t="s">
+        <v>143</v>
+      </c>
+      <c r="K254" t="s">
+        <v>134</v>
+      </c>
+      <c r="L254">
+        <v>2</v>
+      </c>
+      <c r="M254">
+        <v>-19.644856255595823</v>
+      </c>
+      <c r="N254">
+        <v>1.5</v>
+      </c>
+      <c r="O254">
+        <v>1.2</v>
+      </c>
+      <c r="P254">
+        <v>1.5</v>
+      </c>
+      <c r="Q254">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="R254">
+        <v>2</v>
+      </c>
+      <c r="S254">
+        <v>1.2</v>
+      </c>
+      <c r="T254">
+        <v>1.5</v>
+      </c>
+      <c r="U254">
+        <v>0.51215847306170115</v>
+      </c>
+    </row>
+    <row r="255" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A255" t="s">
+        <v>165</v>
+      </c>
+      <c r="B255">
+        <v>4.9000000000000002E-8</v>
+      </c>
+      <c r="C255" t="s">
+        <v>8</v>
+      </c>
+      <c r="D255" t="s">
+        <v>163</v>
+      </c>
+      <c r="F255" t="s">
+        <v>55</v>
+      </c>
+      <c r="H255" t="s">
+        <v>56</v>
+      </c>
+      <c r="I255" t="s">
+        <v>143</v>
+      </c>
+      <c r="K255" t="s">
+        <v>134</v>
+      </c>
+      <c r="L255">
+        <v>2</v>
+      </c>
+      <c r="M255">
+        <v>-16.831445538835784</v>
+      </c>
+      <c r="N255">
+        <v>1.5</v>
+      </c>
+      <c r="O255">
+        <v>1.2</v>
+      </c>
+      <c r="P255">
+        <v>1.5</v>
+      </c>
+      <c r="Q255">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="R255">
+        <v>2</v>
+      </c>
+      <c r="S255">
+        <v>1.2</v>
+      </c>
+      <c r="T255">
+        <v>1.5</v>
+      </c>
+      <c r="U255">
+        <v>0.51215847306170115</v>
+      </c>
+    </row>
+    <row r="256" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A256" t="s">
+        <v>166</v>
+      </c>
+      <c r="B256">
+        <v>4.9000000000000002E-8</v>
+      </c>
+      <c r="C256" t="s">
+        <v>8</v>
+      </c>
+      <c r="D256" t="s">
+        <v>163</v>
+      </c>
+      <c r="F256" t="s">
+        <v>55</v>
+      </c>
+      <c r="H256" t="s">
+        <v>56</v>
+      </c>
+      <c r="I256" t="s">
+        <v>143</v>
+      </c>
+      <c r="K256" t="s">
+        <v>134</v>
+      </c>
+      <c r="L256">
+        <v>2</v>
+      </c>
+      <c r="M256">
+        <v>-16.831445538835784</v>
+      </c>
+      <c r="N256">
+        <v>1.5</v>
+      </c>
+      <c r="O256">
+        <v>1.2</v>
+      </c>
+      <c r="P256">
+        <v>1.5</v>
+      </c>
+      <c r="Q256">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="R256">
+        <v>2</v>
+      </c>
+      <c r="S256">
+        <v>1.2</v>
+      </c>
+      <c r="T256">
+        <v>1.5</v>
+      </c>
+      <c r="U256">
+        <v>0.51215847306170115</v>
+      </c>
+    </row>
+    <row r="258" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A258" t="s">
+        <v>0</v>
+      </c>
+      <c r="B258" s="1" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="259" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A259" t="s">
+        <v>1</v>
+      </c>
+      <c r="B259" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="260" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A260" t="s">
+        <v>2</v>
+      </c>
+      <c r="B260" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="261" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A261" t="s">
+        <v>4</v>
+      </c>
+      <c r="B261" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="262" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A262" t="s">
+        <v>5</v>
+      </c>
+      <c r="B262" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="263" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A263" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="264" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A264" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B264" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C264" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D264" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E264" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F264" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G264" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H264" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I264" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J264" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="K264" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="L264" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="M264" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="N264" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="O264" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="P264" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q264" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="R264" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="S264" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="T264" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="U264" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="V264" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="W264" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="265" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A265" t="str">
+        <f>B258</f>
+        <v>heat, residential, by combustion of liquefied petroleum gas using boiler, distributed by pipeline</v>
+      </c>
+      <c r="B265">
+        <v>1</v>
+      </c>
+      <c r="C265" t="s">
+        <v>91</v>
+      </c>
+      <c r="E265" t="s">
+        <v>41</v>
+      </c>
+      <c r="F265" t="s">
+        <v>28</v>
+      </c>
+      <c r="G265" t="s">
+        <v>90</v>
+      </c>
+      <c r="K265" t="s">
+        <v>134</v>
+      </c>
+      <c r="W265" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="266" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A266" t="s">
+        <v>59</v>
+      </c>
+      <c r="B266">
+        <v>4.0327784230223253E-7</v>
+      </c>
+      <c r="C266" t="s">
+        <v>7</v>
+      </c>
+      <c r="E266" t="s">
+        <v>60</v>
+      </c>
+      <c r="F266" t="s">
+        <v>29</v>
+      </c>
+      <c r="G266" t="s">
+        <v>61</v>
+      </c>
+      <c r="H266" t="s">
+        <v>35</v>
+      </c>
+      <c r="I266" t="s">
+        <v>136</v>
+      </c>
+      <c r="K266" t="s">
+        <v>134</v>
+      </c>
+      <c r="L266">
+        <v>2</v>
+      </c>
+      <c r="M266">
+        <v>-14.723640077557722</v>
+      </c>
+      <c r="N266">
+        <v>1.05</v>
+      </c>
+      <c r="O266">
+        <v>1.2</v>
+      </c>
+      <c r="P266">
+        <v>1</v>
+      </c>
+      <c r="Q266">
+        <v>1.01</v>
+      </c>
+      <c r="R266">
+        <v>1.2</v>
+      </c>
+      <c r="S266">
+        <v>1.2</v>
+      </c>
+      <c r="T266">
+        <v>3</v>
+      </c>
+      <c r="U266">
+        <v>0.57209088006881903</v>
+      </c>
+    </row>
+    <row r="267" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A267" t="s">
+        <v>63</v>
+      </c>
+      <c r="B267">
+        <v>8.8199999999999998E-7</v>
+      </c>
+      <c r="C267" t="s">
+        <v>64</v>
+      </c>
+      <c r="E267" t="s">
+        <v>60</v>
+      </c>
+      <c r="F267" t="s">
+        <v>29</v>
+      </c>
+      <c r="G267" t="s">
+        <v>65</v>
+      </c>
+      <c r="H267" t="s">
+        <v>35</v>
+      </c>
+      <c r="I267" t="s">
+        <v>66</v>
+      </c>
+      <c r="K267" t="s">
+        <v>134</v>
+      </c>
+      <c r="L267">
+        <v>2</v>
+      </c>
+      <c r="M267">
+        <v>-13.94107378093962</v>
+      </c>
+      <c r="N267">
+        <v>1.05</v>
+      </c>
+      <c r="O267">
+        <v>1.2</v>
+      </c>
+      <c r="P267">
+        <v>1</v>
+      </c>
+      <c r="Q267">
+        <v>1.01</v>
+      </c>
+      <c r="R267">
+        <v>1.2</v>
+      </c>
+      <c r="S267">
+        <v>1.2</v>
+      </c>
+      <c r="T267">
+        <v>3</v>
+      </c>
+      <c r="U267">
+        <v>0.57209088006881903</v>
+      </c>
+    </row>
+    <row r="268" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A268" t="s">
+        <v>109</v>
+      </c>
+      <c r="B268">
+        <v>7.3399999999999995E-4</v>
+      </c>
+      <c r="C268" t="s">
+        <v>48</v>
+      </c>
+      <c r="E268" t="s">
+        <v>41</v>
+      </c>
+      <c r="F268" t="s">
+        <v>29</v>
+      </c>
+      <c r="G268" t="s">
+        <v>49</v>
+      </c>
+      <c r="H268" t="s">
+        <v>10</v>
+      </c>
+      <c r="I268" t="s">
+        <v>72</v>
+      </c>
+      <c r="J268" t="s">
+        <v>137</v>
+      </c>
+      <c r="K268" t="s">
+        <v>134</v>
+      </c>
+      <c r="L268">
+        <v>2</v>
+      </c>
+      <c r="M268">
+        <v>-7.2170015293497585</v>
+      </c>
+      <c r="N268">
+        <v>1.05</v>
+      </c>
+      <c r="O268">
+        <v>1.2</v>
+      </c>
+      <c r="P268">
+        <v>1</v>
+      </c>
+      <c r="Q268">
+        <v>1.01</v>
+      </c>
+      <c r="R268">
+        <v>1.2</v>
+      </c>
+      <c r="S268">
+        <v>1.2</v>
+      </c>
+      <c r="T268">
+        <v>1.05</v>
+      </c>
+      <c r="U268">
+        <v>0.16169679924070957</v>
+      </c>
+    </row>
+    <row r="269" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A269" t="s">
+        <v>180</v>
+      </c>
+      <c r="B269">
+        <v>1.9025875190258751E-2</v>
+      </c>
+      <c r="C269" t="s">
+        <v>8</v>
+      </c>
+      <c r="E269" t="s">
+        <v>110</v>
+      </c>
+      <c r="F269" t="s">
+        <v>29</v>
+      </c>
+      <c r="G269" t="s">
+        <v>181</v>
+      </c>
+      <c r="H269" t="s">
+        <v>138</v>
+      </c>
+      <c r="I269" t="s">
+        <v>139</v>
+      </c>
+      <c r="J269" t="s">
+        <v>140</v>
+      </c>
+      <c r="K269" t="s">
+        <v>134</v>
+      </c>
+      <c r="L269">
+        <v>2</v>
+      </c>
+      <c r="M269">
+        <v>-3.9619553741763553</v>
+      </c>
+      <c r="N269">
+        <v>1.05</v>
+      </c>
+      <c r="O269">
+        <v>1.2</v>
+      </c>
+      <c r="P269">
+        <v>1</v>
+      </c>
+      <c r="Q269">
+        <v>1.01</v>
+      </c>
+      <c r="R269">
+        <v>1.2</v>
+      </c>
+      <c r="S269">
+        <v>1.2</v>
+      </c>
+      <c r="T269">
+        <v>1.05</v>
+      </c>
+      <c r="U269">
+        <v>0.16169679924070957</v>
+      </c>
+    </row>
+    <row r="270" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A270" t="s">
+        <v>141</v>
+      </c>
+      <c r="B270">
+        <v>9.7999999999999992E-10</v>
+      </c>
+      <c r="C270" t="s">
+        <v>8</v>
+      </c>
+      <c r="D270" t="s">
+        <v>142</v>
+      </c>
+      <c r="F270" t="s">
+        <v>55</v>
+      </c>
+      <c r="H270" t="s">
+        <v>56</v>
+      </c>
+      <c r="I270" t="s">
+        <v>143</v>
+      </c>
+      <c r="K270" t="s">
+        <v>134</v>
+      </c>
+      <c r="L270">
+        <v>2</v>
+      </c>
+      <c r="M270">
+        <v>-20.74346854426393</v>
+      </c>
+      <c r="N270">
+        <v>1.5</v>
+      </c>
+      <c r="O270">
+        <v>1.2</v>
+      </c>
+      <c r="P270">
+        <v>1.5</v>
+      </c>
+      <c r="Q270">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="R270">
+        <v>2</v>
+      </c>
+      <c r="S270">
+        <v>1.2</v>
+      </c>
+      <c r="T270">
+        <v>1.5</v>
+      </c>
+      <c r="U270">
+        <v>0.51215847306170115</v>
+      </c>
+    </row>
+    <row r="271" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A271" t="s">
+        <v>144</v>
+      </c>
+      <c r="B271">
+        <v>1.4700000000000001E-7</v>
+      </c>
+      <c r="C271" t="s">
+        <v>8</v>
+      </c>
+      <c r="D271" t="s">
+        <v>142</v>
+      </c>
+      <c r="F271" t="s">
+        <v>55</v>
+      </c>
+      <c r="H271" t="s">
+        <v>56</v>
+      </c>
+      <c r="I271" t="s">
+        <v>143</v>
+      </c>
+      <c r="K271" t="s">
+        <v>134</v>
+      </c>
+      <c r="L271">
+        <v>2</v>
+      </c>
+      <c r="M271">
+        <v>-15.732833250167674</v>
+      </c>
+      <c r="N271">
+        <v>1.5</v>
+      </c>
+      <c r="O271">
+        <v>1.2</v>
+      </c>
+      <c r="P271">
+        <v>1.5</v>
+      </c>
+      <c r="Q271">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="R271">
+        <v>2</v>
+      </c>
+      <c r="S271">
+        <v>1.2</v>
+      </c>
+      <c r="T271">
+        <v>1.5</v>
+      </c>
+      <c r="U271">
+        <v>0.51215847306170115</v>
+      </c>
+    </row>
+    <row r="272" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A272" t="s">
+        <v>145</v>
+      </c>
+      <c r="B272">
+        <v>3.9200000000000002E-7</v>
+      </c>
+      <c r="C272" t="s">
+        <v>8</v>
+      </c>
+      <c r="D272" t="s">
+        <v>142</v>
+      </c>
+      <c r="F272" t="s">
+        <v>55</v>
+      </c>
+      <c r="H272" t="s">
+        <v>56</v>
+      </c>
+      <c r="I272" t="s">
+        <v>143</v>
+      </c>
+      <c r="K272" t="s">
+        <v>134</v>
+      </c>
+      <c r="L272">
+        <v>2</v>
+      </c>
+      <c r="M272">
+        <v>-14.752003997155949</v>
+      </c>
+      <c r="N272">
+        <v>1.5</v>
+      </c>
+      <c r="O272">
+        <v>1.2</v>
+      </c>
+      <c r="P272">
+        <v>1.5</v>
+      </c>
+      <c r="Q272">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="R272">
+        <v>2</v>
+      </c>
+      <c r="S272">
+        <v>1.2</v>
+      </c>
+      <c r="T272">
+        <v>1.5</v>
+      </c>
+      <c r="U272">
+        <v>0.51215847306170115</v>
+      </c>
+    </row>
+    <row r="273" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A273" t="s">
+        <v>146</v>
+      </c>
+      <c r="B273">
+        <v>9.7999999999999994E-12</v>
+      </c>
+      <c r="C273" t="s">
+        <v>8</v>
+      </c>
+      <c r="D273" t="s">
+        <v>142</v>
+      </c>
+      <c r="F273" t="s">
+        <v>55</v>
+      </c>
+      <c r="H273" t="s">
+        <v>56</v>
+      </c>
+      <c r="I273" t="s">
+        <v>143</v>
+      </c>
+      <c r="K273" t="s">
+        <v>134</v>
+      </c>
+      <c r="L273">
+        <v>2</v>
+      </c>
+      <c r="M273">
+        <v>-25.348638730252024</v>
+      </c>
+      <c r="N273">
+        <v>1.5</v>
+      </c>
+      <c r="O273">
+        <v>1.2</v>
+      </c>
+      <c r="P273">
+        <v>1.5</v>
+      </c>
+      <c r="Q273">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="R273">
+        <v>2</v>
+      </c>
+      <c r="S273">
+        <v>1.2</v>
+      </c>
+      <c r="T273">
+        <v>1.5</v>
+      </c>
+      <c r="U273">
+        <v>0.51215847306170115</v>
+      </c>
+    </row>
+    <row r="274" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A274" t="s">
+        <v>147</v>
+      </c>
+      <c r="B274">
+        <v>5.2130898021308984E-2</v>
+      </c>
+      <c r="C274" t="s">
+        <v>8</v>
+      </c>
+      <c r="D274" t="s">
+        <v>142</v>
+      </c>
+      <c r="F274" t="s">
+        <v>55</v>
+      </c>
+      <c r="H274" t="s">
+        <v>56</v>
+      </c>
+      <c r="I274" t="s">
+        <v>143</v>
+      </c>
+      <c r="K274" t="s">
+        <v>134</v>
+      </c>
+      <c r="L274">
+        <v>1</v>
+      </c>
+      <c r="M274" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="275" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A275" t="s">
+        <v>172</v>
+      </c>
+      <c r="B275">
+        <v>5.7819999999999999E-6</v>
+      </c>
+      <c r="C275" t="s">
+        <v>8</v>
+      </c>
+      <c r="D275" t="s">
+        <v>142</v>
+      </c>
+      <c r="F275" t="s">
+        <v>55</v>
+      </c>
+      <c r="H275" t="s">
+        <v>56</v>
+      </c>
+      <c r="I275" t="s">
+        <v>143</v>
+      </c>
+      <c r="K275" t="s">
+        <v>134</v>
+      </c>
+      <c r="L275">
+        <v>2</v>
+      </c>
+      <c r="M275">
+        <v>-12.060760914370119</v>
+      </c>
+      <c r="N275">
+        <v>1.5</v>
+      </c>
+      <c r="O275">
+        <v>1.2</v>
+      </c>
+      <c r="P275">
+        <v>1.5</v>
+      </c>
+      <c r="Q275">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="R275">
+        <v>2</v>
+      </c>
+      <c r="S275">
+        <v>1.2</v>
+      </c>
+      <c r="T275">
+        <v>5</v>
+      </c>
+      <c r="U275">
+        <v>0.93208283513358414</v>
+      </c>
+    </row>
+    <row r="276" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A276" t="s">
+        <v>150</v>
+      </c>
+      <c r="B276">
+        <v>4.8999999999999997E-7</v>
+      </c>
+      <c r="C276" t="s">
+        <v>8</v>
+      </c>
+      <c r="D276" t="s">
+        <v>142</v>
+      </c>
+      <c r="F276" t="s">
+        <v>55</v>
+      </c>
+      <c r="H276" t="s">
+        <v>56</v>
+      </c>
+      <c r="I276" t="s">
+        <v>143</v>
+      </c>
+      <c r="K276" t="s">
+        <v>134</v>
+      </c>
+      <c r="L276">
+        <v>2</v>
+      </c>
+      <c r="M276">
+        <v>-14.528860445841739</v>
+      </c>
+      <c r="N276">
+        <v>1.5</v>
+      </c>
+      <c r="O276">
+        <v>1.2</v>
+      </c>
+      <c r="P276">
+        <v>1.5</v>
+      </c>
+      <c r="Q276">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="R276">
+        <v>2</v>
+      </c>
+      <c r="S276">
+        <v>1.2</v>
+      </c>
+      <c r="T276">
+        <v>1.5</v>
+      </c>
+      <c r="U276">
+        <v>0.51215847306170115</v>
+      </c>
+    </row>
+    <row r="277" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A277" t="s">
+        <v>151</v>
+      </c>
+      <c r="B277">
+        <v>2.9400000000000001E-17</v>
+      </c>
+      <c r="C277" t="s">
+        <v>8</v>
+      </c>
+      <c r="D277" t="s">
+        <v>142</v>
+      </c>
+      <c r="F277" t="s">
+        <v>55</v>
+      </c>
+      <c r="H277" t="s">
+        <v>56</v>
+      </c>
+      <c r="I277" t="s">
+        <v>143</v>
+      </c>
+      <c r="K277" t="s">
+        <v>134</v>
+      </c>
+      <c r="L277">
+        <v>2</v>
+      </c>
+      <c r="M277">
+        <v>-38.065536999548186</v>
+      </c>
+      <c r="N277">
+        <v>1.5</v>
+      </c>
+      <c r="O277">
+        <v>1.2</v>
+      </c>
+      <c r="P277">
+        <v>1.5</v>
+      </c>
+      <c r="Q277">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="R277">
+        <v>2</v>
+      </c>
+      <c r="S277">
+        <v>1.2</v>
+      </c>
+      <c r="T277">
+        <v>1.5</v>
+      </c>
+      <c r="U277">
+        <v>0.51215847306170115</v>
+      </c>
+    </row>
+    <row r="278" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A278" t="s">
+        <v>152</v>
+      </c>
+      <c r="B278">
+        <v>9.8000000000000004E-8</v>
+      </c>
+      <c r="C278" t="s">
+        <v>8</v>
+      </c>
+      <c r="D278" t="s">
+        <v>142</v>
+      </c>
+      <c r="F278" t="s">
+        <v>55</v>
+      </c>
+      <c r="H278" t="s">
+        <v>56</v>
+      </c>
+      <c r="I278" t="s">
+        <v>143</v>
+      </c>
+      <c r="K278" t="s">
+        <v>134</v>
+      </c>
+      <c r="L278">
+        <v>2</v>
+      </c>
+      <c r="M278">
+        <v>-16.13829835827584</v>
+      </c>
+      <c r="N278">
+        <v>1.5</v>
+      </c>
+      <c r="O278">
+        <v>1.2</v>
+      </c>
+      <c r="P278">
+        <v>1.5</v>
+      </c>
+      <c r="Q278">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="R278">
+        <v>2</v>
+      </c>
+      <c r="S278">
+        <v>1.2</v>
+      </c>
+      <c r="T278">
+        <v>1.5</v>
+      </c>
+      <c r="U278">
+        <v>0.51215847306170115</v>
+      </c>
+    </row>
+    <row r="279" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A279" t="s">
+        <v>153</v>
+      </c>
+      <c r="B279">
+        <v>2.9400000000000003E-11</v>
+      </c>
+      <c r="C279" t="s">
+        <v>8</v>
+      </c>
+      <c r="D279" t="s">
+        <v>142</v>
+      </c>
+      <c r="F279" t="s">
+        <v>55</v>
+      </c>
+      <c r="H279" t="s">
+        <v>56</v>
+      </c>
+      <c r="I279" t="s">
+        <v>143</v>
+      </c>
+      <c r="K279" t="s">
+        <v>134</v>
+      </c>
+      <c r="L279">
+        <v>2</v>
+      </c>
+      <c r="M279">
+        <v>-24.250026441583913</v>
+      </c>
+      <c r="N279">
+        <v>1.5</v>
+      </c>
+      <c r="O279">
+        <v>1.2</v>
+      </c>
+      <c r="P279">
+        <v>1.5</v>
+      </c>
+      <c r="Q279">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="R279">
+        <v>2</v>
+      </c>
+      <c r="S279">
+        <v>1.2</v>
+      </c>
+      <c r="T279">
+        <v>5</v>
+      </c>
+      <c r="U279">
+        <v>0.93208283513358414</v>
+      </c>
+    </row>
+    <row r="280" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A280" t="s">
+        <v>155</v>
+      </c>
+      <c r="B280">
+        <v>1.9599999999999999E-6</v>
+      </c>
+      <c r="C280" t="s">
+        <v>8</v>
+      </c>
+      <c r="D280" t="s">
+        <v>142</v>
+      </c>
+      <c r="F280" t="s">
+        <v>55</v>
+      </c>
+      <c r="H280" t="s">
+        <v>56</v>
+      </c>
+      <c r="I280" t="s">
+        <v>143</v>
+      </c>
+      <c r="K280" t="s">
+        <v>134</v>
+      </c>
+      <c r="L280">
+        <v>2</v>
+      </c>
+      <c r="M280">
+        <v>-13.142566084721848</v>
+      </c>
+      <c r="N280">
+        <v>1.5</v>
+      </c>
+      <c r="O280">
+        <v>1.2</v>
+      </c>
+      <c r="P280">
+        <v>1.5</v>
+      </c>
+      <c r="Q280">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="R280">
+        <v>2</v>
+      </c>
+      <c r="S280">
+        <v>1.2</v>
+      </c>
+      <c r="T280">
+        <v>1.5</v>
+      </c>
+      <c r="U280">
+        <v>0.51215847306170115</v>
+      </c>
+    </row>
+    <row r="281" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A281" t="s">
+        <v>155</v>
+      </c>
+      <c r="B281">
+        <v>0</v>
+      </c>
+      <c r="C281" t="s">
+        <v>8</v>
+      </c>
+      <c r="D281" t="s">
+        <v>142</v>
+      </c>
+      <c r="F281" t="s">
+        <v>55</v>
+      </c>
+      <c r="H281" t="s">
+        <v>56</v>
+      </c>
+      <c r="I281" t="s">
+        <v>143</v>
+      </c>
+      <c r="K281" t="s">
+        <v>134</v>
+      </c>
+      <c r="L281">
+        <v>1</v>
+      </c>
+      <c r="M281" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="282" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A282" t="s">
+        <v>85</v>
+      </c>
+      <c r="B282">
+        <v>9.7019999999999996E-6</v>
+      </c>
+      <c r="C282" t="s">
+        <v>8</v>
+      </c>
+      <c r="D282" t="s">
+        <v>142</v>
+      </c>
+      <c r="F282" t="s">
+        <v>55</v>
+      </c>
+      <c r="H282" t="s">
+        <v>56</v>
+      </c>
+      <c r="I282" t="s">
+        <v>143</v>
+      </c>
+      <c r="K282" t="s">
+        <v>134</v>
+      </c>
+      <c r="L282">
+        <v>2</v>
+      </c>
+      <c r="M282">
+        <v>-11.543178508141249</v>
+      </c>
+      <c r="N282">
+        <v>1.5</v>
+      </c>
+      <c r="O282">
+        <v>1.2</v>
+      </c>
+      <c r="P282">
+        <v>1.5</v>
+      </c>
+      <c r="Q282">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="R282">
+        <v>2</v>
+      </c>
+      <c r="S282">
+        <v>1.2</v>
+      </c>
+      <c r="T282">
+        <v>1.5</v>
+      </c>
+      <c r="U282">
+        <v>0.51215847306170115</v>
+      </c>
+    </row>
+    <row r="283" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A283" t="s">
+        <v>156</v>
+      </c>
+      <c r="B283">
+        <v>9.8000000000000001E-9</v>
+      </c>
+      <c r="C283" t="s">
+        <v>8</v>
+      </c>
+      <c r="D283" t="s">
+        <v>142</v>
+      </c>
+      <c r="F283" t="s">
+        <v>55</v>
+      </c>
+      <c r="H283" t="s">
+        <v>56</v>
+      </c>
+      <c r="I283" t="s">
+        <v>143</v>
+      </c>
+      <c r="K283" t="s">
+        <v>134</v>
+      </c>
+      <c r="L283">
+        <v>2</v>
+      </c>
+      <c r="M283">
+        <v>-18.440883451269883</v>
+      </c>
+      <c r="N283">
+        <v>1.5</v>
+      </c>
+      <c r="O283">
+        <v>1.2</v>
+      </c>
+      <c r="P283">
+        <v>1.5</v>
+      </c>
+      <c r="Q283">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="R283">
+        <v>2</v>
+      </c>
+      <c r="S283">
+        <v>1.2</v>
+      </c>
+      <c r="T283">
+        <v>3</v>
+      </c>
+      <c r="U283">
+        <v>0.72314801614797197</v>
+      </c>
+    </row>
+    <row r="284" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A284" t="s">
+        <v>157</v>
+      </c>
+      <c r="B284">
+        <v>9.8000000000000004E-8</v>
+      </c>
+      <c r="C284" t="s">
+        <v>8</v>
+      </c>
+      <c r="D284" t="s">
+        <v>142</v>
+      </c>
+      <c r="F284" t="s">
+        <v>55</v>
+      </c>
+      <c r="H284" t="s">
+        <v>56</v>
+      </c>
+      <c r="I284" t="s">
+        <v>143</v>
+      </c>
+      <c r="K284" t="s">
+        <v>134</v>
+      </c>
+      <c r="L284">
+        <v>2</v>
+      </c>
+      <c r="M284">
+        <v>-16.13829835827584</v>
+      </c>
+      <c r="N284">
+        <v>1.5</v>
+      </c>
+      <c r="O284">
+        <v>1.2</v>
+      </c>
+      <c r="P284">
+        <v>1.5</v>
+      </c>
+      <c r="Q284">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="R284">
+        <v>2</v>
+      </c>
+      <c r="S284">
+        <v>1.2</v>
+      </c>
+      <c r="T284">
+        <v>3</v>
+      </c>
+      <c r="U284">
+        <v>0.72314801614797197</v>
+      </c>
+    </row>
+    <row r="285" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A285" t="s">
+        <v>158</v>
+      </c>
+      <c r="B285">
+        <v>1.176E-6</v>
+      </c>
+      <c r="C285" t="s">
+        <v>8</v>
+      </c>
+      <c r="D285" t="s">
+        <v>142</v>
+      </c>
+      <c r="F285" t="s">
+        <v>55</v>
+      </c>
+      <c r="H285" t="s">
+        <v>56</v>
+      </c>
+      <c r="I285" t="s">
+        <v>143</v>
+      </c>
+      <c r="K285" t="s">
+        <v>134</v>
+      </c>
+      <c r="L285">
+        <v>2</v>
+      </c>
+      <c r="M285">
+        <v>-13.653391708487838</v>
+      </c>
+      <c r="N285">
+        <v>1.5</v>
+      </c>
+      <c r="O285">
+        <v>1.2</v>
+      </c>
+      <c r="P285">
+        <v>1.5</v>
+      </c>
+      <c r="Q285">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="R285">
+        <v>2</v>
+      </c>
+      <c r="S285">
+        <v>1.2</v>
+      </c>
+      <c r="T285">
+        <v>1.5</v>
+      </c>
+      <c r="U285">
+        <v>0.51215847306170115</v>
+      </c>
+    </row>
+    <row r="286" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A286" t="s">
+        <v>159</v>
+      </c>
+      <c r="B286">
+        <v>1.96E-8</v>
+      </c>
+      <c r="C286" t="s">
+        <v>8</v>
+      </c>
+      <c r="D286" t="s">
+        <v>142</v>
+      </c>
+      <c r="F286" t="s">
+        <v>55</v>
+      </c>
+      <c r="H286" t="s">
+        <v>56</v>
+      </c>
+      <c r="I286" t="s">
+        <v>143</v>
+      </c>
+      <c r="K286" t="s">
+        <v>134</v>
+      </c>
+      <c r="L286">
+        <v>2</v>
+      </c>
+      <c r="M286">
+        <v>-17.74773627070994</v>
+      </c>
+      <c r="N286">
+        <v>1.5</v>
+      </c>
+      <c r="O286">
+        <v>1.2</v>
+      </c>
+      <c r="P286">
+        <v>1.5</v>
+      </c>
+      <c r="Q286">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="R286">
+        <v>2</v>
+      </c>
+      <c r="S286">
+        <v>1.2</v>
+      </c>
+      <c r="T286">
+        <v>1.5</v>
+      </c>
+      <c r="U286">
+        <v>0.51215847306170115</v>
+      </c>
+    </row>
+    <row r="287" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A287" t="s">
+        <v>160</v>
+      </c>
+      <c r="B287">
+        <v>4.8999999999999997E-7</v>
+      </c>
+      <c r="C287" t="s">
+        <v>8</v>
+      </c>
+      <c r="D287" t="s">
+        <v>142</v>
+      </c>
+      <c r="F287" t="s">
+        <v>55</v>
+      </c>
+      <c r="H287" t="s">
+        <v>56</v>
+      </c>
+      <c r="I287" t="s">
+        <v>143</v>
+      </c>
+      <c r="K287" t="s">
+        <v>134</v>
+      </c>
+      <c r="L287">
+        <v>2</v>
+      </c>
+      <c r="M287">
+        <v>-14.528860445841739</v>
+      </c>
+      <c r="N287">
+        <v>1.5</v>
+      </c>
+      <c r="O287">
+        <v>1.2</v>
+      </c>
+      <c r="P287">
+        <v>1.5</v>
+      </c>
+      <c r="Q287">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="R287">
+        <v>2</v>
+      </c>
+      <c r="S287">
+        <v>1.2</v>
+      </c>
+      <c r="T287">
+        <v>1.5</v>
+      </c>
+      <c r="U287">
+        <v>0.51215847306170115</v>
+      </c>
+    </row>
+    <row r="288" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A288" t="s">
+        <v>161</v>
+      </c>
+      <c r="B288">
+        <v>1.9600000000000001E-7</v>
+      </c>
+      <c r="C288" t="s">
+        <v>8</v>
+      </c>
+      <c r="D288" t="s">
+        <v>142</v>
+      </c>
+      <c r="F288" t="s">
+        <v>55</v>
+      </c>
+      <c r="H288" t="s">
+        <v>56</v>
+      </c>
+      <c r="I288" t="s">
+        <v>143</v>
+      </c>
+      <c r="K288" t="s">
+        <v>134</v>
+      </c>
+      <c r="L288">
+        <v>2</v>
+      </c>
+      <c r="M288">
+        <v>-15.445151177715895</v>
+      </c>
+      <c r="N288">
+        <v>1.5</v>
+      </c>
+      <c r="O288">
+        <v>1.2</v>
+      </c>
+      <c r="P288">
+        <v>1.5</v>
+      </c>
+      <c r="Q288">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="R288">
+        <v>2</v>
+      </c>
+      <c r="S288">
+        <v>1.2</v>
+      </c>
+      <c r="T288">
+        <v>1.5</v>
+      </c>
+      <c r="U288">
+        <v>0.51215847306170115</v>
+      </c>
+    </row>
+    <row r="289" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A289" t="s">
+        <v>162</v>
+      </c>
+      <c r="B289">
+        <v>1.2739999999999999E-7</v>
+      </c>
+      <c r="C289" t="s">
+        <v>8</v>
+      </c>
+      <c r="D289" t="s">
+        <v>163</v>
+      </c>
+      <c r="F289" t="s">
+        <v>55</v>
+      </c>
+      <c r="H289" t="s">
+        <v>56</v>
+      </c>
+      <c r="I289" t="s">
+        <v>143</v>
+      </c>
+      <c r="K289" t="s">
+        <v>134</v>
+      </c>
+      <c r="L289">
+        <v>2</v>
+      </c>
+      <c r="M289">
+        <v>-15.875934093808349</v>
+      </c>
+      <c r="N289">
+        <v>1.5</v>
+      </c>
+      <c r="O289">
+        <v>1.2</v>
+      </c>
+      <c r="P289">
+        <v>1.5</v>
+      </c>
+      <c r="Q289">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="R289">
+        <v>2</v>
+      </c>
+      <c r="S289">
+        <v>1.2</v>
+      </c>
+      <c r="T289">
+        <v>1.5</v>
+      </c>
+      <c r="U289">
+        <v>0.51215847306170115</v>
+      </c>
+    </row>
+    <row r="290" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A290" t="s">
+        <v>164</v>
+      </c>
+      <c r="B290">
+        <v>2.9400000000000002E-9</v>
+      </c>
+      <c r="C290" t="s">
+        <v>8</v>
+      </c>
+      <c r="D290" t="s">
+        <v>163</v>
+      </c>
+      <c r="F290" t="s">
+        <v>55</v>
+      </c>
+      <c r="H290" t="s">
+        <v>56</v>
+      </c>
+      <c r="I290" t="s">
+        <v>143</v>
+      </c>
+      <c r="K290" t="s">
+        <v>134</v>
+      </c>
+      <c r="L290">
+        <v>2</v>
+      </c>
+      <c r="M290">
+        <v>-19.644856255595823</v>
+      </c>
+      <c r="N290">
+        <v>1.5</v>
+      </c>
+      <c r="O290">
+        <v>1.2</v>
+      </c>
+      <c r="P290">
+        <v>1.5</v>
+      </c>
+      <c r="Q290">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="R290">
+        <v>2</v>
+      </c>
+      <c r="S290">
+        <v>1.2</v>
+      </c>
+      <c r="T290">
+        <v>1.5</v>
+      </c>
+      <c r="U290">
+        <v>0.51215847306170115</v>
+      </c>
+    </row>
+    <row r="291" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A291" t="s">
+        <v>165</v>
+      </c>
+      <c r="B291">
+        <v>4.9000000000000002E-8</v>
+      </c>
+      <c r="C291" t="s">
+        <v>8</v>
+      </c>
+      <c r="D291" t="s">
+        <v>163</v>
+      </c>
+      <c r="F291" t="s">
+        <v>55</v>
+      </c>
+      <c r="H291" t="s">
+        <v>56</v>
+      </c>
+      <c r="I291" t="s">
+        <v>143</v>
+      </c>
+      <c r="K291" t="s">
+        <v>134</v>
+      </c>
+      <c r="L291">
+        <v>2</v>
+      </c>
+      <c r="M291">
+        <v>-16.831445538835784</v>
+      </c>
+      <c r="N291">
+        <v>1.5</v>
+      </c>
+      <c r="O291">
+        <v>1.2</v>
+      </c>
+      <c r="P291">
+        <v>1.5</v>
+      </c>
+      <c r="Q291">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="R291">
+        <v>2</v>
+      </c>
+      <c r="S291">
+        <v>1.2</v>
+      </c>
+      <c r="T291">
+        <v>1.5</v>
+      </c>
+      <c r="U291">
+        <v>0.51215847306170115</v>
+      </c>
+    </row>
+    <row r="292" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A292" t="s">
+        <v>166</v>
+      </c>
+      <c r="B292">
+        <v>4.9000000000000002E-8</v>
+      </c>
+      <c r="C292" t="s">
+        <v>8</v>
+      </c>
+      <c r="D292" t="s">
+        <v>163</v>
+      </c>
+      <c r="F292" t="s">
+        <v>55</v>
+      </c>
+      <c r="H292" t="s">
+        <v>56</v>
+      </c>
+      <c r="I292" t="s">
+        <v>143</v>
+      </c>
+      <c r="K292" t="s">
+        <v>134</v>
+      </c>
+      <c r="L292">
+        <v>2</v>
+      </c>
+      <c r="M292">
+        <v>-16.831445538835784</v>
+      </c>
+      <c r="N292">
+        <v>1.5</v>
+      </c>
+      <c r="O292">
+        <v>1.2</v>
+      </c>
+      <c r="P292">
+        <v>1.5</v>
+      </c>
+      <c r="Q292">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="R292">
+        <v>2</v>
+      </c>
+      <c r="S292">
+        <v>1.2</v>
+      </c>
+      <c r="T292">
+        <v>1.5</v>
+      </c>
+      <c r="U292">
+        <v>0.51215847306170115</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:W93" xr:uid="{0E2FA153-E6EA-3E4B-BE1A-EC0443996927}"/>

--- a/premise/data/additional_inventories/lci-hydrogen-heating.xlsx
+++ b/premise/data/additional_inventories/lci-hydrogen-heating.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romain/GitHub/premise/premise/data/additional_inventories/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A65336C7-DDA1-C244-9BF5-71DE7F09D2FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF2ADA8E-AB59-4548-B1A6-B93BFCC42BE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31900" yWindow="-760" windowWidth="30240" windowHeight="18880" xr2:uid="{CF516D2F-FFD4-214F-BF62-5C2F0868DC96}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{CF516D2F-FFD4-214F-BF62-5C2F0868DC96}"/>
   </bookViews>
   <sheets>
     <sheet name="hydrogen boiler" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'hydrogen boiler'!$A$1:$W$93</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'hydrogen boiler'!$A$1:$W$292</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -993,10 +993,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E2FA153-E6EA-3E4B-BE1A-EC0443996927}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:W292"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A252" workbookViewId="0">
-      <selection activeCell="C269" sqref="C269"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G293" sqref="G293"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1015,7 +1016,9 @@
         <v>108</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:23" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="3" spans="1:23" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="4" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -1023,7 +1026,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -1031,7 +1034,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>2</v>
       </c>
@@ -1039,7 +1042,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -1047,7 +1050,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -1055,7 +1058,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -1063,7 +1066,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>11</v>
       </c>
@@ -1090,7 +1093,7 @@
       <c r="V10" s="1"/>
       <c r="W10" s="1"/>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>12</v>
       </c>
@@ -1153,7 +1156,7 @@
       </c>
       <c r="U11" s="1"/>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>113</v>
       </c>
@@ -1173,7 +1176,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>114</v>
       </c>
@@ -1229,7 +1232,7 @@
         <v>0.47095746419981693</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>114</v>
       </c>
@@ -1285,7 +1288,7 @@
         <v>0.47095746419981693</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>32</v>
       </c>
@@ -1341,7 +1344,7 @@
         <v>0.72314801614797197</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>37</v>
       </c>
@@ -1397,7 +1400,7 @@
         <v>0.72314801614797197</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>40</v>
       </c>
@@ -1453,7 +1456,7 @@
         <v>0.72314801614797197</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>44</v>
       </c>
@@ -1509,7 +1512,7 @@
         <v>0.72314801614797197</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>109</v>
       </c>
@@ -1565,7 +1568,7 @@
         <v>0.47095746419981693</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>109</v>
       </c>
@@ -1621,7 +1624,7 @@
         <v>0.47095746419981693</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>109</v>
       </c>
@@ -1677,7 +1680,7 @@
         <v>0.47095746419981693</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>53</v>
       </c>
@@ -1730,7 +1733,8 @@
         <v>0.47095746419981693</v>
       </c>
     </row>
-    <row r="24" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:21" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="24" spans="1:21" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>0</v>
       </c>
@@ -1738,7 +1742,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="25" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:21" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
         <v>1</v>
       </c>
@@ -1746,7 +1750,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="26" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:21" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
         <v>2</v>
       </c>
@@ -1754,7 +1758,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:21" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
         <v>4</v>
       </c>
@@ -1762,7 +1766,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="28" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:21" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
         <v>5</v>
       </c>
@@ -1770,7 +1774,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="29" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:21" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
         <v>7</v>
       </c>
@@ -1778,13 +1782,13 @@
         <v>91</v>
       </c>
     </row>
-    <row r="30" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:21" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A30" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B30" s="5"/>
     </row>
-    <row r="31" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:21" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
         <v>12</v>
       </c>
@@ -1847,7 +1851,7 @@
       </c>
       <c r="U31" s="2"/>
     </row>
-    <row r="32" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:21" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A32" s="4" t="s">
         <v>88</v>
       </c>
@@ -1867,7 +1871,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="33" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:19" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A33" s="4" t="s">
         <v>59</v>
       </c>
@@ -1923,7 +1927,7 @@
         <v>0.57209088006881903</v>
       </c>
     </row>
-    <row r="34" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:19" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A34" s="4" t="s">
         <v>63</v>
       </c>
@@ -1979,7 +1983,7 @@
         <v>0.57209088006881903</v>
       </c>
     </row>
-    <row r="35" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:19" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="s">
         <v>109</v>
       </c>
@@ -2035,7 +2039,7 @@
         <v>0.16169679924070957</v>
       </c>
     </row>
-    <row r="36" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:19" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>113</v>
       </c>
@@ -2091,7 +2095,7 @@
         <v>0.16169679924070957</v>
       </c>
     </row>
-    <row r="37" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:19" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>113</v>
       </c>
@@ -2147,7 +2151,7 @@
         <v>0.16169679924070957</v>
       </c>
     </row>
-    <row r="38" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:19" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A38" s="4" t="s">
         <v>83</v>
       </c>
@@ -2201,7 +2205,7 @@
         <v>0.16169679924070957</v>
       </c>
     </row>
-    <row r="39" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:19" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A39" s="4" t="s">
         <v>85</v>
       </c>
@@ -2254,7 +2258,7 @@
         <v>0.25816898211842121</v>
       </c>
     </row>
-    <row r="40" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:19" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A40" s="4" t="s">
         <v>53</v>
       </c>
@@ -2278,10 +2282,10 @@
       </c>
       <c r="M40" s="8"/>
     </row>
-    <row r="41" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:19" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B41" s="5"/>
     </row>
-    <row r="42" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:19" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
         <v>0</v>
       </c>
@@ -2289,7 +2293,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="43" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:19" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A43" s="4" t="s">
         <v>1</v>
       </c>
@@ -2297,7 +2301,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="44" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:19" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A44" s="4" t="s">
         <v>2</v>
       </c>
@@ -2305,7 +2309,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="45" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:19" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A45" s="4" t="s">
         <v>4</v>
       </c>
@@ -2313,7 +2317,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="46" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:19" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A46" s="4" t="s">
         <v>5</v>
       </c>
@@ -2321,7 +2325,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="47" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:19" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A47" s="4" t="s">
         <v>7</v>
       </c>
@@ -2329,13 +2333,13 @@
         <v>91</v>
       </c>
     </row>
-    <row r="48" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:19" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A48" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B48" s="5"/>
     </row>
-    <row r="49" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:21" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
         <v>12</v>
       </c>
@@ -2398,7 +2402,7 @@
       </c>
       <c r="U49" s="2"/>
     </row>
-    <row r="50" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:21" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A50" s="4" t="s">
         <v>102</v>
       </c>
@@ -2418,7 +2422,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="51" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:21" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A51" s="4" t="s">
         <v>92</v>
       </c>
@@ -2474,7 +2478,7 @@
         <v>0.57209088006881903</v>
       </c>
     </row>
-    <row r="52" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:21" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A52" s="4" t="s">
         <v>94</v>
       </c>
@@ -2530,7 +2534,7 @@
         <v>0.57209088006881903</v>
       </c>
     </row>
-    <row r="53" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:21" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A53" s="4" t="s">
         <v>96</v>
       </c>
@@ -2586,7 +2590,7 @@
         <v>0.57209088006881903</v>
       </c>
     </row>
-    <row r="54" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:21" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A54" s="4" t="s">
         <v>73</v>
       </c>
@@ -2639,7 +2643,7 @@
         <v>0.16169679924070957</v>
       </c>
     </row>
-    <row r="55" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:21" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A55" s="4" t="s">
         <v>76</v>
       </c>
@@ -2695,7 +2699,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:21" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>113</v>
       </c>
@@ -2751,7 +2755,7 @@
         <v>0.16169679924070957</v>
       </c>
     </row>
-    <row r="57" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:21" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>113</v>
       </c>
@@ -2807,7 +2811,7 @@
         <v>0.16169679924070957</v>
       </c>
     </row>
-    <row r="58" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:21" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A58" s="4" t="s">
         <v>83</v>
       </c>
@@ -2861,7 +2865,7 @@
         <v>0.16169679924070957</v>
       </c>
     </row>
-    <row r="59" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:21" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A59" s="4" t="s">
         <v>85</v>
       </c>
@@ -2914,7 +2918,7 @@
         <v>0.25816898211842121</v>
       </c>
     </row>
-    <row r="60" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:21" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A60" s="4" t="s">
         <v>53</v>
       </c>
@@ -2938,10 +2942,10 @@
       </c>
       <c r="M60" s="8"/>
     </row>
-    <row r="61" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:21" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B61" s="5"/>
     </row>
-    <row r="62" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:21" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
         <v>0</v>
       </c>
@@ -2949,7 +2953,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="63" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:21" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A63" s="4" t="s">
         <v>1</v>
       </c>
@@ -2957,7 +2961,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="64" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:21" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A64" s="4" t="s">
         <v>2</v>
       </c>
@@ -2965,7 +2969,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="65" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:21" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A65" s="4" t="s">
         <v>4</v>
       </c>
@@ -2973,7 +2977,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="66" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:21" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A66" s="4" t="s">
         <v>5</v>
       </c>
@@ -2981,7 +2985,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="67" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:21" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A67" s="4" t="s">
         <v>7</v>
       </c>
@@ -2989,13 +2993,13 @@
         <v>91</v>
       </c>
     </row>
-    <row r="68" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:21" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A68" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B68" s="5"/>
     </row>
-    <row r="69" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:21" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="s">
         <v>12</v>
       </c>
@@ -3058,7 +3062,7 @@
       </c>
       <c r="U69" s="2"/>
     </row>
-    <row r="70" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:21" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A70" s="4" t="s">
         <v>104</v>
       </c>
@@ -3078,7 +3082,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="71" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:21" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A71" s="4" t="s">
         <v>98</v>
       </c>
@@ -3134,7 +3138,7 @@
         <v>0.57157051623399524</v>
       </c>
     </row>
-    <row r="72" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:21" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>113</v>
       </c>
@@ -3190,7 +3194,7 @@
         <v>0.16169679924070957</v>
       </c>
     </row>
-    <row r="73" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:21" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>113</v>
       </c>
@@ -3246,7 +3250,7 @@
         <v>0.16169679924070957</v>
       </c>
     </row>
-    <row r="74" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:21" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A74" s="4" t="s">
         <v>83</v>
       </c>
@@ -3300,7 +3304,7 @@
         <v>0.16169679924070957</v>
       </c>
     </row>
-    <row r="75" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:21" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A75" s="4" t="s">
         <v>53</v>
       </c>
@@ -3324,10 +3328,10 @@
       </c>
       <c r="M75" s="8"/>
     </row>
-    <row r="76" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:21" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B76" s="5"/>
     </row>
-    <row r="77" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:21" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="s">
         <v>0</v>
       </c>
@@ -3335,7 +3339,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="78" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:21" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A78" s="4" t="s">
         <v>1</v>
       </c>
@@ -3343,7 +3347,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="79" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:21" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A79" s="4" t="s">
         <v>2</v>
       </c>
@@ -3351,7 +3355,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="80" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:21" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A80" s="4" t="s">
         <v>4</v>
       </c>
@@ -3359,7 +3363,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="81" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:21" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A81" s="4" t="s">
         <v>5</v>
       </c>
@@ -3367,7 +3371,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="82" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:21" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A82" s="4" t="s">
         <v>7</v>
       </c>
@@ -3375,13 +3379,13 @@
         <v>91</v>
       </c>
     </row>
-    <row r="83" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:21" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A83" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B83" s="5"/>
     </row>
-    <row r="84" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:21" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A84" s="2" t="s">
         <v>12</v>
       </c>
@@ -3444,7 +3448,7 @@
       </c>
       <c r="U84" s="2"/>
     </row>
-    <row r="85" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:21" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A85" s="4" t="s">
         <v>106</v>
       </c>
@@ -3464,7 +3468,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="86" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:21" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A86" s="4" t="s">
         <v>100</v>
       </c>
@@ -3520,7 +3524,7 @@
         <v>0.57157051623399524</v>
       </c>
     </row>
-    <row r="87" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:21" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A87" s="4" t="s">
         <v>70</v>
       </c>
@@ -3576,7 +3580,7 @@
         <v>0.57157051623399524</v>
       </c>
     </row>
-    <row r="88" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:21" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A88" s="4" t="s">
         <v>78</v>
       </c>
@@ -3629,7 +3633,7 @@
         <v>0.15984597228197622</v>
       </c>
     </row>
-    <row r="89" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:21" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>113</v>
       </c>
@@ -3685,7 +3689,7 @@
         <v>0.16169679924070957</v>
       </c>
     </row>
-    <row r="90" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:21" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>113</v>
       </c>
@@ -3741,7 +3745,7 @@
         <v>0.16169679924070957</v>
       </c>
     </row>
-    <row r="91" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:21" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A91" s="4" t="s">
         <v>83</v>
       </c>
@@ -3795,7 +3799,7 @@
         <v>0.16169679924070957</v>
       </c>
     </row>
-    <row r="92" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:21" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A92" s="4" t="s">
         <v>53</v>
       </c>
@@ -3819,10 +3823,10 @@
       </c>
       <c r="M92" s="8"/>
     </row>
-    <row r="93" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:21" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B93" s="5"/>
     </row>
-    <row r="94" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:21" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A94" s="2" t="s">
         <v>0</v>
       </c>
@@ -3830,7 +3834,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="95" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:21" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A95" s="4" t="s">
         <v>1</v>
       </c>
@@ -3838,7 +3842,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="96" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:21" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A96" s="4" t="s">
         <v>2</v>
       </c>
@@ -3846,7 +3850,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="97" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:23" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A97" s="4" t="s">
         <v>4</v>
       </c>
@@ -3854,7 +3858,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="98" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:23" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A98" s="4" t="s">
         <v>5</v>
       </c>
@@ -3862,7 +3866,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="99" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:23" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A99" s="4" t="s">
         <v>7</v>
       </c>
@@ -3870,16 +3874,16 @@
         <v>48</v>
       </c>
     </row>
-    <row r="100" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:23" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B100" s="5"/>
     </row>
-    <row r="101" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:23" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A101" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B101" s="5"/>
     </row>
-    <row r="102" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:23" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A102" s="2" t="s">
         <v>12</v>
       </c>
@@ -3950,7 +3954,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="103" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:23" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A103" s="4" t="s">
         <v>127</v>
       </c>
@@ -3976,7 +3980,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="104" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:23" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A104" s="4" t="s">
         <v>92</v>
       </c>
@@ -4038,7 +4042,7 @@
         <v>0.57209088006881903</v>
       </c>
     </row>
-    <row r="105" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:23" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A105" s="4" t="s">
         <v>94</v>
       </c>
@@ -4100,7 +4104,7 @@
         <v>0.57209088006881903</v>
       </c>
     </row>
-    <row r="106" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:23" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A106" s="4" t="s">
         <v>96</v>
       </c>
@@ -4162,7 +4166,7 @@
         <v>0.57209088006881903</v>
       </c>
     </row>
-    <row r="107" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:23" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A107" s="4" t="s">
         <v>73</v>
       </c>
@@ -4218,7 +4222,7 @@
         <v>0.16169679924070957</v>
       </c>
     </row>
-    <row r="108" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:23" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A108" s="4" t="s">
         <v>76</v>
       </c>
@@ -4277,7 +4281,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:23" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>113</v>
       </c>
@@ -4339,7 +4343,7 @@
         <v>0.16169679924070957</v>
       </c>
     </row>
-    <row r="110" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:23" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>113</v>
       </c>
@@ -4401,7 +4405,7 @@
         <v>0.16169679924070957</v>
       </c>
     </row>
-    <row r="111" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:23" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A111" s="4" t="s">
         <v>83</v>
       </c>
@@ -4458,7 +4462,7 @@
         <v>0.16169679924070957</v>
       </c>
     </row>
-    <row r="112" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:23" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A112" s="4" t="s">
         <v>85</v>
       </c>
@@ -4514,7 +4518,7 @@
         <v>0.25816898211842121</v>
       </c>
     </row>
-    <row r="113" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:23" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A113" s="4" t="s">
         <v>53</v>
       </c>
@@ -4541,10 +4545,10 @@
       </c>
       <c r="O113" s="8"/>
     </row>
-    <row r="114" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:23" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B114" s="5"/>
     </row>
-    <row r="115" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:23" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A115" s="2" t="s">
         <v>0</v>
       </c>
@@ -4552,7 +4556,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="116" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:23" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A116" s="4" t="s">
         <v>1</v>
       </c>
@@ -4560,7 +4564,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="117" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:23" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A117" s="4" t="s">
         <v>2</v>
       </c>
@@ -4568,7 +4572,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="118" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:23" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A118" s="4" t="s">
         <v>4</v>
       </c>
@@ -4576,7 +4580,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="119" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:23" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A119" s="4" t="s">
         <v>5</v>
       </c>
@@ -4584,7 +4588,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="120" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:23" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A120" s="4" t="s">
         <v>7</v>
       </c>
@@ -4592,16 +4596,16 @@
         <v>48</v>
       </c>
     </row>
-    <row r="121" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:23" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B121" s="5"/>
     </row>
-    <row r="122" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:23" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A122" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B122" s="5"/>
     </row>
-    <row r="123" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:23" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A123" s="2" t="s">
         <v>12</v>
       </c>
@@ -4672,7 +4676,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="124" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:23" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A124" s="4" t="s">
         <v>130</v>
       </c>
@@ -4698,7 +4702,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="125" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:23" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A125" s="4" t="s">
         <v>98</v>
       </c>
@@ -4760,7 +4764,7 @@
         <v>0.57157051623399524</v>
       </c>
     </row>
-    <row r="126" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:23" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>113</v>
       </c>
@@ -4822,7 +4826,7 @@
         <v>0.16169679924070957</v>
       </c>
     </row>
-    <row r="127" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:23" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>113</v>
       </c>
@@ -4884,7 +4888,7 @@
         <v>0.16169679924070957</v>
       </c>
     </row>
-    <row r="128" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:23" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A128" s="4" t="s">
         <v>83</v>
       </c>
@@ -4941,7 +4945,7 @@
         <v>0.16169679924070957</v>
       </c>
     </row>
-    <row r="129" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:23" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A129" s="4" t="s">
         <v>53</v>
       </c>
@@ -4968,10 +4972,10 @@
       </c>
       <c r="O129" s="8"/>
     </row>
-    <row r="130" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:23" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B130" s="5"/>
     </row>
-    <row r="131" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:23" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A131" s="2" t="s">
         <v>0</v>
       </c>
@@ -4979,7 +4983,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="132" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:23" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A132" s="4" t="s">
         <v>1</v>
       </c>
@@ -4987,7 +4991,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="133" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:23" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A133" s="4" t="s">
         <v>2</v>
       </c>
@@ -4995,7 +4999,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="134" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:23" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A134" s="4" t="s">
         <v>4</v>
       </c>
@@ -5003,7 +5007,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="135" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:23" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A135" s="4" t="s">
         <v>5</v>
       </c>
@@ -5011,7 +5015,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="136" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:23" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A136" s="4" t="s">
         <v>7</v>
       </c>
@@ -5019,16 +5023,16 @@
         <v>48</v>
       </c>
     </row>
-    <row r="137" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:23" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B137" s="5"/>
     </row>
-    <row r="138" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:23" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A138" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B138" s="5"/>
     </row>
-    <row r="139" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:23" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A139" s="2" t="s">
         <v>12</v>
       </c>
@@ -5099,7 +5103,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="140" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:23" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A140" s="4" t="s">
         <v>132</v>
       </c>
@@ -5125,7 +5129,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="141" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:23" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A141" s="4" t="s">
         <v>100</v>
       </c>
@@ -5187,7 +5191,7 @@
         <v>0.57157051623399524</v>
       </c>
     </row>
-    <row r="142" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:23" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A142" s="4" t="s">
         <v>70</v>
       </c>
@@ -5246,7 +5250,7 @@
         <v>0.57157051623399524</v>
       </c>
     </row>
-    <row r="143" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:23" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A143" s="4" t="s">
         <v>78</v>
       </c>
@@ -5302,7 +5306,7 @@
         <v>0.15984597228197622</v>
       </c>
     </row>
-    <row r="144" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:23" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>113</v>
       </c>
@@ -5364,7 +5368,7 @@
         <v>0.16169679924070957</v>
       </c>
     </row>
-    <row r="145" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:23" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>113</v>
       </c>
@@ -5426,7 +5430,7 @@
         <v>0.16169679924070957</v>
       </c>
     </row>
-    <row r="146" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:23" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A146" s="4" t="s">
         <v>83</v>
       </c>
@@ -5483,7 +5487,7 @@
         <v>0.16169679924070957</v>
       </c>
     </row>
-    <row r="147" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:23" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A147" s="4" t="s">
         <v>53</v>
       </c>
@@ -5510,10 +5514,10 @@
       </c>
       <c r="O147" s="8"/>
     </row>
-    <row r="148" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:23" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B148" s="5"/>
     </row>
-    <row r="149" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>0</v>
       </c>
@@ -5521,7 +5525,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="150" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>1</v>
       </c>
@@ -5529,7 +5533,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="151" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>2</v>
       </c>
@@ -5537,7 +5541,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="152" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>4</v>
       </c>
@@ -5545,7 +5549,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="153" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>5</v>
       </c>
@@ -5553,12 +5557,12 @@
         <v>90</v>
       </c>
     </row>
-    <row r="154" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:23" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A154" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="155" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:23" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A155" s="1" t="s">
         <v>12</v>
       </c>
@@ -5629,7 +5633,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="156" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>134</v>
       </c>
@@ -5655,7 +5659,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="157" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>59</v>
       </c>
@@ -5714,7 +5718,7 @@
         <v>0.57209088006881903</v>
       </c>
     </row>
-    <row r="158" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>63</v>
       </c>
@@ -5773,7 +5777,7 @@
         <v>0.57209088006881903</v>
       </c>
     </row>
-    <row r="159" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>109</v>
       </c>
@@ -5835,7 +5839,7 @@
         <v>0.16169679924070957</v>
       </c>
     </row>
-    <row r="160" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>167</v>
       </c>
@@ -5897,7 +5901,7 @@
         <v>0.16169679924070957</v>
       </c>
     </row>
-    <row r="161" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>141</v>
       </c>
@@ -5953,7 +5957,7 @@
         <v>0.51215847306170115</v>
       </c>
     </row>
-    <row r="162" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>144</v>
       </c>
@@ -6009,7 +6013,7 @@
         <v>0.51215847306170115</v>
       </c>
     </row>
-    <row r="163" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>145</v>
       </c>
@@ -6065,7 +6069,7 @@
         <v>0.51215847306170115</v>
       </c>
     </row>
-    <row r="164" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>146</v>
       </c>
@@ -6121,7 +6125,7 @@
         <v>0.51215847306170115</v>
       </c>
     </row>
-    <row r="165" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>147</v>
       </c>
@@ -6153,7 +6157,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="166" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>148</v>
       </c>
@@ -6209,7 +6213,7 @@
         <v>0.47095746419981693</v>
       </c>
     </row>
-    <row r="167" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>149</v>
       </c>
@@ -6265,7 +6269,7 @@
         <v>0.93208283513358414</v>
       </c>
     </row>
-    <row r="168" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>150</v>
       </c>
@@ -6321,7 +6325,7 @@
         <v>0.51215847306170115</v>
       </c>
     </row>
-    <row r="169" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>151</v>
       </c>
@@ -6377,7 +6381,7 @@
         <v>0.51215847306170115</v>
       </c>
     </row>
-    <row r="170" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>152</v>
       </c>
@@ -6433,7 +6437,7 @@
         <v>0.51215847306170115</v>
       </c>
     </row>
-    <row r="171" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>153</v>
       </c>
@@ -6489,7 +6493,7 @@
         <v>0.93208283513358414</v>
       </c>
     </row>
-    <row r="172" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>154</v>
       </c>
@@ -6545,7 +6549,7 @@
         <v>0.51215847306170115</v>
       </c>
     </row>
-    <row r="173" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>155</v>
       </c>
@@ -6577,7 +6581,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="174" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>85</v>
       </c>
@@ -6633,7 +6637,7 @@
         <v>0.51215847306170115</v>
       </c>
     </row>
-    <row r="175" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>156</v>
       </c>
@@ -6689,7 +6693,7 @@
         <v>0.72314801614797197</v>
       </c>
     </row>
-    <row r="176" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>157</v>
       </c>
@@ -6745,7 +6749,7 @@
         <v>0.72314801614797197</v>
       </c>
     </row>
-    <row r="177" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>158</v>
       </c>
@@ -6801,7 +6805,7 @@
         <v>0.51215847306170115</v>
       </c>
     </row>
-    <row r="178" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>159</v>
       </c>
@@ -6857,7 +6861,7 @@
         <v>0.51215847306170115</v>
       </c>
     </row>
-    <row r="179" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>160</v>
       </c>
@@ -6913,7 +6917,7 @@
         <v>0.51215847306170115</v>
       </c>
     </row>
-    <row r="180" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>161</v>
       </c>
@@ -6969,7 +6973,7 @@
         <v>0.51215847306170115</v>
       </c>
     </row>
-    <row r="181" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>162</v>
       </c>
@@ -7025,7 +7029,7 @@
         <v>0.51215847306170115</v>
       </c>
     </row>
-    <row r="182" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>164</v>
       </c>
@@ -7081,7 +7085,7 @@
         <v>0.51215847306170115</v>
       </c>
     </row>
-    <row r="183" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>165</v>
       </c>
@@ -7137,7 +7141,7 @@
         <v>0.51215847306170115</v>
       </c>
     </row>
-    <row r="184" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>166</v>
       </c>
@@ -7193,7 +7197,8 @@
         <v>0.51215847306170115</v>
       </c>
     </row>
-    <row r="186" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:23" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="186" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>0</v>
       </c>
@@ -7201,7 +7206,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="187" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>1</v>
       </c>
@@ -7209,7 +7214,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="188" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>2</v>
       </c>
@@ -7217,7 +7222,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="189" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>4</v>
       </c>
@@ -7225,7 +7230,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="190" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>5</v>
       </c>
@@ -7233,12 +7238,12 @@
         <v>90</v>
       </c>
     </row>
-    <row r="191" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:23" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A191" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="192" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:23" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A192" s="1" t="s">
         <v>12</v>
       </c>
@@ -7309,7 +7314,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="193" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A193" t="str">
         <f>B186</f>
         <v>heat, residential, by combustion of coal-based natural gas using boiler, distributed by pipeline</v>
@@ -7336,7 +7341,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="194" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>59</v>
       </c>
@@ -7395,7 +7400,7 @@
         <v>0.57209088006881903</v>
       </c>
     </row>
-    <row r="195" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>63</v>
       </c>
@@ -7454,7 +7459,7 @@
         <v>0.57209088006881903</v>
       </c>
     </row>
-    <row r="196" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>109</v>
       </c>
@@ -7516,7 +7521,7 @@
         <v>0.16169679924070957</v>
       </c>
     </row>
-    <row r="197" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>170</v>
       </c>
@@ -7578,7 +7583,7 @@
         <v>0.16169679924070957</v>
       </c>
     </row>
-    <row r="198" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>141</v>
       </c>
@@ -7634,7 +7639,7 @@
         <v>0.51215847306170115</v>
       </c>
     </row>
-    <row r="199" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>144</v>
       </c>
@@ -7690,7 +7695,7 @@
         <v>0.51215847306170115</v>
       </c>
     </row>
-    <row r="200" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>145</v>
       </c>
@@ -7746,7 +7751,7 @@
         <v>0.51215847306170115</v>
       </c>
     </row>
-    <row r="201" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>146</v>
       </c>
@@ -7802,7 +7807,7 @@
         <v>0.51215847306170115</v>
       </c>
     </row>
-    <row r="202" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>147</v>
       </c>
@@ -7834,7 +7839,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="203" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>172</v>
       </c>
@@ -7890,7 +7895,7 @@
         <v>0.93208283513358414</v>
       </c>
     </row>
-    <row r="204" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>150</v>
       </c>
@@ -7946,7 +7951,7 @@
         <v>0.51215847306170115</v>
       </c>
     </row>
-    <row r="205" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>151</v>
       </c>
@@ -8002,7 +8007,7 @@
         <v>0.51215847306170115</v>
       </c>
     </row>
-    <row r="206" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>152</v>
       </c>
@@ -8058,7 +8063,7 @@
         <v>0.51215847306170115</v>
       </c>
     </row>
-    <row r="207" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>153</v>
       </c>
@@ -8114,7 +8119,7 @@
         <v>0.93208283513358414</v>
       </c>
     </row>
-    <row r="208" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>155</v>
       </c>
@@ -8170,7 +8175,7 @@
         <v>0.51215847306170115</v>
       </c>
     </row>
-    <row r="209" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>155</v>
       </c>
@@ -8202,7 +8207,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="210" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>85</v>
       </c>
@@ -8258,7 +8263,7 @@
         <v>0.51215847306170115</v>
       </c>
     </row>
-    <row r="211" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>156</v>
       </c>
@@ -8314,7 +8319,7 @@
         <v>0.72314801614797197</v>
       </c>
     </row>
-    <row r="212" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>157</v>
       </c>
@@ -8370,7 +8375,7 @@
         <v>0.72314801614797197</v>
       </c>
     </row>
-    <row r="213" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>158</v>
       </c>
@@ -8426,7 +8431,7 @@
         <v>0.51215847306170115</v>
       </c>
     </row>
-    <row r="214" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>159</v>
       </c>
@@ -8482,7 +8487,7 @@
         <v>0.51215847306170115</v>
       </c>
     </row>
-    <row r="215" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>160</v>
       </c>
@@ -8538,7 +8543,7 @@
         <v>0.51215847306170115</v>
       </c>
     </row>
-    <row r="216" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
         <v>161</v>
       </c>
@@ -8594,7 +8599,7 @@
         <v>0.51215847306170115</v>
       </c>
     </row>
-    <row r="217" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>162</v>
       </c>
@@ -8650,7 +8655,7 @@
         <v>0.51215847306170115</v>
       </c>
     </row>
-    <row r="218" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>164</v>
       </c>
@@ -8706,7 +8711,7 @@
         <v>0.51215847306170115</v>
       </c>
     </row>
-    <row r="219" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>165</v>
       </c>
@@ -8762,7 +8767,7 @@
         <v>0.51215847306170115</v>
       </c>
     </row>
-    <row r="220" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>166</v>
       </c>
@@ -8818,7 +8823,8 @@
         <v>0.51215847306170115</v>
       </c>
     </row>
-    <row r="222" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:21" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="222" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>0</v>
       </c>
@@ -8826,7 +8832,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="223" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>1</v>
       </c>
@@ -8834,7 +8840,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="224" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>2</v>
       </c>
@@ -8842,7 +8848,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="225" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>4</v>
       </c>
@@ -8850,7 +8856,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="226" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
         <v>5</v>
       </c>
@@ -8858,12 +8864,12 @@
         <v>90</v>
       </c>
     </row>
-    <row r="227" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:23" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A227" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="228" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:23" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A228" s="1" t="s">
         <v>12</v>
       </c>
@@ -8961,7 +8967,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="230" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
         <v>59</v>
       </c>
@@ -9020,7 +9026,7 @@
         <v>0.57209088006881903</v>
       </c>
     </row>
-    <row r="231" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>63</v>
       </c>
@@ -9079,7 +9085,7 @@
         <v>0.57209088006881903</v>
       </c>
     </row>
-    <row r="232" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
         <v>109</v>
       </c>
@@ -9158,7 +9164,7 @@
         <v>29</v>
       </c>
       <c r="G233" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="H233" t="s">
         <v>175</v>
@@ -9203,7 +9209,7 @@
         <v>0.16169679924070957</v>
       </c>
     </row>
-    <row r="234" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
         <v>141</v>
       </c>
@@ -9259,7 +9265,7 @@
         <v>0.51215847306170115</v>
       </c>
     </row>
-    <row r="235" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>144</v>
       </c>
@@ -9315,7 +9321,7 @@
         <v>0.51215847306170115</v>
       </c>
     </row>
-    <row r="236" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>145</v>
       </c>
@@ -9371,7 +9377,7 @@
         <v>0.51215847306170115</v>
       </c>
     </row>
-    <row r="237" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
         <v>146</v>
       </c>
@@ -9427,7 +9433,7 @@
         <v>0.51215847306170115</v>
       </c>
     </row>
-    <row r="238" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
         <v>148</v>
       </c>
@@ -9483,7 +9489,7 @@
         <v>0.47095746419981693</v>
       </c>
     </row>
-    <row r="239" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
         <v>149</v>
       </c>
@@ -9539,7 +9545,7 @@
         <v>0.93208283513358414</v>
       </c>
     </row>
-    <row r="240" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
         <v>150</v>
       </c>
@@ -9595,7 +9601,7 @@
         <v>0.51215847306170115</v>
       </c>
     </row>
-    <row r="241" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
         <v>151</v>
       </c>
@@ -9651,7 +9657,7 @@
         <v>0.51215847306170115</v>
       </c>
     </row>
-    <row r="242" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
         <v>152</v>
       </c>
@@ -9707,7 +9713,7 @@
         <v>0.51215847306170115</v>
       </c>
     </row>
-    <row r="243" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
         <v>153</v>
       </c>
@@ -9763,7 +9769,7 @@
         <v>0.93208283513358414</v>
       </c>
     </row>
-    <row r="244" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
         <v>154</v>
       </c>
@@ -9819,7 +9825,7 @@
         <v>0.51215847306170115</v>
       </c>
     </row>
-    <row r="245" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
         <v>155</v>
       </c>
@@ -9851,7 +9857,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="246" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
         <v>85</v>
       </c>
@@ -9907,7 +9913,7 @@
         <v>0.51215847306170115</v>
       </c>
     </row>
-    <row r="247" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
         <v>156</v>
       </c>
@@ -9963,7 +9969,7 @@
         <v>0.72314801614797197</v>
       </c>
     </row>
-    <row r="248" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
         <v>157</v>
       </c>
@@ -10019,7 +10025,7 @@
         <v>0.72314801614797197</v>
       </c>
     </row>
-    <row r="249" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
         <v>158</v>
       </c>
@@ -10075,7 +10081,7 @@
         <v>0.51215847306170115</v>
       </c>
     </row>
-    <row r="250" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
         <v>159</v>
       </c>
@@ -10131,7 +10137,7 @@
         <v>0.51215847306170115</v>
       </c>
     </row>
-    <row r="251" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
         <v>160</v>
       </c>
@@ -10187,7 +10193,7 @@
         <v>0.51215847306170115</v>
       </c>
     </row>
-    <row r="252" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
         <v>161</v>
       </c>
@@ -10243,7 +10249,7 @@
         <v>0.51215847306170115</v>
       </c>
     </row>
-    <row r="253" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
         <v>162</v>
       </c>
@@ -10299,7 +10305,7 @@
         <v>0.51215847306170115</v>
       </c>
     </row>
-    <row r="254" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
         <v>164</v>
       </c>
@@ -10355,7 +10361,7 @@
         <v>0.51215847306170115</v>
       </c>
     </row>
-    <row r="255" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
         <v>165</v>
       </c>
@@ -10411,7 +10417,7 @@
         <v>0.51215847306170115</v>
       </c>
     </row>
-    <row r="256" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
         <v>166</v>
       </c>
@@ -10467,7 +10473,8 @@
         <v>0.51215847306170115</v>
       </c>
     </row>
-    <row r="258" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:23" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="258" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
         <v>0</v>
       </c>
@@ -10475,7 +10482,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="259" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
         <v>1</v>
       </c>
@@ -10483,7 +10490,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="260" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
         <v>2</v>
       </c>
@@ -10491,7 +10498,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="261" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
         <v>4</v>
       </c>
@@ -10499,7 +10506,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="262" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
         <v>5</v>
       </c>
@@ -10507,12 +10514,12 @@
         <v>90</v>
       </c>
     </row>
-    <row r="263" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:23" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A263" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="264" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:23" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A264" s="1" t="s">
         <v>12</v>
       </c>
@@ -10583,7 +10590,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="265" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A265" t="str">
         <f>B258</f>
         <v>heat, residential, by combustion of liquefied petroleum gas using boiler, distributed by pipeline</v>
@@ -10610,7 +10617,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="266" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
         <v>59</v>
       </c>
@@ -10669,7 +10676,7 @@
         <v>0.57209088006881903</v>
       </c>
     </row>
-    <row r="267" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
         <v>63</v>
       </c>
@@ -10728,7 +10735,7 @@
         <v>0.57209088006881903</v>
       </c>
     </row>
-    <row r="268" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
         <v>109</v>
       </c>
@@ -10790,7 +10797,7 @@
         <v>0.16169679924070957</v>
       </c>
     </row>
-    <row r="269" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
         <v>180</v>
       </c>
@@ -10852,7 +10859,7 @@
         <v>0.16169679924070957</v>
       </c>
     </row>
-    <row r="270" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
         <v>141</v>
       </c>
@@ -10908,7 +10915,7 @@
         <v>0.51215847306170115</v>
       </c>
     </row>
-    <row r="271" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
         <v>144</v>
       </c>
@@ -10964,7 +10971,7 @@
         <v>0.51215847306170115</v>
       </c>
     </row>
-    <row r="272" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
         <v>145</v>
       </c>
@@ -11020,7 +11027,7 @@
         <v>0.51215847306170115</v>
       </c>
     </row>
-    <row r="273" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
         <v>146</v>
       </c>
@@ -11076,7 +11083,7 @@
         <v>0.51215847306170115</v>
       </c>
     </row>
-    <row r="274" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
         <v>147</v>
       </c>
@@ -11108,7 +11115,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="275" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
         <v>172</v>
       </c>
@@ -11164,7 +11171,7 @@
         <v>0.93208283513358414</v>
       </c>
     </row>
-    <row r="276" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
         <v>150</v>
       </c>
@@ -11220,7 +11227,7 @@
         <v>0.51215847306170115</v>
       </c>
     </row>
-    <row r="277" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
         <v>151</v>
       </c>
@@ -11276,7 +11283,7 @@
         <v>0.51215847306170115</v>
       </c>
     </row>
-    <row r="278" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
         <v>152</v>
       </c>
@@ -11332,7 +11339,7 @@
         <v>0.51215847306170115</v>
       </c>
     </row>
-    <row r="279" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
         <v>153</v>
       </c>
@@ -11388,7 +11395,7 @@
         <v>0.93208283513358414</v>
       </c>
     </row>
-    <row r="280" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
         <v>155</v>
       </c>
@@ -11444,7 +11451,7 @@
         <v>0.51215847306170115</v>
       </c>
     </row>
-    <row r="281" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
         <v>155</v>
       </c>
@@ -11476,7 +11483,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="282" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
         <v>85</v>
       </c>
@@ -11532,7 +11539,7 @@
         <v>0.51215847306170115</v>
       </c>
     </row>
-    <row r="283" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
         <v>156</v>
       </c>
@@ -11588,7 +11595,7 @@
         <v>0.72314801614797197</v>
       </c>
     </row>
-    <row r="284" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
         <v>157</v>
       </c>
@@ -11644,7 +11651,7 @@
         <v>0.72314801614797197</v>
       </c>
     </row>
-    <row r="285" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
         <v>158</v>
       </c>
@@ -11700,7 +11707,7 @@
         <v>0.51215847306170115</v>
       </c>
     </row>
-    <row r="286" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
         <v>159</v>
       </c>
@@ -11756,7 +11763,7 @@
         <v>0.51215847306170115</v>
       </c>
     </row>
-    <row r="287" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
         <v>160</v>
       </c>
@@ -11812,7 +11819,7 @@
         <v>0.51215847306170115</v>
       </c>
     </row>
-    <row r="288" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
         <v>161</v>
       </c>
@@ -11868,7 +11875,7 @@
         <v>0.51215847306170115</v>
       </c>
     </row>
-    <row r="289" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
         <v>162</v>
       </c>
@@ -11924,7 +11931,7 @@
         <v>0.51215847306170115</v>
       </c>
     </row>
-    <row r="290" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
         <v>164</v>
       </c>
@@ -11980,7 +11987,7 @@
         <v>0.51215847306170115</v>
       </c>
     </row>
-    <row r="291" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
         <v>165</v>
       </c>
@@ -12036,7 +12043,7 @@
         <v>0.51215847306170115</v>
       </c>
     </row>
-    <row r="292" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
         <v>166</v>
       </c>
@@ -12093,7 +12100,14 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:W93" xr:uid="{0E2FA153-E6EA-3E4B-BE1A-EC0443996927}"/>
+  <autoFilter ref="A1:W292" xr:uid="{0E2FA153-E6EA-3E4B-BE1A-EC0443996927}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="biomethane, gaseous, 5 bar, from sewage sludge fermentation, at fuelling station"/>
+        <filter val="heat, residential, by combustion of biomethane using boiler, distributed by pipeline"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>

--- a/premise/data/additional_inventories/lci-hydrogen-heating.xlsx
+++ b/premise/data/additional_inventories/lci-hydrogen-heating.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romain/GitHub/premise/premise/data/additional_inventories/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romain/Github/premise/premise/data/additional_inventories/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF2ADA8E-AB59-4548-B1A6-B93BFCC42BE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1932F7E-9A0E-FF44-8CDF-74A0A86FB06C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{CF516D2F-FFD4-214F-BF62-5C2F0868DC96}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="hydrogen boiler" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'hydrogen boiler'!$A$1:$W$292</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'hydrogen boiler'!$A$1:$W$295</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -993,11 +993,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E2FA153-E6EA-3E4B-BE1A-EC0443996927}">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:W292"/>
+  <dimension ref="A1:W295"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G293" sqref="G293"/>
+    <sheetView tabSelected="1" topLeftCell="A132" workbookViewId="0">
+      <selection activeCell="D152" sqref="D152"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1016,9 +1015,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="2" spans="1:23" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="3" spans="1:23" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="4" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -1026,7 +1023,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="5" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -1034,7 +1031,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="6" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>2</v>
       </c>
@@ -1042,7 +1039,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -1050,7 +1047,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="8" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -1058,7 +1055,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -1066,7 +1063,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>11</v>
       </c>
@@ -1093,7 +1090,7 @@
       <c r="V10" s="1"/>
       <c r="W10" s="1"/>
     </row>
-    <row r="11" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>12</v>
       </c>
@@ -1156,7 +1153,7 @@
       </c>
       <c r="U11" s="1"/>
     </row>
-    <row r="12" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>113</v>
       </c>
@@ -1176,7 +1173,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>114</v>
       </c>
@@ -1232,7 +1229,7 @@
         <v>0.47095746419981693</v>
       </c>
     </row>
-    <row r="14" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>114</v>
       </c>
@@ -1288,7 +1285,7 @@
         <v>0.47095746419981693</v>
       </c>
     </row>
-    <row r="15" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>32</v>
       </c>
@@ -1344,7 +1341,7 @@
         <v>0.72314801614797197</v>
       </c>
     </row>
-    <row r="16" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>37</v>
       </c>
@@ -1400,7 +1397,7 @@
         <v>0.72314801614797197</v>
       </c>
     </row>
-    <row r="17" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>40</v>
       </c>
@@ -1456,7 +1453,7 @@
         <v>0.72314801614797197</v>
       </c>
     </row>
-    <row r="18" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>44</v>
       </c>
@@ -1512,7 +1509,7 @@
         <v>0.72314801614797197</v>
       </c>
     </row>
-    <row r="19" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>109</v>
       </c>
@@ -1568,7 +1565,7 @@
         <v>0.47095746419981693</v>
       </c>
     </row>
-    <row r="20" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>109</v>
       </c>
@@ -1624,7 +1621,7 @@
         <v>0.47095746419981693</v>
       </c>
     </row>
-    <row r="21" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>109</v>
       </c>
@@ -1680,7 +1677,7 @@
         <v>0.47095746419981693</v>
       </c>
     </row>
-    <row r="22" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>53</v>
       </c>
@@ -1733,8 +1730,7 @@
         <v>0.47095746419981693</v>
       </c>
     </row>
-    <row r="23" spans="1:21" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="24" spans="1:21" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>0</v>
       </c>
@@ -1742,7 +1738,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="25" spans="1:21" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
         <v>1</v>
       </c>
@@ -1750,7 +1746,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="26" spans="1:21" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
         <v>2</v>
       </c>
@@ -1758,7 +1754,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:21" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
         <v>4</v>
       </c>
@@ -1766,7 +1762,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="28" spans="1:21" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
         <v>5</v>
       </c>
@@ -1774,7 +1770,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="29" spans="1:21" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
         <v>7</v>
       </c>
@@ -1782,13 +1778,13 @@
         <v>91</v>
       </c>
     </row>
-    <row r="30" spans="1:21" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B30" s="5"/>
     </row>
-    <row r="31" spans="1:21" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
         <v>12</v>
       </c>
@@ -1851,7 +1847,7 @@
       </c>
       <c r="U31" s="2"/>
     </row>
-    <row r="32" spans="1:21" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="4" t="s">
         <v>88</v>
       </c>
@@ -1871,7 +1867,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="33" spans="1:19" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="4" t="s">
         <v>59</v>
       </c>
@@ -1927,7 +1923,7 @@
         <v>0.57209088006881903</v>
       </c>
     </row>
-    <row r="34" spans="1:19" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="4" t="s">
         <v>63</v>
       </c>
@@ -1983,7 +1979,7 @@
         <v>0.57209088006881903</v>
       </c>
     </row>
-    <row r="35" spans="1:19" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="s">
         <v>109</v>
       </c>
@@ -2039,7 +2035,7 @@
         <v>0.16169679924070957</v>
       </c>
     </row>
-    <row r="36" spans="1:19" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>113</v>
       </c>
@@ -2095,7 +2091,7 @@
         <v>0.16169679924070957</v>
       </c>
     </row>
-    <row r="37" spans="1:19" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>113</v>
       </c>
@@ -2151,7 +2147,7 @@
         <v>0.16169679924070957</v>
       </c>
     </row>
-    <row r="38" spans="1:19" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A38" s="4" t="s">
         <v>83</v>
       </c>
@@ -2205,7 +2201,7 @@
         <v>0.16169679924070957</v>
       </c>
     </row>
-    <row r="39" spans="1:19" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A39" s="4" t="s">
         <v>85</v>
       </c>
@@ -2258,7 +2254,7 @@
         <v>0.25816898211842121</v>
       </c>
     </row>
-    <row r="40" spans="1:19" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A40" s="4" t="s">
         <v>53</v>
       </c>
@@ -2282,10 +2278,10 @@
       </c>
       <c r="M40" s="8"/>
     </row>
-    <row r="41" spans="1:19" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B41" s="5"/>
     </row>
-    <row r="42" spans="1:19" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
         <v>0</v>
       </c>
@@ -2293,7 +2289,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="43" spans="1:19" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A43" s="4" t="s">
         <v>1</v>
       </c>
@@ -2301,7 +2297,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="44" spans="1:19" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A44" s="4" t="s">
         <v>2</v>
       </c>
@@ -2309,7 +2305,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="45" spans="1:19" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A45" s="4" t="s">
         <v>4</v>
       </c>
@@ -2317,7 +2313,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="46" spans="1:19" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A46" s="4" t="s">
         <v>5</v>
       </c>
@@ -2325,7 +2321,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="47" spans="1:19" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A47" s="4" t="s">
         <v>7</v>
       </c>
@@ -2333,13 +2329,13 @@
         <v>91</v>
       </c>
     </row>
-    <row r="48" spans="1:19" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A48" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B48" s="5"/>
     </row>
-    <row r="49" spans="1:21" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
         <v>12</v>
       </c>
@@ -2402,7 +2398,7 @@
       </c>
       <c r="U49" s="2"/>
     </row>
-    <row r="50" spans="1:21" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A50" s="4" t="s">
         <v>102</v>
       </c>
@@ -2422,7 +2418,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="51" spans="1:21" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A51" s="4" t="s">
         <v>92</v>
       </c>
@@ -2478,7 +2474,7 @@
         <v>0.57209088006881903</v>
       </c>
     </row>
-    <row r="52" spans="1:21" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A52" s="4" t="s">
         <v>94</v>
       </c>
@@ -2534,7 +2530,7 @@
         <v>0.57209088006881903</v>
       </c>
     </row>
-    <row r="53" spans="1:21" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A53" s="4" t="s">
         <v>96</v>
       </c>
@@ -2590,7 +2586,7 @@
         <v>0.57209088006881903</v>
       </c>
     </row>
-    <row r="54" spans="1:21" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A54" s="4" t="s">
         <v>73</v>
       </c>
@@ -2643,7 +2639,7 @@
         <v>0.16169679924070957</v>
       </c>
     </row>
-    <row r="55" spans="1:21" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A55" s="4" t="s">
         <v>76</v>
       </c>
@@ -2699,7 +2695,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:21" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>113</v>
       </c>
@@ -2755,7 +2751,7 @@
         <v>0.16169679924070957</v>
       </c>
     </row>
-    <row r="57" spans="1:21" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>113</v>
       </c>
@@ -2811,7 +2807,7 @@
         <v>0.16169679924070957</v>
       </c>
     </row>
-    <row r="58" spans="1:21" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A58" s="4" t="s">
         <v>83</v>
       </c>
@@ -2865,7 +2861,7 @@
         <v>0.16169679924070957</v>
       </c>
     </row>
-    <row r="59" spans="1:21" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A59" s="4" t="s">
         <v>85</v>
       </c>
@@ -2918,7 +2914,7 @@
         <v>0.25816898211842121</v>
       </c>
     </row>
-    <row r="60" spans="1:21" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A60" s="4" t="s">
         <v>53</v>
       </c>
@@ -2942,10 +2938,10 @@
       </c>
       <c r="M60" s="8"/>
     </row>
-    <row r="61" spans="1:21" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B61" s="5"/>
     </row>
-    <row r="62" spans="1:21" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
         <v>0</v>
       </c>
@@ -2953,7 +2949,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="63" spans="1:21" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A63" s="4" t="s">
         <v>1</v>
       </c>
@@ -2961,7 +2957,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="64" spans="1:21" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A64" s="4" t="s">
         <v>2</v>
       </c>
@@ -2969,7 +2965,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="65" spans="1:21" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A65" s="4" t="s">
         <v>4</v>
       </c>
@@ -2977,7 +2973,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="66" spans="1:21" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A66" s="4" t="s">
         <v>5</v>
       </c>
@@ -2985,7 +2981,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="67" spans="1:21" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A67" s="4" t="s">
         <v>7</v>
       </c>
@@ -2993,13 +2989,13 @@
         <v>91</v>
       </c>
     </row>
-    <row r="68" spans="1:21" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A68" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B68" s="5"/>
     </row>
-    <row r="69" spans="1:21" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="s">
         <v>12</v>
       </c>
@@ -3062,7 +3058,7 @@
       </c>
       <c r="U69" s="2"/>
     </row>
-    <row r="70" spans="1:21" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A70" s="4" t="s">
         <v>104</v>
       </c>
@@ -3082,7 +3078,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="71" spans="1:21" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A71" s="4" t="s">
         <v>98</v>
       </c>
@@ -3138,7 +3134,7 @@
         <v>0.57157051623399524</v>
       </c>
     </row>
-    <row r="72" spans="1:21" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>113</v>
       </c>
@@ -3194,7 +3190,7 @@
         <v>0.16169679924070957</v>
       </c>
     </row>
-    <row r="73" spans="1:21" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>113</v>
       </c>
@@ -3250,7 +3246,7 @@
         <v>0.16169679924070957</v>
       </c>
     </row>
-    <row r="74" spans="1:21" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A74" s="4" t="s">
         <v>83</v>
       </c>
@@ -3304,7 +3300,7 @@
         <v>0.16169679924070957</v>
       </c>
     </row>
-    <row r="75" spans="1:21" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A75" s="4" t="s">
         <v>53</v>
       </c>
@@ -3328,10 +3324,10 @@
       </c>
       <c r="M75" s="8"/>
     </row>
-    <row r="76" spans="1:21" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B76" s="5"/>
     </row>
-    <row r="77" spans="1:21" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="s">
         <v>0</v>
       </c>
@@ -3339,7 +3335,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="78" spans="1:21" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A78" s="4" t="s">
         <v>1</v>
       </c>
@@ -3347,7 +3343,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="79" spans="1:21" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A79" s="4" t="s">
         <v>2</v>
       </c>
@@ -3355,7 +3351,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="80" spans="1:21" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A80" s="4" t="s">
         <v>4</v>
       </c>
@@ -3363,7 +3359,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="81" spans="1:21" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A81" s="4" t="s">
         <v>5</v>
       </c>
@@ -3371,7 +3367,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="82" spans="1:21" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A82" s="4" t="s">
         <v>7</v>
       </c>
@@ -3379,13 +3375,13 @@
         <v>91</v>
       </c>
     </row>
-    <row r="83" spans="1:21" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A83" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B83" s="5"/>
     </row>
-    <row r="84" spans="1:21" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A84" s="2" t="s">
         <v>12</v>
       </c>
@@ -3448,7 +3444,7 @@
       </c>
       <c r="U84" s="2"/>
     </row>
-    <row r="85" spans="1:21" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A85" s="4" t="s">
         <v>106</v>
       </c>
@@ -3468,7 +3464,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="86" spans="1:21" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A86" s="4" t="s">
         <v>100</v>
       </c>
@@ -3524,7 +3520,7 @@
         <v>0.57157051623399524</v>
       </c>
     </row>
-    <row r="87" spans="1:21" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A87" s="4" t="s">
         <v>70</v>
       </c>
@@ -3580,7 +3576,7 @@
         <v>0.57157051623399524</v>
       </c>
     </row>
-    <row r="88" spans="1:21" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A88" s="4" t="s">
         <v>78</v>
       </c>
@@ -3633,7 +3629,7 @@
         <v>0.15984597228197622</v>
       </c>
     </row>
-    <row r="89" spans="1:21" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>113</v>
       </c>
@@ -3689,7 +3685,7 @@
         <v>0.16169679924070957</v>
       </c>
     </row>
-    <row r="90" spans="1:21" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>113</v>
       </c>
@@ -3745,7 +3741,7 @@
         <v>0.16169679924070957</v>
       </c>
     </row>
-    <row r="91" spans="1:21" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A91" s="4" t="s">
         <v>83</v>
       </c>
@@ -3799,7 +3795,7 @@
         <v>0.16169679924070957</v>
       </c>
     </row>
-    <row r="92" spans="1:21" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A92" s="4" t="s">
         <v>53</v>
       </c>
@@ -3823,10 +3819,10 @@
       </c>
       <c r="M92" s="8"/>
     </row>
-    <row r="93" spans="1:21" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B93" s="5"/>
     </row>
-    <row r="94" spans="1:21" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A94" s="2" t="s">
         <v>0</v>
       </c>
@@ -3834,7 +3830,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="95" spans="1:21" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A95" s="4" t="s">
         <v>1</v>
       </c>
@@ -3842,7 +3838,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="96" spans="1:21" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A96" s="4" t="s">
         <v>2</v>
       </c>
@@ -3850,7 +3846,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="97" spans="1:23" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A97" s="4" t="s">
         <v>4</v>
       </c>
@@ -3858,7 +3854,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="98" spans="1:23" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A98" s="4" t="s">
         <v>5</v>
       </c>
@@ -3866,7 +3862,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="99" spans="1:23" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A99" s="4" t="s">
         <v>7</v>
       </c>
@@ -3874,16 +3870,16 @@
         <v>48</v>
       </c>
     </row>
-    <row r="100" spans="1:23" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B100" s="5"/>
     </row>
-    <row r="101" spans="1:23" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A101" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B101" s="5"/>
     </row>
-    <row r="102" spans="1:23" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A102" s="2" t="s">
         <v>12</v>
       </c>
@@ -3954,7 +3950,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="103" spans="1:23" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A103" s="4" t="s">
         <v>127</v>
       </c>
@@ -3980,7 +3976,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="104" spans="1:23" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A104" s="4" t="s">
         <v>92</v>
       </c>
@@ -4042,7 +4038,7 @@
         <v>0.57209088006881903</v>
       </c>
     </row>
-    <row r="105" spans="1:23" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A105" s="4" t="s">
         <v>94</v>
       </c>
@@ -4104,7 +4100,7 @@
         <v>0.57209088006881903</v>
       </c>
     </row>
-    <row r="106" spans="1:23" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A106" s="4" t="s">
         <v>96</v>
       </c>
@@ -4166,7 +4162,7 @@
         <v>0.57209088006881903</v>
       </c>
     </row>
-    <row r="107" spans="1:23" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A107" s="4" t="s">
         <v>73</v>
       </c>
@@ -4222,7 +4218,7 @@
         <v>0.16169679924070957</v>
       </c>
     </row>
-    <row r="108" spans="1:23" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A108" s="4" t="s">
         <v>76</v>
       </c>
@@ -4281,7 +4277,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:23" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>113</v>
       </c>
@@ -4343,7 +4339,7 @@
         <v>0.16169679924070957</v>
       </c>
     </row>
-    <row r="110" spans="1:23" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>113</v>
       </c>
@@ -4405,7 +4401,7 @@
         <v>0.16169679924070957</v>
       </c>
     </row>
-    <row r="111" spans="1:23" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A111" s="4" t="s">
         <v>83</v>
       </c>
@@ -4462,7 +4458,7 @@
         <v>0.16169679924070957</v>
       </c>
     </row>
-    <row r="112" spans="1:23" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A112" s="4" t="s">
         <v>85</v>
       </c>
@@ -4518,7 +4514,7 @@
         <v>0.25816898211842121</v>
       </c>
     </row>
-    <row r="113" spans="1:23" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A113" s="4" t="s">
         <v>53</v>
       </c>
@@ -4545,10 +4541,10 @@
       </c>
       <c r="O113" s="8"/>
     </row>
-    <row r="114" spans="1:23" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B114" s="5"/>
     </row>
-    <row r="115" spans="1:23" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A115" s="2" t="s">
         <v>0</v>
       </c>
@@ -4556,7 +4552,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="116" spans="1:23" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A116" s="4" t="s">
         <v>1</v>
       </c>
@@ -4564,7 +4560,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="117" spans="1:23" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A117" s="4" t="s">
         <v>2</v>
       </c>
@@ -4572,7 +4568,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="118" spans="1:23" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A118" s="4" t="s">
         <v>4</v>
       </c>
@@ -4580,7 +4576,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="119" spans="1:23" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A119" s="4" t="s">
         <v>5</v>
       </c>
@@ -4588,7 +4584,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="120" spans="1:23" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A120" s="4" t="s">
         <v>7</v>
       </c>
@@ -4596,16 +4592,16 @@
         <v>48</v>
       </c>
     </row>
-    <row r="121" spans="1:23" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B121" s="5"/>
     </row>
-    <row r="122" spans="1:23" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A122" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B122" s="5"/>
     </row>
-    <row r="123" spans="1:23" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A123" s="2" t="s">
         <v>12</v>
       </c>
@@ -4676,7 +4672,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="124" spans="1:23" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A124" s="4" t="s">
         <v>130</v>
       </c>
@@ -4702,7 +4698,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="125" spans="1:23" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A125" s="4" t="s">
         <v>98</v>
       </c>
@@ -4764,7 +4760,7 @@
         <v>0.57157051623399524</v>
       </c>
     </row>
-    <row r="126" spans="1:23" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>113</v>
       </c>
@@ -4826,7 +4822,7 @@
         <v>0.16169679924070957</v>
       </c>
     </row>
-    <row r="127" spans="1:23" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>113</v>
       </c>
@@ -4888,7 +4884,7 @@
         <v>0.16169679924070957</v>
       </c>
     </row>
-    <row r="128" spans="1:23" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A128" s="4" t="s">
         <v>83</v>
       </c>
@@ -4945,7 +4941,7 @@
         <v>0.16169679924070957</v>
       </c>
     </row>
-    <row r="129" spans="1:23" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A129" s="4" t="s">
         <v>53</v>
       </c>
@@ -4972,10 +4968,10 @@
       </c>
       <c r="O129" s="8"/>
     </row>
-    <row r="130" spans="1:23" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B130" s="5"/>
     </row>
-    <row r="131" spans="1:23" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A131" s="2" t="s">
         <v>0</v>
       </c>
@@ -4983,7 +4979,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="132" spans="1:23" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A132" s="4" t="s">
         <v>1</v>
       </c>
@@ -4991,7 +4987,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="133" spans="1:23" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A133" s="4" t="s">
         <v>2</v>
       </c>
@@ -4999,7 +4995,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="134" spans="1:23" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A134" s="4" t="s">
         <v>4</v>
       </c>
@@ -5007,7 +5003,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="135" spans="1:23" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A135" s="4" t="s">
         <v>5</v>
       </c>
@@ -5015,7 +5011,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="136" spans="1:23" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A136" s="4" t="s">
         <v>7</v>
       </c>
@@ -5023,16 +5019,16 @@
         <v>48</v>
       </c>
     </row>
-    <row r="137" spans="1:23" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B137" s="5"/>
     </row>
-    <row r="138" spans="1:23" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A138" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B138" s="5"/>
     </row>
-    <row r="139" spans="1:23" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A139" s="2" t="s">
         <v>12</v>
       </c>
@@ -5103,7 +5099,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="140" spans="1:23" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A140" s="4" t="s">
         <v>132</v>
       </c>
@@ -5129,7 +5125,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="141" spans="1:23" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A141" s="4" t="s">
         <v>100</v>
       </c>
@@ -5191,7 +5187,7 @@
         <v>0.57157051623399524</v>
       </c>
     </row>
-    <row r="142" spans="1:23" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A142" s="4" t="s">
         <v>70</v>
       </c>
@@ -5250,7 +5246,7 @@
         <v>0.57157051623399524</v>
       </c>
     </row>
-    <row r="143" spans="1:23" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A143" s="4" t="s">
         <v>78</v>
       </c>
@@ -5306,7 +5302,7 @@
         <v>0.15984597228197622</v>
       </c>
     </row>
-    <row r="144" spans="1:23" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>113</v>
       </c>
@@ -5368,7 +5364,7 @@
         <v>0.16169679924070957</v>
       </c>
     </row>
-    <row r="145" spans="1:23" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>113</v>
       </c>
@@ -5430,7 +5426,7 @@
         <v>0.16169679924070957</v>
       </c>
     </row>
-    <row r="146" spans="1:23" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A146" s="4" t="s">
         <v>83</v>
       </c>
@@ -5487,7 +5483,7 @@
         <v>0.16169679924070957</v>
       </c>
     </row>
-    <row r="147" spans="1:23" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A147" s="4" t="s">
         <v>53</v>
       </c>
@@ -5514,10 +5510,10 @@
       </c>
       <c r="O147" s="8"/>
     </row>
-    <row r="148" spans="1:23" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B148" s="5"/>
     </row>
-    <row r="149" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>0</v>
       </c>
@@ -5525,7 +5521,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="150" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>1</v>
       </c>
@@ -5533,7 +5529,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="151" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>2</v>
       </c>
@@ -5541,7 +5537,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="152" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>4</v>
       </c>
@@ -5549,7 +5545,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="153" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>5</v>
       </c>
@@ -5557,176 +5553,125 @@
         <v>90</v>
       </c>
     </row>
-    <row r="154" spans="1:23" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A154" s="1" t="s">
+    <row r="154" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A154" t="s">
+        <v>7</v>
+      </c>
+      <c r="B154" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="155" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A155" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="155" spans="1:23" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A155" s="1" t="s">
+    <row r="156" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A156" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B155" s="1" t="s">
+      <c r="B156" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C155" s="1" t="s">
+      <c r="C156" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D155" s="1" t="s">
+      <c r="D156" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E155" s="1" t="s">
+      <c r="E156" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F155" s="1" t="s">
+      <c r="F156" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G155" s="1" t="s">
+      <c r="G156" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H155" s="1" t="s">
+      <c r="H156" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I155" s="1" t="s">
+      <c r="I156" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="J155" s="1" t="s">
+      <c r="J156" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="K155" s="1" t="s">
+      <c r="K156" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="L155" s="1" t="s">
+      <c r="L156" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="M155" s="1" t="s">
+      <c r="M156" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="N155" s="1" t="s">
+      <c r="N156" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="O155" s="1" t="s">
+      <c r="O156" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="P155" s="1" t="s">
+      <c r="P156" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="Q155" s="1" t="s">
+      <c r="Q156" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="R155" s="1" t="s">
+      <c r="R156" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="S155" s="1" t="s">
+      <c r="S156" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="T155" s="1" t="s">
+      <c r="T156" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="U155" s="1" t="s">
+      <c r="U156" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="V155" s="1" t="s">
+      <c r="V156" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="W155" s="1" t="s">
+      <c r="W156" s="1" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="156" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A156" t="s">
+    <row r="157" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A157" t="s">
         <v>134</v>
       </c>
-      <c r="B156">
+      <c r="B157">
         <v>1</v>
       </c>
-      <c r="C156" t="s">
+      <c r="C157" t="s">
         <v>91</v>
       </c>
-      <c r="E156" t="s">
+      <c r="E157" t="s">
         <v>41</v>
       </c>
-      <c r="F156" t="s">
+      <c r="F157" t="s">
         <v>28</v>
       </c>
-      <c r="G156" t="s">
+      <c r="G157" t="s">
         <v>90</v>
-      </c>
-      <c r="K156" t="s">
-        <v>134</v>
-      </c>
-      <c r="W156" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="157" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A157" t="s">
-        <v>59</v>
-      </c>
-      <c r="B157">
-        <v>4.0327784230223253E-7</v>
-      </c>
-      <c r="C157" t="s">
-        <v>7</v>
-      </c>
-      <c r="E157" t="s">
-        <v>60</v>
-      </c>
-      <c r="F157" t="s">
-        <v>29</v>
-      </c>
-      <c r="G157" t="s">
-        <v>61</v>
-      </c>
-      <c r="H157" t="s">
-        <v>35</v>
-      </c>
-      <c r="I157" t="s">
-        <v>136</v>
       </c>
       <c r="K157" t="s">
         <v>134</v>
       </c>
-      <c r="L157">
-        <v>2</v>
-      </c>
-      <c r="M157">
-        <v>-14.723640077557722</v>
-      </c>
-      <c r="N157">
-        <v>1.05</v>
-      </c>
-      <c r="O157">
-        <v>1.2</v>
-      </c>
-      <c r="P157">
-        <v>1</v>
-      </c>
-      <c r="Q157">
-        <v>1.01</v>
-      </c>
-      <c r="R157">
-        <v>1.2</v>
-      </c>
-      <c r="S157">
-        <v>1.2</v>
-      </c>
-      <c r="T157">
-        <v>3</v>
-      </c>
-      <c r="U157">
-        <v>0.57209088006881903</v>
-      </c>
-    </row>
-    <row r="158" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+      <c r="W157" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="158" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B158">
-        <v>8.8199999999999998E-7</v>
+        <v>4.0327784230223253E-7</v>
       </c>
       <c r="C158" t="s">
-        <v>64</v>
+        <v>7</v>
       </c>
       <c r="E158" t="s">
         <v>60</v>
@@ -5735,13 +5680,13 @@
         <v>29</v>
       </c>
       <c r="G158" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="H158" t="s">
         <v>35</v>
       </c>
       <c r="I158" t="s">
-        <v>66</v>
+        <v>136</v>
       </c>
       <c r="K158" t="s">
         <v>134</v>
@@ -5750,7 +5695,7 @@
         <v>2</v>
       </c>
       <c r="M158">
-        <v>-13.94107378093962</v>
+        <v>-14.723640077557722</v>
       </c>
       <c r="N158">
         <v>1.05</v>
@@ -5777,33 +5722,30 @@
         <v>0.57209088006881903</v>
       </c>
     </row>
-    <row r="159" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>109</v>
+        <v>63</v>
       </c>
       <c r="B159">
-        <v>7.3399999999999995E-4</v>
+        <v>8.8199999999999998E-7</v>
       </c>
       <c r="C159" t="s">
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="E159" t="s">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="F159" t="s">
         <v>29</v>
       </c>
       <c r="G159" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="H159" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="I159" t="s">
-        <v>72</v>
-      </c>
-      <c r="J159" t="s">
-        <v>137</v>
+        <v>66</v>
       </c>
       <c r="K159" t="s">
         <v>134</v>
@@ -5812,7 +5754,7 @@
         <v>2</v>
       </c>
       <c r="M159">
-        <v>-7.2170015293497585</v>
+        <v>-13.94107378093962</v>
       </c>
       <c r="N159">
         <v>1.05</v>
@@ -5833,21 +5775,21 @@
         <v>1.2</v>
       </c>
       <c r="T159">
-        <v>1.05</v>
+        <v>3</v>
       </c>
       <c r="U159">
-        <v>0.16169679924070957</v>
-      </c>
-    </row>
-    <row r="160" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+        <v>0.57209088006881903</v>
+      </c>
+    </row>
+    <row r="160" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>167</v>
+        <v>109</v>
       </c>
       <c r="B160">
-        <v>1.9025875190258751E-2</v>
+        <v>7.3399999999999995E-4</v>
       </c>
       <c r="C160" t="s">
-        <v>8</v>
+        <v>48</v>
       </c>
       <c r="E160" t="s">
         <v>41</v>
@@ -5856,16 +5798,16 @@
         <v>29</v>
       </c>
       <c r="G160" t="s">
-        <v>168</v>
+        <v>49</v>
       </c>
       <c r="H160" t="s">
-        <v>138</v>
+        <v>10</v>
       </c>
       <c r="I160" t="s">
-        <v>139</v>
+        <v>72</v>
       </c>
       <c r="J160" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="K160" t="s">
         <v>134</v>
@@ -5874,7 +5816,7 @@
         <v>2</v>
       </c>
       <c r="M160">
-        <v>-3.9619553741763553</v>
+        <v>-7.2170015293497585</v>
       </c>
       <c r="N160">
         <v>1.05</v>
@@ -5901,27 +5843,33 @@
         <v>0.16169679924070957</v>
       </c>
     </row>
-    <row r="161" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>141</v>
+        <v>167</v>
       </c>
       <c r="B161">
-        <v>9.7999999999999992E-10</v>
+        <v>1.9025875190258751E-2</v>
       </c>
       <c r="C161" t="s">
         <v>8</v>
       </c>
-      <c r="D161" t="s">
-        <v>142</v>
+      <c r="E161" t="s">
+        <v>41</v>
       </c>
       <c r="F161" t="s">
-        <v>55</v>
+        <v>29</v>
+      </c>
+      <c r="G161" t="s">
+        <v>168</v>
       </c>
       <c r="H161" t="s">
-        <v>56</v>
+        <v>138</v>
       </c>
       <c r="I161" t="s">
-        <v>143</v>
+        <v>139</v>
+      </c>
+      <c r="J161" t="s">
+        <v>140</v>
       </c>
       <c r="K161" t="s">
         <v>134</v>
@@ -5930,39 +5878,39 @@
         <v>2</v>
       </c>
       <c r="M161">
-        <v>-20.74346854426393</v>
+        <v>-3.9619553741763553</v>
       </c>
       <c r="N161">
-        <v>1.5</v>
+        <v>1.05</v>
       </c>
       <c r="O161">
         <v>1.2</v>
       </c>
       <c r="P161">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="Q161">
-        <v>1.1000000000000001</v>
+        <v>1.01</v>
       </c>
       <c r="R161">
-        <v>2</v>
+        <v>1.2</v>
       </c>
       <c r="S161">
         <v>1.2</v>
       </c>
       <c r="T161">
-        <v>1.5</v>
+        <v>1.05</v>
       </c>
       <c r="U161">
-        <v>0.51215847306170115</v>
-      </c>
-    </row>
-    <row r="162" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+        <v>0.16169679924070957</v>
+      </c>
+    </row>
+    <row r="162" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B162">
-        <v>1.4700000000000001E-7</v>
+        <v>9.7999999999999992E-10</v>
       </c>
       <c r="C162" t="s">
         <v>8</v>
@@ -5986,7 +5934,7 @@
         <v>2</v>
       </c>
       <c r="M162">
-        <v>-15.732833250167674</v>
+        <v>-20.74346854426393</v>
       </c>
       <c r="N162">
         <v>1.5</v>
@@ -6013,12 +5961,12 @@
         <v>0.51215847306170115</v>
       </c>
     </row>
-    <row r="163" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B163">
-        <v>3.9200000000000002E-7</v>
+        <v>1.4700000000000001E-7</v>
       </c>
       <c r="C163" t="s">
         <v>8</v>
@@ -6042,7 +5990,7 @@
         <v>2</v>
       </c>
       <c r="M163">
-        <v>-14.752003997155949</v>
+        <v>-15.732833250167674</v>
       </c>
       <c r="N163">
         <v>1.5</v>
@@ -6069,12 +6017,12 @@
         <v>0.51215847306170115</v>
       </c>
     </row>
-    <row r="164" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B164">
-        <v>9.7999999999999994E-12</v>
+        <v>3.9200000000000002E-7</v>
       </c>
       <c r="C164" t="s">
         <v>8</v>
@@ -6098,7 +6046,7 @@
         <v>2</v>
       </c>
       <c r="M164">
-        <v>-25.348638730252024</v>
+        <v>-14.752003997155949</v>
       </c>
       <c r="N164">
         <v>1.5</v>
@@ -6125,12 +6073,12 @@
         <v>0.51215847306170115</v>
       </c>
     </row>
-    <row r="165" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B165">
-        <v>0</v>
+        <v>9.7999999999999994E-12</v>
       </c>
       <c r="C165" t="s">
         <v>8</v>
@@ -6151,17 +6099,42 @@
         <v>134</v>
       </c>
       <c r="L165">
-        <v>1</v>
-      </c>
-      <c r="M165" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="166" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="M165">
+        <v>-25.348638730252024</v>
+      </c>
+      <c r="N165">
+        <v>1.5</v>
+      </c>
+      <c r="O165">
+        <v>1.2</v>
+      </c>
+      <c r="P165">
+        <v>1.5</v>
+      </c>
+      <c r="Q165">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="R165">
+        <v>2</v>
+      </c>
+      <c r="S165">
+        <v>1.2</v>
+      </c>
+      <c r="T165">
+        <v>1.5</v>
+      </c>
+      <c r="U165">
+        <v>0.51215847306170115</v>
+      </c>
+    </row>
+    <row r="166" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>148</v>
       </c>
       <c r="B166">
+        <f>2.74*B161</f>
         <v>5.2130898021308984E-2</v>
       </c>
       <c r="C166" t="s">
@@ -6213,7 +6186,7 @@
         <v>0.47095746419981693</v>
       </c>
     </row>
-    <row r="167" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>149</v>
       </c>
@@ -6269,7 +6242,7 @@
         <v>0.93208283513358414</v>
       </c>
     </row>
-    <row r="168" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>150</v>
       </c>
@@ -6325,7 +6298,7 @@
         <v>0.51215847306170115</v>
       </c>
     </row>
-    <row r="169" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>151</v>
       </c>
@@ -6381,7 +6354,7 @@
         <v>0.51215847306170115</v>
       </c>
     </row>
-    <row r="170" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>152</v>
       </c>
@@ -6437,7 +6410,7 @@
         <v>0.51215847306170115</v>
       </c>
     </row>
-    <row r="171" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>153</v>
       </c>
@@ -6493,7 +6466,7 @@
         <v>0.93208283513358414</v>
       </c>
     </row>
-    <row r="172" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>154</v>
       </c>
@@ -6549,7 +6522,7 @@
         <v>0.51215847306170115</v>
       </c>
     </row>
-    <row r="173" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>155</v>
       </c>
@@ -6581,7 +6554,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="174" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>85</v>
       </c>
@@ -6637,7 +6610,7 @@
         <v>0.51215847306170115</v>
       </c>
     </row>
-    <row r="175" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>156</v>
       </c>
@@ -6693,7 +6666,7 @@
         <v>0.72314801614797197</v>
       </c>
     </row>
-    <row r="176" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>157</v>
       </c>
@@ -6749,7 +6722,7 @@
         <v>0.72314801614797197</v>
       </c>
     </row>
-    <row r="177" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>158</v>
       </c>
@@ -6805,7 +6778,7 @@
         <v>0.51215847306170115</v>
       </c>
     </row>
-    <row r="178" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>159</v>
       </c>
@@ -6861,7 +6834,7 @@
         <v>0.51215847306170115</v>
       </c>
     </row>
-    <row r="179" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>160</v>
       </c>
@@ -6917,7 +6890,7 @@
         <v>0.51215847306170115</v>
       </c>
     </row>
-    <row r="180" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>161</v>
       </c>
@@ -6973,7 +6946,7 @@
         <v>0.51215847306170115</v>
       </c>
     </row>
-    <row r="181" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>162</v>
       </c>
@@ -7029,7 +7002,7 @@
         <v>0.51215847306170115</v>
       </c>
     </row>
-    <row r="182" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>164</v>
       </c>
@@ -7085,7 +7058,7 @@
         <v>0.51215847306170115</v>
       </c>
     </row>
-    <row r="183" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>165</v>
       </c>
@@ -7141,7 +7114,7 @@
         <v>0.51215847306170115</v>
       </c>
     </row>
-    <row r="184" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>166</v>
       </c>
@@ -7197,8 +7170,7 @@
         <v>0.51215847306170115</v>
       </c>
     </row>
-    <row r="185" spans="1:23" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="186" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>0</v>
       </c>
@@ -7206,7 +7178,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="187" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>1</v>
       </c>
@@ -7214,7 +7186,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="188" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>2</v>
       </c>
@@ -7222,7 +7194,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="189" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>4</v>
       </c>
@@ -7230,7 +7202,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="190" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>5</v>
       </c>
@@ -7238,177 +7210,126 @@
         <v>90</v>
       </c>
     </row>
-    <row r="191" spans="1:23" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A191" s="1" t="s">
+    <row r="191" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A191" t="s">
+        <v>7</v>
+      </c>
+      <c r="B191" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="192" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A192" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="192" spans="1:23" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A192" s="1" t="s">
+    <row r="193" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A193" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B192" s="1" t="s">
+      <c r="B193" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C192" s="1" t="s">
+      <c r="C193" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D192" s="1" t="s">
+      <c r="D193" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E192" s="1" t="s">
+      <c r="E193" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F192" s="1" t="s">
+      <c r="F193" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G192" s="1" t="s">
+      <c r="G193" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H192" s="1" t="s">
+      <c r="H193" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I192" s="1" t="s">
+      <c r="I193" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="J192" s="1" t="s">
+      <c r="J193" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="K192" s="1" t="s">
+      <c r="K193" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="L192" s="1" t="s">
+      <c r="L193" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="M192" s="1" t="s">
+      <c r="M193" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="N192" s="1" t="s">
+      <c r="N193" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="O192" s="1" t="s">
+      <c r="O193" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="P192" s="1" t="s">
+      <c r="P193" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="Q192" s="1" t="s">
+      <c r="Q193" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="R192" s="1" t="s">
+      <c r="R193" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="S192" s="1" t="s">
+      <c r="S193" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="T192" s="1" t="s">
+      <c r="T193" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="U192" s="1" t="s">
+      <c r="U193" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="V192" s="1" t="s">
+      <c r="V193" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="W192" s="1" t="s">
+      <c r="W193" s="1" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="193" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A193" t="str">
+    <row r="194" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A194" t="str">
         <f>B186</f>
         <v>heat, residential, by combustion of coal-based natural gas using boiler, distributed by pipeline</v>
       </c>
-      <c r="B193">
+      <c r="B194">
         <v>1</v>
       </c>
-      <c r="C193" t="s">
+      <c r="C194" t="s">
         <v>91</v>
       </c>
-      <c r="E193" t="s">
+      <c r="E194" t="s">
         <v>41</v>
       </c>
-      <c r="F193" t="s">
+      <c r="F194" t="s">
         <v>28</v>
       </c>
-      <c r="G193" t="s">
+      <c r="G194" t="s">
         <v>90</v>
-      </c>
-      <c r="K193" t="s">
-        <v>134</v>
-      </c>
-      <c r="W193" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="194" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A194" t="s">
-        <v>59</v>
-      </c>
-      <c r="B194">
-        <v>4.0327784230223253E-7</v>
-      </c>
-      <c r="C194" t="s">
-        <v>7</v>
-      </c>
-      <c r="E194" t="s">
-        <v>60</v>
-      </c>
-      <c r="F194" t="s">
-        <v>29</v>
-      </c>
-      <c r="G194" t="s">
-        <v>61</v>
-      </c>
-      <c r="H194" t="s">
-        <v>35</v>
-      </c>
-      <c r="I194" t="s">
-        <v>136</v>
       </c>
       <c r="K194" t="s">
         <v>134</v>
       </c>
-      <c r="L194">
-        <v>2</v>
-      </c>
-      <c r="M194">
-        <v>-14.723640077557722</v>
-      </c>
-      <c r="N194">
-        <v>1.05</v>
-      </c>
-      <c r="O194">
-        <v>1.2</v>
-      </c>
-      <c r="P194">
-        <v>1</v>
-      </c>
-      <c r="Q194">
-        <v>1.01</v>
-      </c>
-      <c r="R194">
-        <v>1.2</v>
-      </c>
-      <c r="S194">
-        <v>1.2</v>
-      </c>
-      <c r="T194">
-        <v>3</v>
-      </c>
-      <c r="U194">
-        <v>0.57209088006881903</v>
-      </c>
-    </row>
-    <row r="195" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+      <c r="W194" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="195" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B195">
-        <v>8.8199999999999998E-7</v>
+        <v>4.0327784230223253E-7</v>
       </c>
       <c r="C195" t="s">
-        <v>64</v>
+        <v>7</v>
       </c>
       <c r="E195" t="s">
         <v>60</v>
@@ -7417,13 +7338,13 @@
         <v>29</v>
       </c>
       <c r="G195" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="H195" t="s">
         <v>35</v>
       </c>
       <c r="I195" t="s">
-        <v>66</v>
+        <v>136</v>
       </c>
       <c r="K195" t="s">
         <v>134</v>
@@ -7432,7 +7353,7 @@
         <v>2</v>
       </c>
       <c r="M195">
-        <v>-13.94107378093962</v>
+        <v>-14.723640077557722</v>
       </c>
       <c r="N195">
         <v>1.05</v>
@@ -7459,33 +7380,30 @@
         <v>0.57209088006881903</v>
       </c>
     </row>
-    <row r="196" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
-        <v>109</v>
+        <v>63</v>
       </c>
       <c r="B196">
-        <v>7.3399999999999995E-4</v>
+        <v>8.8199999999999998E-7</v>
       </c>
       <c r="C196" t="s">
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="E196" t="s">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="F196" t="s">
         <v>29</v>
       </c>
       <c r="G196" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="H196" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="I196" t="s">
-        <v>72</v>
-      </c>
-      <c r="J196" t="s">
-        <v>137</v>
+        <v>66</v>
       </c>
       <c r="K196" t="s">
         <v>134</v>
@@ -7494,7 +7412,7 @@
         <v>2</v>
       </c>
       <c r="M196">
-        <v>-7.2170015293497585</v>
+        <v>-13.94107378093962</v>
       </c>
       <c r="N196">
         <v>1.05</v>
@@ -7515,21 +7433,21 @@
         <v>1.2</v>
       </c>
       <c r="T196">
-        <v>1.05</v>
+        <v>3</v>
       </c>
       <c r="U196">
-        <v>0.16169679924070957</v>
-      </c>
-    </row>
-    <row r="197" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+        <v>0.57209088006881903</v>
+      </c>
+    </row>
+    <row r="197" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
-        <v>170</v>
+        <v>109</v>
       </c>
       <c r="B197">
-        <v>1.9025875190258751E-2</v>
+        <v>7.3399999999999995E-4</v>
       </c>
       <c r="C197" t="s">
-        <v>8</v>
+        <v>48</v>
       </c>
       <c r="E197" t="s">
         <v>41</v>
@@ -7538,16 +7456,16 @@
         <v>29</v>
       </c>
       <c r="G197" t="s">
-        <v>171</v>
+        <v>49</v>
       </c>
       <c r="H197" t="s">
-        <v>138</v>
+        <v>10</v>
       </c>
       <c r="I197" t="s">
-        <v>139</v>
+        <v>72</v>
       </c>
       <c r="J197" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="K197" t="s">
         <v>134</v>
@@ -7556,7 +7474,7 @@
         <v>2</v>
       </c>
       <c r="M197">
-        <v>-3.9619553741763553</v>
+        <v>-7.2170015293497585</v>
       </c>
       <c r="N197">
         <v>1.05</v>
@@ -7583,27 +7501,33 @@
         <v>0.16169679924070957</v>
       </c>
     </row>
-    <row r="198" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
-        <v>141</v>
+        <v>170</v>
       </c>
       <c r="B198">
-        <v>9.7999999999999992E-10</v>
+        <v>1.9025875190258751E-2</v>
       </c>
       <c r="C198" t="s">
         <v>8</v>
       </c>
-      <c r="D198" t="s">
-        <v>142</v>
+      <c r="E198" t="s">
+        <v>41</v>
       </c>
       <c r="F198" t="s">
-        <v>55</v>
+        <v>29</v>
+      </c>
+      <c r="G198" t="s">
+        <v>171</v>
       </c>
       <c r="H198" t="s">
-        <v>56</v>
+        <v>138</v>
       </c>
       <c r="I198" t="s">
-        <v>143</v>
+        <v>139</v>
+      </c>
+      <c r="J198" t="s">
+        <v>140</v>
       </c>
       <c r="K198" t="s">
         <v>134</v>
@@ -7612,39 +7536,39 @@
         <v>2</v>
       </c>
       <c r="M198">
-        <v>-20.74346854426393</v>
+        <v>-3.9619553741763553</v>
       </c>
       <c r="N198">
-        <v>1.5</v>
+        <v>1.05</v>
       </c>
       <c r="O198">
         <v>1.2</v>
       </c>
       <c r="P198">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="Q198">
-        <v>1.1000000000000001</v>
+        <v>1.01</v>
       </c>
       <c r="R198">
-        <v>2</v>
+        <v>1.2</v>
       </c>
       <c r="S198">
         <v>1.2</v>
       </c>
       <c r="T198">
-        <v>1.5</v>
+        <v>1.05</v>
       </c>
       <c r="U198">
-        <v>0.51215847306170115</v>
-      </c>
-    </row>
-    <row r="199" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+        <v>0.16169679924070957</v>
+      </c>
+    </row>
+    <row r="199" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B199">
-        <v>1.4700000000000001E-7</v>
+        <v>9.7999999999999992E-10</v>
       </c>
       <c r="C199" t="s">
         <v>8</v>
@@ -7668,7 +7592,7 @@
         <v>2</v>
       </c>
       <c r="M199">
-        <v>-15.732833250167674</v>
+        <v>-20.74346854426393</v>
       </c>
       <c r="N199">
         <v>1.5</v>
@@ -7695,12 +7619,12 @@
         <v>0.51215847306170115</v>
       </c>
     </row>
-    <row r="200" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B200">
-        <v>3.9200000000000002E-7</v>
+        <v>1.4700000000000001E-7</v>
       </c>
       <c r="C200" t="s">
         <v>8</v>
@@ -7724,7 +7648,7 @@
         <v>2</v>
       </c>
       <c r="M200">
-        <v>-14.752003997155949</v>
+        <v>-15.732833250167674</v>
       </c>
       <c r="N200">
         <v>1.5</v>
@@ -7751,12 +7675,12 @@
         <v>0.51215847306170115</v>
       </c>
     </row>
-    <row r="201" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B201">
-        <v>9.7999999999999994E-12</v>
+        <v>3.9200000000000002E-7</v>
       </c>
       <c r="C201" t="s">
         <v>8</v>
@@ -7780,7 +7704,7 @@
         <v>2</v>
       </c>
       <c r="M201">
-        <v>-25.348638730252024</v>
+        <v>-14.752003997155949</v>
       </c>
       <c r="N201">
         <v>1.5</v>
@@ -7807,12 +7731,12 @@
         <v>0.51215847306170115</v>
       </c>
     </row>
-    <row r="202" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B202">
-        <v>5.2130898021308984E-2</v>
+        <v>9.7999999999999994E-12</v>
       </c>
       <c r="C202" t="s">
         <v>8</v>
@@ -7833,18 +7757,42 @@
         <v>134</v>
       </c>
       <c r="L202">
-        <v>1</v>
-      </c>
-      <c r="M202" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="203" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="M202">
+        <v>-25.348638730252024</v>
+      </c>
+      <c r="N202">
+        <v>1.5</v>
+      </c>
+      <c r="O202">
+        <v>1.2</v>
+      </c>
+      <c r="P202">
+        <v>1.5</v>
+      </c>
+      <c r="Q202">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="R202">
+        <v>2</v>
+      </c>
+      <c r="S202">
+        <v>1.2</v>
+      </c>
+      <c r="T202">
+        <v>1.5</v>
+      </c>
+      <c r="U202">
+        <v>0.51215847306170115</v>
+      </c>
+    </row>
+    <row r="203" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
-        <v>172</v>
+        <v>147</v>
       </c>
       <c r="B203">
-        <v>5.7819999999999999E-6</v>
+        <v>5.2130898021308984E-2</v>
       </c>
       <c r="C203" t="s">
         <v>8</v>
@@ -7865,42 +7813,18 @@
         <v>134</v>
       </c>
       <c r="L203">
-        <v>2</v>
-      </c>
-      <c r="M203">
-        <v>-12.060760914370119</v>
-      </c>
-      <c r="N203">
-        <v>1.5</v>
-      </c>
-      <c r="O203">
-        <v>1.2</v>
-      </c>
-      <c r="P203">
-        <v>1.5</v>
-      </c>
-      <c r="Q203">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="R203">
-        <v>2</v>
-      </c>
-      <c r="S203">
-        <v>1.2</v>
-      </c>
-      <c r="T203">
-        <v>5</v>
-      </c>
-      <c r="U203">
-        <v>0.93208283513358414</v>
-      </c>
-    </row>
-    <row r="204" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="M203" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="204" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
-        <v>150</v>
+        <v>172</v>
       </c>
       <c r="B204">
-        <v>4.8999999999999997E-7</v>
+        <v>5.7819999999999999E-6</v>
       </c>
       <c r="C204" t="s">
         <v>8</v>
@@ -7924,7 +7848,7 @@
         <v>2</v>
       </c>
       <c r="M204">
-        <v>-14.528860445841739</v>
+        <v>-12.060760914370119</v>
       </c>
       <c r="N204">
         <v>1.5</v>
@@ -7945,18 +7869,18 @@
         <v>1.2</v>
       </c>
       <c r="T204">
-        <v>1.5</v>
+        <v>5</v>
       </c>
       <c r="U204">
-        <v>0.51215847306170115</v>
-      </c>
-    </row>
-    <row r="205" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+        <v>0.93208283513358414</v>
+      </c>
+    </row>
+    <row r="205" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B205">
-        <v>2.9400000000000001E-17</v>
+        <v>4.8999999999999997E-7</v>
       </c>
       <c r="C205" t="s">
         <v>8</v>
@@ -7980,7 +7904,7 @@
         <v>2</v>
       </c>
       <c r="M205">
-        <v>-38.065536999548186</v>
+        <v>-14.528860445841739</v>
       </c>
       <c r="N205">
         <v>1.5</v>
@@ -8007,12 +7931,12 @@
         <v>0.51215847306170115</v>
       </c>
     </row>
-    <row r="206" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B206">
-        <v>9.8000000000000004E-8</v>
+        <v>2.9400000000000001E-17</v>
       </c>
       <c r="C206" t="s">
         <v>8</v>
@@ -8036,7 +7960,7 @@
         <v>2</v>
       </c>
       <c r="M206">
-        <v>-16.13829835827584</v>
+        <v>-38.065536999548186</v>
       </c>
       <c r="N206">
         <v>1.5</v>
@@ -8063,12 +7987,12 @@
         <v>0.51215847306170115</v>
       </c>
     </row>
-    <row r="207" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B207">
-        <v>2.9400000000000003E-11</v>
+        <v>9.8000000000000004E-8</v>
       </c>
       <c r="C207" t="s">
         <v>8</v>
@@ -8092,7 +8016,7 @@
         <v>2</v>
       </c>
       <c r="M207">
-        <v>-24.250026441583913</v>
+        <v>-16.13829835827584</v>
       </c>
       <c r="N207">
         <v>1.5</v>
@@ -8113,18 +8037,18 @@
         <v>1.2</v>
       </c>
       <c r="T207">
-        <v>5</v>
+        <v>1.5</v>
       </c>
       <c r="U207">
-        <v>0.93208283513358414</v>
-      </c>
-    </row>
-    <row r="208" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+        <v>0.51215847306170115</v>
+      </c>
+    </row>
+    <row r="208" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B208">
-        <v>1.9599999999999999E-6</v>
+        <v>2.9400000000000003E-11</v>
       </c>
       <c r="C208" t="s">
         <v>8</v>
@@ -8148,7 +8072,7 @@
         <v>2</v>
       </c>
       <c r="M208">
-        <v>-13.142566084721848</v>
+        <v>-24.250026441583913</v>
       </c>
       <c r="N208">
         <v>1.5</v>
@@ -8169,18 +8093,18 @@
         <v>1.2</v>
       </c>
       <c r="T208">
-        <v>1.5</v>
+        <v>5</v>
       </c>
       <c r="U208">
-        <v>0.51215847306170115</v>
-      </c>
-    </row>
-    <row r="209" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+        <v>0.93208283513358414</v>
+      </c>
+    </row>
+    <row r="209" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>155</v>
       </c>
       <c r="B209">
-        <v>0</v>
+        <v>1.9599999999999999E-6</v>
       </c>
       <c r="C209" t="s">
         <v>8</v>
@@ -8201,18 +8125,42 @@
         <v>134</v>
       </c>
       <c r="L209">
-        <v>1</v>
-      </c>
-      <c r="M209" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="210" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="M209">
+        <v>-13.142566084721848</v>
+      </c>
+      <c r="N209">
+        <v>1.5</v>
+      </c>
+      <c r="O209">
+        <v>1.2</v>
+      </c>
+      <c r="P209">
+        <v>1.5</v>
+      </c>
+      <c r="Q209">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="R209">
+        <v>2</v>
+      </c>
+      <c r="S209">
+        <v>1.2</v>
+      </c>
+      <c r="T209">
+        <v>1.5</v>
+      </c>
+      <c r="U209">
+        <v>0.51215847306170115</v>
+      </c>
+    </row>
+    <row r="210" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
-        <v>85</v>
+        <v>155</v>
       </c>
       <c r="B210">
-        <v>9.7019999999999996E-6</v>
+        <v>0</v>
       </c>
       <c r="C210" t="s">
         <v>8</v>
@@ -8233,42 +8181,18 @@
         <v>134</v>
       </c>
       <c r="L210">
-        <v>2</v>
-      </c>
-      <c r="M210">
-        <v>-11.543178508141249</v>
-      </c>
-      <c r="N210">
-        <v>1.5</v>
-      </c>
-      <c r="O210">
-        <v>1.2</v>
-      </c>
-      <c r="P210">
-        <v>1.5</v>
-      </c>
-      <c r="Q210">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="R210">
-        <v>2</v>
-      </c>
-      <c r="S210">
-        <v>1.2</v>
-      </c>
-      <c r="T210">
-        <v>1.5</v>
-      </c>
-      <c r="U210">
-        <v>0.51215847306170115</v>
-      </c>
-    </row>
-    <row r="211" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="M210" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="211" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
-        <v>156</v>
+        <v>85</v>
       </c>
       <c r="B211">
-        <v>9.8000000000000001E-9</v>
+        <v>9.7019999999999996E-6</v>
       </c>
       <c r="C211" t="s">
         <v>8</v>
@@ -8292,7 +8216,7 @@
         <v>2</v>
       </c>
       <c r="M211">
-        <v>-18.440883451269883</v>
+        <v>-11.543178508141249</v>
       </c>
       <c r="N211">
         <v>1.5</v>
@@ -8313,18 +8237,18 @@
         <v>1.2</v>
       </c>
       <c r="T211">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="U211">
-        <v>0.72314801614797197</v>
-      </c>
-    </row>
-    <row r="212" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+        <v>0.51215847306170115</v>
+      </c>
+    </row>
+    <row r="212" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B212">
-        <v>9.8000000000000004E-8</v>
+        <v>9.8000000000000001E-9</v>
       </c>
       <c r="C212" t="s">
         <v>8</v>
@@ -8348,7 +8272,7 @@
         <v>2</v>
       </c>
       <c r="M212">
-        <v>-16.13829835827584</v>
+        <v>-18.440883451269883</v>
       </c>
       <c r="N212">
         <v>1.5</v>
@@ -8375,12 +8299,12 @@
         <v>0.72314801614797197</v>
       </c>
     </row>
-    <row r="213" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B213">
-        <v>1.176E-6</v>
+        <v>9.8000000000000004E-8</v>
       </c>
       <c r="C213" t="s">
         <v>8</v>
@@ -8404,7 +8328,7 @@
         <v>2</v>
       </c>
       <c r="M213">
-        <v>-13.653391708487838</v>
+        <v>-16.13829835827584</v>
       </c>
       <c r="N213">
         <v>1.5</v>
@@ -8425,18 +8349,18 @@
         <v>1.2</v>
       </c>
       <c r="T213">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="U213">
-        <v>0.51215847306170115</v>
-      </c>
-    </row>
-    <row r="214" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+        <v>0.72314801614797197</v>
+      </c>
+    </row>
+    <row r="214" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B214">
-        <v>1.96E-8</v>
+        <v>1.176E-6</v>
       </c>
       <c r="C214" t="s">
         <v>8</v>
@@ -8460,7 +8384,7 @@
         <v>2</v>
       </c>
       <c r="M214">
-        <v>-17.74773627070994</v>
+        <v>-13.653391708487838</v>
       </c>
       <c r="N214">
         <v>1.5</v>
@@ -8487,12 +8411,12 @@
         <v>0.51215847306170115</v>
       </c>
     </row>
-    <row r="215" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B215">
-        <v>4.8999999999999997E-7</v>
+        <v>1.96E-8</v>
       </c>
       <c r="C215" t="s">
         <v>8</v>
@@ -8516,7 +8440,7 @@
         <v>2</v>
       </c>
       <c r="M215">
-        <v>-14.528860445841739</v>
+        <v>-17.74773627070994</v>
       </c>
       <c r="N215">
         <v>1.5</v>
@@ -8543,12 +8467,12 @@
         <v>0.51215847306170115</v>
       </c>
     </row>
-    <row r="216" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B216">
-        <v>1.9600000000000001E-7</v>
+        <v>4.8999999999999997E-7</v>
       </c>
       <c r="C216" t="s">
         <v>8</v>
@@ -8572,7 +8496,7 @@
         <v>2</v>
       </c>
       <c r="M216">
-        <v>-15.445151177715895</v>
+        <v>-14.528860445841739</v>
       </c>
       <c r="N216">
         <v>1.5</v>
@@ -8599,18 +8523,18 @@
         <v>0.51215847306170115</v>
       </c>
     </row>
-    <row r="217" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B217">
-        <v>1.2739999999999999E-7</v>
+        <v>1.9600000000000001E-7</v>
       </c>
       <c r="C217" t="s">
         <v>8</v>
       </c>
       <c r="D217" t="s">
-        <v>163</v>
+        <v>142</v>
       </c>
       <c r="F217" t="s">
         <v>55</v>
@@ -8628,7 +8552,7 @@
         <v>2</v>
       </c>
       <c r="M217">
-        <v>-15.875934093808349</v>
+        <v>-15.445151177715895</v>
       </c>
       <c r="N217">
         <v>1.5</v>
@@ -8655,12 +8579,12 @@
         <v>0.51215847306170115</v>
       </c>
     </row>
-    <row r="218" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B218">
-        <v>2.9400000000000002E-9</v>
+        <v>1.2739999999999999E-7</v>
       </c>
       <c r="C218" t="s">
         <v>8</v>
@@ -8684,7 +8608,7 @@
         <v>2</v>
       </c>
       <c r="M218">
-        <v>-19.644856255595823</v>
+        <v>-15.875934093808349</v>
       </c>
       <c r="N218">
         <v>1.5</v>
@@ -8711,12 +8635,12 @@
         <v>0.51215847306170115</v>
       </c>
     </row>
-    <row r="219" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B219">
-        <v>4.9000000000000002E-8</v>
+        <v>2.9400000000000002E-9</v>
       </c>
       <c r="C219" t="s">
         <v>8</v>
@@ -8740,7 +8664,7 @@
         <v>2</v>
       </c>
       <c r="M219">
-        <v>-16.831445538835784</v>
+        <v>-19.644856255595823</v>
       </c>
       <c r="N219">
         <v>1.5</v>
@@ -8767,9 +8691,9 @@
         <v>0.51215847306170115</v>
       </c>
     </row>
-    <row r="220" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B220">
         <v>4.9000000000000002E-8</v>
@@ -8823,295 +8747,237 @@
         <v>0.51215847306170115</v>
       </c>
     </row>
-    <row r="221" spans="1:21" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="222" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A222" t="s">
+    <row r="221" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A221" t="s">
+        <v>166</v>
+      </c>
+      <c r="B221">
+        <v>4.9000000000000002E-8</v>
+      </c>
+      <c r="C221" t="s">
+        <v>8</v>
+      </c>
+      <c r="D221" t="s">
+        <v>163</v>
+      </c>
+      <c r="F221" t="s">
+        <v>55</v>
+      </c>
+      <c r="H221" t="s">
+        <v>56</v>
+      </c>
+      <c r="I221" t="s">
+        <v>143</v>
+      </c>
+      <c r="K221" t="s">
+        <v>134</v>
+      </c>
+      <c r="L221">
+        <v>2</v>
+      </c>
+      <c r="M221">
+        <v>-16.831445538835784</v>
+      </c>
+      <c r="N221">
+        <v>1.5</v>
+      </c>
+      <c r="O221">
+        <v>1.2</v>
+      </c>
+      <c r="P221">
+        <v>1.5</v>
+      </c>
+      <c r="Q221">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="R221">
+        <v>2</v>
+      </c>
+      <c r="S221">
+        <v>1.2</v>
+      </c>
+      <c r="T221">
+        <v>1.5</v>
+      </c>
+      <c r="U221">
+        <v>0.51215847306170115</v>
+      </c>
+    </row>
+    <row r="223" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A223" t="s">
         <v>0</v>
       </c>
-      <c r="B222" s="1" t="s">
+      <c r="B223" s="1" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="223" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A223" t="s">
+    <row r="224" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A224" t="s">
         <v>1</v>
       </c>
-      <c r="B223" t="s">
+      <c r="B224" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="224" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A224" t="s">
-        <v>2</v>
-      </c>
-      <c r="B224" t="s">
+    <row r="225" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A225" t="s">
+        <v>2</v>
+      </c>
+      <c r="B225" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="225" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A225" t="s">
+    <row r="226" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A226" t="s">
         <v>4</v>
       </c>
-      <c r="B225" t="s">
+      <c r="B226" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="226" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A226" t="s">
+    <row r="227" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A227" t="s">
         <v>5</v>
       </c>
-      <c r="B226" t="s">
+      <c r="B227" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="227" spans="1:23" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A227" s="1" t="s">
+    <row r="228" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A228" t="s">
+        <v>7</v>
+      </c>
+      <c r="B228" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="229" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A229" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="228" spans="1:23" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A228" s="1" t="s">
+    <row r="230" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A230" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B228" s="1" t="s">
+      <c r="B230" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C228" s="1" t="s">
+      <c r="C230" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D228" s="1" t="s">
+      <c r="D230" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E228" s="1" t="s">
+      <c r="E230" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F228" s="1" t="s">
+      <c r="F230" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G228" s="1" t="s">
+      <c r="G230" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H228" s="1" t="s">
+      <c r="H230" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I228" s="1" t="s">
+      <c r="I230" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="J228" s="1" t="s">
+      <c r="J230" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="K228" s="1" t="s">
+      <c r="K230" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="L228" s="1" t="s">
+      <c r="L230" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="M228" s="1" t="s">
+      <c r="M230" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="N228" s="1" t="s">
+      <c r="N230" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="O228" s="1" t="s">
+      <c r="O230" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="P228" s="1" t="s">
+      <c r="P230" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="Q228" s="1" t="s">
+      <c r="Q230" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="R228" s="1" t="s">
+      <c r="R230" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="S228" s="1" t="s">
+      <c r="S230" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="T228" s="1" t="s">
+      <c r="T230" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="U228" s="1" t="s">
+      <c r="U230" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="V228" s="1" t="s">
+      <c r="V230" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="W228" s="1" t="s">
+      <c r="W230" s="1" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="229" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A229" t="str">
-        <f>B222</f>
+    <row r="231" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A231" t="str">
+        <f>B223</f>
         <v>heat, residential, by combustion of biomethane using boiler, distributed by pipeline</v>
       </c>
-      <c r="B229">
+      <c r="B231">
         <v>1</v>
       </c>
-      <c r="C229" t="s">
+      <c r="C231" t="s">
         <v>91</v>
       </c>
-      <c r="E229" t="s">
+      <c r="E231" t="s">
         <v>41</v>
       </c>
-      <c r="F229" t="s">
+      <c r="F231" t="s">
         <v>28</v>
       </c>
-      <c r="G229" t="s">
+      <c r="G231" t="s">
         <v>90</v>
-      </c>
-      <c r="K229" t="s">
-        <v>134</v>
-      </c>
-      <c r="W229" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="230" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A230" t="s">
-        <v>59</v>
-      </c>
-      <c r="B230">
-        <v>4.0327784230223253E-7</v>
-      </c>
-      <c r="C230" t="s">
-        <v>7</v>
-      </c>
-      <c r="E230" t="s">
-        <v>60</v>
-      </c>
-      <c r="F230" t="s">
-        <v>29</v>
-      </c>
-      <c r="G230" t="s">
-        <v>61</v>
-      </c>
-      <c r="H230" t="s">
-        <v>35</v>
-      </c>
-      <c r="I230" t="s">
-        <v>136</v>
-      </c>
-      <c r="K230" t="s">
-        <v>134</v>
-      </c>
-      <c r="L230">
-        <v>2</v>
-      </c>
-      <c r="M230">
-        <v>-14.723640077557722</v>
-      </c>
-      <c r="N230">
-        <v>1.05</v>
-      </c>
-      <c r="O230">
-        <v>1.2</v>
-      </c>
-      <c r="P230">
-        <v>1</v>
-      </c>
-      <c r="Q230">
-        <v>1.01</v>
-      </c>
-      <c r="R230">
-        <v>1.2</v>
-      </c>
-      <c r="S230">
-        <v>1.2</v>
-      </c>
-      <c r="T230">
-        <v>3</v>
-      </c>
-      <c r="U230">
-        <v>0.57209088006881903</v>
-      </c>
-    </row>
-    <row r="231" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A231" t="s">
-        <v>63</v>
-      </c>
-      <c r="B231">
-        <v>8.8199999999999998E-7</v>
-      </c>
-      <c r="C231" t="s">
-        <v>64</v>
-      </c>
-      <c r="E231" t="s">
-        <v>60</v>
-      </c>
-      <c r="F231" t="s">
-        <v>29</v>
-      </c>
-      <c r="G231" t="s">
-        <v>65</v>
-      </c>
-      <c r="H231" t="s">
-        <v>35</v>
-      </c>
-      <c r="I231" t="s">
-        <v>66</v>
       </c>
       <c r="K231" t="s">
         <v>134</v>
       </c>
-      <c r="L231">
-        <v>2</v>
-      </c>
-      <c r="M231">
-        <v>-13.94107378093962</v>
-      </c>
-      <c r="N231">
-        <v>1.05</v>
-      </c>
-      <c r="O231">
-        <v>1.2</v>
-      </c>
-      <c r="P231">
-        <v>1</v>
-      </c>
-      <c r="Q231">
-        <v>1.01</v>
-      </c>
-      <c r="R231">
-        <v>1.2</v>
-      </c>
-      <c r="S231">
-        <v>1.2</v>
-      </c>
-      <c r="T231">
-        <v>3</v>
-      </c>
-      <c r="U231">
-        <v>0.57209088006881903</v>
-      </c>
-    </row>
-    <row r="232" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+      <c r="W231" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="232" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
-        <v>109</v>
+        <v>59</v>
       </c>
       <c r="B232">
-        <v>7.3399999999999995E-4</v>
+        <v>4.0327784230223253E-7</v>
       </c>
       <c r="C232" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
       <c r="E232" t="s">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="F232" t="s">
         <v>29</v>
       </c>
       <c r="G232" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="H232" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="I232" t="s">
-        <v>72</v>
-      </c>
-      <c r="J232" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K232" t="s">
         <v>134</v>
@@ -9120,7 +8986,7 @@
         <v>2</v>
       </c>
       <c r="M232">
-        <v>-7.2170015293497585</v>
+        <v>-14.723640077557722</v>
       </c>
       <c r="N232">
         <v>1.05</v>
@@ -9141,39 +9007,36 @@
         <v>1.2</v>
       </c>
       <c r="T232">
-        <v>1.05</v>
+        <v>3</v>
       </c>
       <c r="U232">
-        <v>0.16169679924070957</v>
+        <v>0.57209088006881903</v>
       </c>
     </row>
     <row r="233" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
-        <v>174</v>
+        <v>63</v>
       </c>
       <c r="B233">
-        <v>1.9025875190258751E-2</v>
+        <v>8.8199999999999998E-7</v>
       </c>
       <c r="C233" t="s">
-        <v>8</v>
+        <v>64</v>
       </c>
       <c r="E233" t="s">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="F233" t="s">
         <v>29</v>
       </c>
       <c r="G233" t="s">
-        <v>175</v>
+        <v>65</v>
       </c>
       <c r="H233" t="s">
-        <v>175</v>
+        <v>35</v>
       </c>
       <c r="I233" t="s">
-        <v>139</v>
-      </c>
-      <c r="J233" t="s">
-        <v>140</v>
+        <v>66</v>
       </c>
       <c r="K233" t="s">
         <v>134</v>
@@ -9182,7 +9045,7 @@
         <v>2</v>
       </c>
       <c r="M233">
-        <v>-3.9619553741763553</v>
+        <v>-13.94107378093962</v>
       </c>
       <c r="N233">
         <v>1.05</v>
@@ -9203,33 +9066,39 @@
         <v>1.2</v>
       </c>
       <c r="T233">
-        <v>1.05</v>
+        <v>3</v>
       </c>
       <c r="U233">
-        <v>0.16169679924070957</v>
-      </c>
-    </row>
-    <row r="234" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+        <v>0.57209088006881903</v>
+      </c>
+    </row>
+    <row r="234" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
-        <v>141</v>
+        <v>109</v>
       </c>
       <c r="B234">
-        <v>9.7999999999999992E-10</v>
+        <v>7.3399999999999995E-4</v>
       </c>
       <c r="C234" t="s">
-        <v>8</v>
-      </c>
-      <c r="D234" t="s">
-        <v>142</v>
+        <v>48</v>
+      </c>
+      <c r="E234" t="s">
+        <v>41</v>
       </c>
       <c r="F234" t="s">
-        <v>55</v>
+        <v>29</v>
+      </c>
+      <c r="G234" t="s">
+        <v>49</v>
       </c>
       <c r="H234" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="I234" t="s">
-        <v>143</v>
+        <v>72</v>
+      </c>
+      <c r="J234" t="s">
+        <v>137</v>
       </c>
       <c r="K234" t="s">
         <v>134</v>
@@ -9238,54 +9107,60 @@
         <v>2</v>
       </c>
       <c r="M234">
-        <v>-20.74346854426393</v>
+        <v>-7.2170015293497585</v>
       </c>
       <c r="N234">
-        <v>1.5</v>
+        <v>1.05</v>
       </c>
       <c r="O234">
         <v>1.2</v>
       </c>
       <c r="P234">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="Q234">
-        <v>1.1000000000000001</v>
+        <v>1.01</v>
       </c>
       <c r="R234">
-        <v>2</v>
+        <v>1.2</v>
       </c>
       <c r="S234">
         <v>1.2</v>
       </c>
       <c r="T234">
-        <v>1.5</v>
+        <v>1.05</v>
       </c>
       <c r="U234">
-        <v>0.51215847306170115</v>
-      </c>
-    </row>
-    <row r="235" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+        <v>0.16169679924070957</v>
+      </c>
+    </row>
+    <row r="235" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
-        <v>144</v>
+        <v>174</v>
       </c>
       <c r="B235">
-        <v>1.4700000000000001E-7</v>
+        <v>1.9025875190258751E-2</v>
       </c>
       <c r="C235" t="s">
         <v>8</v>
       </c>
-      <c r="D235" t="s">
-        <v>142</v>
+      <c r="E235" t="s">
+        <v>41</v>
       </c>
       <c r="F235" t="s">
-        <v>55</v>
+        <v>29</v>
+      </c>
+      <c r="G235" t="s">
+        <v>175</v>
       </c>
       <c r="H235" t="s">
-        <v>56</v>
+        <v>175</v>
       </c>
       <c r="I235" t="s">
-        <v>143</v>
+        <v>139</v>
+      </c>
+      <c r="J235" t="s">
+        <v>140</v>
       </c>
       <c r="K235" t="s">
         <v>134</v>
@@ -9294,39 +9169,39 @@
         <v>2</v>
       </c>
       <c r="M235">
-        <v>-15.732833250167674</v>
+        <v>-3.9619553741763553</v>
       </c>
       <c r="N235">
-        <v>1.5</v>
+        <v>1.05</v>
       </c>
       <c r="O235">
         <v>1.2</v>
       </c>
       <c r="P235">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="Q235">
-        <v>1.1000000000000001</v>
+        <v>1.01</v>
       </c>
       <c r="R235">
-        <v>2</v>
+        <v>1.2</v>
       </c>
       <c r="S235">
         <v>1.2</v>
       </c>
       <c r="T235">
-        <v>1.5</v>
+        <v>1.05</v>
       </c>
       <c r="U235">
-        <v>0.51215847306170115</v>
-      </c>
-    </row>
-    <row r="236" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+        <v>0.16169679924070957</v>
+      </c>
+    </row>
+    <row r="236" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="B236">
-        <v>3.9200000000000002E-7</v>
+        <v>9.7999999999999992E-10</v>
       </c>
       <c r="C236" t="s">
         <v>8</v>
@@ -9350,7 +9225,7 @@
         <v>2</v>
       </c>
       <c r="M236">
-        <v>-14.752003997155949</v>
+        <v>-20.74346854426393</v>
       </c>
       <c r="N236">
         <v>1.5</v>
@@ -9377,12 +9252,12 @@
         <v>0.51215847306170115</v>
       </c>
     </row>
-    <row r="237" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B237">
-        <v>9.7999999999999994E-12</v>
+        <v>1.4700000000000001E-7</v>
       </c>
       <c r="C237" t="s">
         <v>8</v>
@@ -9406,7 +9281,7 @@
         <v>2</v>
       </c>
       <c r="M237">
-        <v>-25.348638730252024</v>
+        <v>-15.732833250167674</v>
       </c>
       <c r="N237">
         <v>1.5</v>
@@ -9433,12 +9308,12 @@
         <v>0.51215847306170115</v>
       </c>
     </row>
-    <row r="238" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B238">
-        <v>5.2130898021308984E-2</v>
+        <v>3.9200000000000002E-7</v>
       </c>
       <c r="C238" t="s">
         <v>8</v>
@@ -9462,7 +9337,7 @@
         <v>2</v>
       </c>
       <c r="M238">
-        <v>-2.9539974537763762</v>
+        <v>-14.752003997155949</v>
       </c>
       <c r="N238">
         <v>1.5</v>
@@ -9483,18 +9358,18 @@
         <v>1.2</v>
       </c>
       <c r="T238">
-        <v>1.05</v>
+        <v>1.5</v>
       </c>
       <c r="U238">
-        <v>0.47095746419981693</v>
-      </c>
-    </row>
-    <row r="239" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+        <v>0.51215847306170115</v>
+      </c>
+    </row>
+    <row r="239" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B239">
-        <v>5.7819999999999999E-6</v>
+        <v>9.7999999999999994E-12</v>
       </c>
       <c r="C239" t="s">
         <v>8</v>
@@ -9518,7 +9393,7 @@
         <v>2</v>
       </c>
       <c r="M239">
-        <v>-12.060760914370119</v>
+        <v>-25.348638730252024</v>
       </c>
       <c r="N239">
         <v>1.5</v>
@@ -9539,18 +9414,18 @@
         <v>1.2</v>
       </c>
       <c r="T239">
-        <v>5</v>
+        <v>1.5</v>
       </c>
       <c r="U239">
-        <v>0.93208283513358414</v>
-      </c>
-    </row>
-    <row r="240" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+        <v>0.51215847306170115</v>
+      </c>
+    </row>
+    <row r="240" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B240">
-        <v>4.8999999999999997E-7</v>
+        <v>5.2130898021308984E-2</v>
       </c>
       <c r="C240" t="s">
         <v>8</v>
@@ -9574,7 +9449,7 @@
         <v>2</v>
       </c>
       <c r="M240">
-        <v>-14.528860445841739</v>
+        <v>-2.9539974537763762</v>
       </c>
       <c r="N240">
         <v>1.5</v>
@@ -9595,18 +9470,18 @@
         <v>1.2</v>
       </c>
       <c r="T240">
-        <v>1.5</v>
+        <v>1.05</v>
       </c>
       <c r="U240">
-        <v>0.51215847306170115</v>
-      </c>
-    </row>
-    <row r="241" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+        <v>0.47095746419981693</v>
+      </c>
+    </row>
+    <row r="241" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B241">
-        <v>2.9400000000000001E-17</v>
+        <v>5.7819999999999999E-6</v>
       </c>
       <c r="C241" t="s">
         <v>8</v>
@@ -9630,7 +9505,7 @@
         <v>2</v>
       </c>
       <c r="M241">
-        <v>-38.065536999548186</v>
+        <v>-12.060760914370119</v>
       </c>
       <c r="N241">
         <v>1.5</v>
@@ -9651,18 +9526,18 @@
         <v>1.2</v>
       </c>
       <c r="T241">
-        <v>1.5</v>
+        <v>5</v>
       </c>
       <c r="U241">
-        <v>0.51215847306170115</v>
-      </c>
-    </row>
-    <row r="242" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+        <v>0.93208283513358414</v>
+      </c>
+    </row>
+    <row r="242" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B242">
-        <v>9.8000000000000004E-8</v>
+        <v>4.8999999999999997E-7</v>
       </c>
       <c r="C242" t="s">
         <v>8</v>
@@ -9686,7 +9561,7 @@
         <v>2</v>
       </c>
       <c r="M242">
-        <v>-16.13829835827584</v>
+        <v>-14.528860445841739</v>
       </c>
       <c r="N242">
         <v>1.5</v>
@@ -9713,12 +9588,12 @@
         <v>0.51215847306170115</v>
       </c>
     </row>
-    <row r="243" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B243">
-        <v>2.9400000000000003E-11</v>
+        <v>2.9400000000000001E-17</v>
       </c>
       <c r="C243" t="s">
         <v>8</v>
@@ -9742,7 +9617,7 @@
         <v>2</v>
       </c>
       <c r="M243">
-        <v>-24.250026441583913</v>
+        <v>-38.065536999548186</v>
       </c>
       <c r="N243">
         <v>1.5</v>
@@ -9763,18 +9638,18 @@
         <v>1.2</v>
       </c>
       <c r="T243">
-        <v>5</v>
+        <v>1.5</v>
       </c>
       <c r="U243">
-        <v>0.93208283513358414</v>
-      </c>
-    </row>
-    <row r="244" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+        <v>0.51215847306170115</v>
+      </c>
+    </row>
+    <row r="244" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B244">
-        <v>1.9599999999999999E-6</v>
+        <v>9.8000000000000004E-8</v>
       </c>
       <c r="C244" t="s">
         <v>8</v>
@@ -9798,7 +9673,7 @@
         <v>2</v>
       </c>
       <c r="M244">
-        <v>-13.142566084721848</v>
+        <v>-16.13829835827584</v>
       </c>
       <c r="N244">
         <v>1.5</v>
@@ -9825,12 +9700,12 @@
         <v>0.51215847306170115</v>
       </c>
     </row>
-    <row r="245" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B245">
-        <v>0</v>
+        <v>2.9400000000000003E-11</v>
       </c>
       <c r="C245" t="s">
         <v>8</v>
@@ -9851,18 +9726,42 @@
         <v>134</v>
       </c>
       <c r="L245">
-        <v>1</v>
-      </c>
-      <c r="M245" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="246" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="M245">
+        <v>-24.250026441583913</v>
+      </c>
+      <c r="N245">
+        <v>1.5</v>
+      </c>
+      <c r="O245">
+        <v>1.2</v>
+      </c>
+      <c r="P245">
+        <v>1.5</v>
+      </c>
+      <c r="Q245">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="R245">
+        <v>2</v>
+      </c>
+      <c r="S245">
+        <v>1.2</v>
+      </c>
+      <c r="T245">
+        <v>5</v>
+      </c>
+      <c r="U245">
+        <v>0.93208283513358414</v>
+      </c>
+    </row>
+    <row r="246" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
-        <v>85</v>
+        <v>154</v>
       </c>
       <c r="B246">
-        <v>9.7019999999999996E-6</v>
+        <v>1.9599999999999999E-6</v>
       </c>
       <c r="C246" t="s">
         <v>8</v>
@@ -9886,7 +9785,7 @@
         <v>2</v>
       </c>
       <c r="M246">
-        <v>-11.543178508141249</v>
+        <v>-13.142566084721848</v>
       </c>
       <c r="N246">
         <v>1.5</v>
@@ -9913,12 +9812,12 @@
         <v>0.51215847306170115</v>
       </c>
     </row>
-    <row r="247" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B247">
-        <v>9.8000000000000001E-9</v>
+        <v>0</v>
       </c>
       <c r="C247" t="s">
         <v>8</v>
@@ -9939,42 +9838,18 @@
         <v>134</v>
       </c>
       <c r="L247">
-        <v>2</v>
-      </c>
-      <c r="M247">
-        <v>-18.440883451269883</v>
-      </c>
-      <c r="N247">
-        <v>1.5</v>
-      </c>
-      <c r="O247">
-        <v>1.2</v>
-      </c>
-      <c r="P247">
-        <v>1.5</v>
-      </c>
-      <c r="Q247">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="R247">
-        <v>2</v>
-      </c>
-      <c r="S247">
-        <v>1.2</v>
-      </c>
-      <c r="T247">
-        <v>3</v>
-      </c>
-      <c r="U247">
-        <v>0.72314801614797197</v>
-      </c>
-    </row>
-    <row r="248" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="M247" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="248" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
-        <v>157</v>
+        <v>85</v>
       </c>
       <c r="B248">
-        <v>9.8000000000000004E-8</v>
+        <v>9.7019999999999996E-6</v>
       </c>
       <c r="C248" t="s">
         <v>8</v>
@@ -9998,7 +9873,7 @@
         <v>2</v>
       </c>
       <c r="M248">
-        <v>-16.13829835827584</v>
+        <v>-11.543178508141249</v>
       </c>
       <c r="N248">
         <v>1.5</v>
@@ -10019,18 +9894,18 @@
         <v>1.2</v>
       </c>
       <c r="T248">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="U248">
-        <v>0.72314801614797197</v>
-      </c>
-    </row>
-    <row r="249" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+        <v>0.51215847306170115</v>
+      </c>
+    </row>
+    <row r="249" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B249">
-        <v>1.176E-6</v>
+        <v>9.8000000000000001E-9</v>
       </c>
       <c r="C249" t="s">
         <v>8</v>
@@ -10054,7 +9929,7 @@
         <v>2</v>
       </c>
       <c r="M249">
-        <v>-13.653391708487838</v>
+        <v>-18.440883451269883</v>
       </c>
       <c r="N249">
         <v>1.5</v>
@@ -10075,18 +9950,18 @@
         <v>1.2</v>
       </c>
       <c r="T249">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="U249">
-        <v>0.51215847306170115</v>
-      </c>
-    </row>
-    <row r="250" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+        <v>0.72314801614797197</v>
+      </c>
+    </row>
+    <row r="250" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B250">
-        <v>1.96E-8</v>
+        <v>9.8000000000000004E-8</v>
       </c>
       <c r="C250" t="s">
         <v>8</v>
@@ -10110,7 +9985,7 @@
         <v>2</v>
       </c>
       <c r="M250">
-        <v>-17.74773627070994</v>
+        <v>-16.13829835827584</v>
       </c>
       <c r="N250">
         <v>1.5</v>
@@ -10131,18 +10006,18 @@
         <v>1.2</v>
       </c>
       <c r="T250">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="U250">
-        <v>0.51215847306170115</v>
-      </c>
-    </row>
-    <row r="251" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+        <v>0.72314801614797197</v>
+      </c>
+    </row>
+    <row r="251" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B251">
-        <v>4.8999999999999997E-7</v>
+        <v>1.176E-6</v>
       </c>
       <c r="C251" t="s">
         <v>8</v>
@@ -10166,7 +10041,7 @@
         <v>2</v>
       </c>
       <c r="M251">
-        <v>-14.528860445841739</v>
+        <v>-13.653391708487838</v>
       </c>
       <c r="N251">
         <v>1.5</v>
@@ -10193,12 +10068,12 @@
         <v>0.51215847306170115</v>
       </c>
     </row>
-    <row r="252" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B252">
-        <v>1.9600000000000001E-7</v>
+        <v>1.96E-8</v>
       </c>
       <c r="C252" t="s">
         <v>8</v>
@@ -10222,7 +10097,7 @@
         <v>2</v>
       </c>
       <c r="M252">
-        <v>-15.445151177715895</v>
+        <v>-17.74773627070994</v>
       </c>
       <c r="N252">
         <v>1.5</v>
@@ -10249,18 +10124,18 @@
         <v>0.51215847306170115</v>
       </c>
     </row>
-    <row r="253" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B253">
-        <v>1.2739999999999999E-7</v>
+        <v>4.8999999999999997E-7</v>
       </c>
       <c r="C253" t="s">
         <v>8</v>
       </c>
       <c r="D253" t="s">
-        <v>163</v>
+        <v>142</v>
       </c>
       <c r="F253" t="s">
         <v>55</v>
@@ -10278,7 +10153,7 @@
         <v>2</v>
       </c>
       <c r="M253">
-        <v>-15.875934093808349</v>
+        <v>-14.528860445841739</v>
       </c>
       <c r="N253">
         <v>1.5</v>
@@ -10305,18 +10180,18 @@
         <v>0.51215847306170115</v>
       </c>
     </row>
-    <row r="254" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B254">
-        <v>2.9400000000000002E-9</v>
+        <v>1.9600000000000001E-7</v>
       </c>
       <c r="C254" t="s">
         <v>8</v>
       </c>
       <c r="D254" t="s">
-        <v>163</v>
+        <v>142</v>
       </c>
       <c r="F254" t="s">
         <v>55</v>
@@ -10334,7 +10209,7 @@
         <v>2</v>
       </c>
       <c r="M254">
-        <v>-19.644856255595823</v>
+        <v>-15.445151177715895</v>
       </c>
       <c r="N254">
         <v>1.5</v>
@@ -10361,12 +10236,12 @@
         <v>0.51215847306170115</v>
       </c>
     </row>
-    <row r="255" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B255">
-        <v>4.9000000000000002E-8</v>
+        <v>1.2739999999999999E-7</v>
       </c>
       <c r="C255" t="s">
         <v>8</v>
@@ -10390,7 +10265,7 @@
         <v>2</v>
       </c>
       <c r="M255">
-        <v>-16.831445538835784</v>
+        <v>-15.875934093808349</v>
       </c>
       <c r="N255">
         <v>1.5</v>
@@ -10417,12 +10292,12 @@
         <v>0.51215847306170115</v>
       </c>
     </row>
-    <row r="256" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B256">
-        <v>4.9000000000000002E-8</v>
+        <v>2.9400000000000002E-9</v>
       </c>
       <c r="C256" t="s">
         <v>8</v>
@@ -10446,7 +10321,7 @@
         <v>2</v>
       </c>
       <c r="M256">
-        <v>-16.831445538835784</v>
+        <v>-19.644856255595823</v>
       </c>
       <c r="N256">
         <v>1.5</v>
@@ -10473,357 +10348,293 @@
         <v>0.51215847306170115</v>
       </c>
     </row>
-    <row r="257" spans="1:23" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="258" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A257" t="s">
+        <v>165</v>
+      </c>
+      <c r="B257">
+        <v>4.9000000000000002E-8</v>
+      </c>
+      <c r="C257" t="s">
+        <v>8</v>
+      </c>
+      <c r="D257" t="s">
+        <v>163</v>
+      </c>
+      <c r="F257" t="s">
+        <v>55</v>
+      </c>
+      <c r="H257" t="s">
+        <v>56</v>
+      </c>
+      <c r="I257" t="s">
+        <v>143</v>
+      </c>
+      <c r="K257" t="s">
+        <v>134</v>
+      </c>
+      <c r="L257">
+        <v>2</v>
+      </c>
+      <c r="M257">
+        <v>-16.831445538835784</v>
+      </c>
+      <c r="N257">
+        <v>1.5</v>
+      </c>
+      <c r="O257">
+        <v>1.2</v>
+      </c>
+      <c r="P257">
+        <v>1.5</v>
+      </c>
+      <c r="Q257">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="R257">
+        <v>2</v>
+      </c>
+      <c r="S257">
+        <v>1.2</v>
+      </c>
+      <c r="T257">
+        <v>1.5</v>
+      </c>
+      <c r="U257">
+        <v>0.51215847306170115</v>
+      </c>
+    </row>
+    <row r="258" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
+        <v>166</v>
+      </c>
+      <c r="B258">
+        <v>4.9000000000000002E-8</v>
+      </c>
+      <c r="C258" t="s">
+        <v>8</v>
+      </c>
+      <c r="D258" t="s">
+        <v>163</v>
+      </c>
+      <c r="F258" t="s">
+        <v>55</v>
+      </c>
+      <c r="H258" t="s">
+        <v>56</v>
+      </c>
+      <c r="I258" t="s">
+        <v>143</v>
+      </c>
+      <c r="K258" t="s">
+        <v>134</v>
+      </c>
+      <c r="L258">
+        <v>2</v>
+      </c>
+      <c r="M258">
+        <v>-16.831445538835784</v>
+      </c>
+      <c r="N258">
+        <v>1.5</v>
+      </c>
+      <c r="O258">
+        <v>1.2</v>
+      </c>
+      <c r="P258">
+        <v>1.5</v>
+      </c>
+      <c r="Q258">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="R258">
+        <v>2</v>
+      </c>
+      <c r="S258">
+        <v>1.2</v>
+      </c>
+      <c r="T258">
+        <v>1.5</v>
+      </c>
+      <c r="U258">
+        <v>0.51215847306170115</v>
+      </c>
+    </row>
+    <row r="260" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A260" t="s">
         <v>0</v>
       </c>
-      <c r="B258" s="1" t="s">
+      <c r="B260" s="1" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="259" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A259" t="s">
+    <row r="261" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A261" t="s">
         <v>1</v>
       </c>
-      <c r="B259" t="s">
+      <c r="B261" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="260" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A260" t="s">
-        <v>2</v>
-      </c>
-      <c r="B260" t="s">
+    <row r="262" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A262" t="s">
+        <v>2</v>
+      </c>
+      <c r="B262" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="261" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A261" t="s">
+    <row r="263" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A263" t="s">
         <v>4</v>
       </c>
-      <c r="B261" t="s">
+      <c r="B263" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="262" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A262" t="s">
+    <row r="264" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A264" t="s">
         <v>5</v>
       </c>
-      <c r="B262" t="s">
+      <c r="B264" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="263" spans="1:23" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A263" s="1" t="s">
+    <row r="265" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A265" t="s">
+        <v>7</v>
+      </c>
+      <c r="B265" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="266" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A266" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="264" spans="1:23" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A264" s="1" t="s">
+    <row r="267" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A267" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B264" s="1" t="s">
+      <c r="B267" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C264" s="1" t="s">
+      <c r="C267" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D264" s="1" t="s">
+      <c r="D267" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E264" s="1" t="s">
+      <c r="E267" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F264" s="1" t="s">
+      <c r="F267" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G264" s="1" t="s">
+      <c r="G267" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H264" s="1" t="s">
+      <c r="H267" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I264" s="1" t="s">
+      <c r="I267" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="J264" s="1" t="s">
+      <c r="J267" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="K264" s="1" t="s">
+      <c r="K267" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="L264" s="1" t="s">
+      <c r="L267" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="M264" s="1" t="s">
+      <c r="M267" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="N264" s="1" t="s">
+      <c r="N267" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="O264" s="1" t="s">
+      <c r="O267" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="P264" s="1" t="s">
+      <c r="P267" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="Q264" s="1" t="s">
+      <c r="Q267" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="R264" s="1" t="s">
+      <c r="R267" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="S264" s="1" t="s">
+      <c r="S267" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="T264" s="1" t="s">
+      <c r="T267" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="U264" s="1" t="s">
+      <c r="U267" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="V264" s="1" t="s">
+      <c r="V267" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="W264" s="1" t="s">
+      <c r="W267" s="1" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="265" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A265" t="str">
-        <f>B258</f>
+    <row r="268" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A268" t="str">
+        <f>B260</f>
         <v>heat, residential, by combustion of liquefied petroleum gas using boiler, distributed by pipeline</v>
       </c>
-      <c r="B265">
+      <c r="B268">
         <v>1</v>
       </c>
-      <c r="C265" t="s">
+      <c r="C268" t="s">
         <v>91</v>
-      </c>
-      <c r="E265" t="s">
-        <v>41</v>
-      </c>
-      <c r="F265" t="s">
-        <v>28</v>
-      </c>
-      <c r="G265" t="s">
-        <v>90</v>
-      </c>
-      <c r="K265" t="s">
-        <v>134</v>
-      </c>
-      <c r="W265" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="266" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A266" t="s">
-        <v>59</v>
-      </c>
-      <c r="B266">
-        <v>4.0327784230223253E-7</v>
-      </c>
-      <c r="C266" t="s">
-        <v>7</v>
-      </c>
-      <c r="E266" t="s">
-        <v>60</v>
-      </c>
-      <c r="F266" t="s">
-        <v>29</v>
-      </c>
-      <c r="G266" t="s">
-        <v>61</v>
-      </c>
-      <c r="H266" t="s">
-        <v>35</v>
-      </c>
-      <c r="I266" t="s">
-        <v>136</v>
-      </c>
-      <c r="K266" t="s">
-        <v>134</v>
-      </c>
-      <c r="L266">
-        <v>2</v>
-      </c>
-      <c r="M266">
-        <v>-14.723640077557722</v>
-      </c>
-      <c r="N266">
-        <v>1.05</v>
-      </c>
-      <c r="O266">
-        <v>1.2</v>
-      </c>
-      <c r="P266">
-        <v>1</v>
-      </c>
-      <c r="Q266">
-        <v>1.01</v>
-      </c>
-      <c r="R266">
-        <v>1.2</v>
-      </c>
-      <c r="S266">
-        <v>1.2</v>
-      </c>
-      <c r="T266">
-        <v>3</v>
-      </c>
-      <c r="U266">
-        <v>0.57209088006881903</v>
-      </c>
-    </row>
-    <row r="267" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A267" t="s">
-        <v>63</v>
-      </c>
-      <c r="B267">
-        <v>8.8199999999999998E-7</v>
-      </c>
-      <c r="C267" t="s">
-        <v>64</v>
-      </c>
-      <c r="E267" t="s">
-        <v>60</v>
-      </c>
-      <c r="F267" t="s">
-        <v>29</v>
-      </c>
-      <c r="G267" t="s">
-        <v>65</v>
-      </c>
-      <c r="H267" t="s">
-        <v>35</v>
-      </c>
-      <c r="I267" t="s">
-        <v>66</v>
-      </c>
-      <c r="K267" t="s">
-        <v>134</v>
-      </c>
-      <c r="L267">
-        <v>2</v>
-      </c>
-      <c r="M267">
-        <v>-13.94107378093962</v>
-      </c>
-      <c r="N267">
-        <v>1.05</v>
-      </c>
-      <c r="O267">
-        <v>1.2</v>
-      </c>
-      <c r="P267">
-        <v>1</v>
-      </c>
-      <c r="Q267">
-        <v>1.01</v>
-      </c>
-      <c r="R267">
-        <v>1.2</v>
-      </c>
-      <c r="S267">
-        <v>1.2</v>
-      </c>
-      <c r="T267">
-        <v>3</v>
-      </c>
-      <c r="U267">
-        <v>0.57209088006881903</v>
-      </c>
-    </row>
-    <row r="268" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A268" t="s">
-        <v>109</v>
-      </c>
-      <c r="B268">
-        <v>7.3399999999999995E-4</v>
-      </c>
-      <c r="C268" t="s">
-        <v>48</v>
       </c>
       <c r="E268" t="s">
         <v>41</v>
       </c>
       <c r="F268" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G268" t="s">
-        <v>49</v>
-      </c>
-      <c r="H268" t="s">
-        <v>10</v>
-      </c>
-      <c r="I268" t="s">
-        <v>72</v>
-      </c>
-      <c r="J268" t="s">
-        <v>137</v>
+        <v>90</v>
       </c>
       <c r="K268" t="s">
         <v>134</v>
       </c>
-      <c r="L268">
-        <v>2</v>
-      </c>
-      <c r="M268">
-        <v>-7.2170015293497585</v>
-      </c>
-      <c r="N268">
-        <v>1.05</v>
-      </c>
-      <c r="O268">
-        <v>1.2</v>
-      </c>
-      <c r="P268">
-        <v>1</v>
-      </c>
-      <c r="Q268">
-        <v>1.01</v>
-      </c>
-      <c r="R268">
-        <v>1.2</v>
-      </c>
-      <c r="S268">
-        <v>1.2</v>
-      </c>
-      <c r="T268">
-        <v>1.05</v>
-      </c>
-      <c r="U268">
-        <v>0.16169679924070957</v>
-      </c>
-    </row>
-    <row r="269" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+      <c r="W268" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="269" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
-        <v>180</v>
+        <v>59</v>
       </c>
       <c r="B269">
-        <v>1.9025875190258751E-2</v>
+        <v>4.0327784230223253E-7</v>
       </c>
       <c r="C269" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E269" t="s">
-        <v>110</v>
+        <v>60</v>
       </c>
       <c r="F269" t="s">
         <v>29</v>
       </c>
       <c r="G269" t="s">
-        <v>181</v>
+        <v>61</v>
       </c>
       <c r="H269" t="s">
-        <v>138</v>
+        <v>35</v>
       </c>
       <c r="I269" t="s">
-        <v>139</v>
-      </c>
-      <c r="J269" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="K269" t="s">
         <v>134</v>
@@ -10832,7 +10643,7 @@
         <v>2</v>
       </c>
       <c r="M269">
-        <v>-3.9619553741763553</v>
+        <v>-14.723640077557722</v>
       </c>
       <c r="N269">
         <v>1.05</v>
@@ -10853,33 +10664,36 @@
         <v>1.2</v>
       </c>
       <c r="T269">
-        <v>1.05</v>
+        <v>3</v>
       </c>
       <c r="U269">
-        <v>0.16169679924070957</v>
-      </c>
-    </row>
-    <row r="270" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+        <v>0.57209088006881903</v>
+      </c>
+    </row>
+    <row r="270" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
-        <v>141</v>
+        <v>63</v>
       </c>
       <c r="B270">
-        <v>9.7999999999999992E-10</v>
+        <v>8.8199999999999998E-7</v>
       </c>
       <c r="C270" t="s">
-        <v>8</v>
-      </c>
-      <c r="D270" t="s">
-        <v>142</v>
+        <v>64</v>
+      </c>
+      <c r="E270" t="s">
+        <v>60</v>
       </c>
       <c r="F270" t="s">
-        <v>55</v>
+        <v>29</v>
+      </c>
+      <c r="G270" t="s">
+        <v>65</v>
       </c>
       <c r="H270" t="s">
-        <v>56</v>
+        <v>35</v>
       </c>
       <c r="I270" t="s">
-        <v>143</v>
+        <v>66</v>
       </c>
       <c r="K270" t="s">
         <v>134</v>
@@ -10888,54 +10702,60 @@
         <v>2</v>
       </c>
       <c r="M270">
-        <v>-20.74346854426393</v>
+        <v>-13.94107378093962</v>
       </c>
       <c r="N270">
-        <v>1.5</v>
+        <v>1.05</v>
       </c>
       <c r="O270">
         <v>1.2</v>
       </c>
       <c r="P270">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="Q270">
-        <v>1.1000000000000001</v>
+        <v>1.01</v>
       </c>
       <c r="R270">
-        <v>2</v>
+        <v>1.2</v>
       </c>
       <c r="S270">
         <v>1.2</v>
       </c>
       <c r="T270">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="U270">
-        <v>0.51215847306170115</v>
-      </c>
-    </row>
-    <row r="271" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+        <v>0.57209088006881903</v>
+      </c>
+    </row>
+    <row r="271" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
-        <v>144</v>
+        <v>109</v>
       </c>
       <c r="B271">
-        <v>1.4700000000000001E-7</v>
+        <v>7.3399999999999995E-4</v>
       </c>
       <c r="C271" t="s">
-        <v>8</v>
-      </c>
-      <c r="D271" t="s">
-        <v>142</v>
+        <v>48</v>
+      </c>
+      <c r="E271" t="s">
+        <v>41</v>
       </c>
       <c r="F271" t="s">
-        <v>55</v>
+        <v>29</v>
+      </c>
+      <c r="G271" t="s">
+        <v>49</v>
       </c>
       <c r="H271" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="I271" t="s">
-        <v>143</v>
+        <v>72</v>
+      </c>
+      <c r="J271" t="s">
+        <v>137</v>
       </c>
       <c r="K271" t="s">
         <v>134</v>
@@ -10944,54 +10764,60 @@
         <v>2</v>
       </c>
       <c r="M271">
-        <v>-15.732833250167674</v>
+        <v>-7.2170015293497585</v>
       </c>
       <c r="N271">
-        <v>1.5</v>
+        <v>1.05</v>
       </c>
       <c r="O271">
         <v>1.2</v>
       </c>
       <c r="P271">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="Q271">
-        <v>1.1000000000000001</v>
+        <v>1.01</v>
       </c>
       <c r="R271">
-        <v>2</v>
+        <v>1.2</v>
       </c>
       <c r="S271">
         <v>1.2</v>
       </c>
       <c r="T271">
-        <v>1.5</v>
+        <v>1.05</v>
       </c>
       <c r="U271">
-        <v>0.51215847306170115</v>
-      </c>
-    </row>
-    <row r="272" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+        <v>0.16169679924070957</v>
+      </c>
+    </row>
+    <row r="272" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
-        <v>145</v>
+        <v>180</v>
       </c>
       <c r="B272">
-        <v>3.9200000000000002E-7</v>
+        <v>1.9025875190258751E-2</v>
       </c>
       <c r="C272" t="s">
         <v>8</v>
       </c>
-      <c r="D272" t="s">
-        <v>142</v>
+      <c r="E272" t="s">
+        <v>110</v>
       </c>
       <c r="F272" t="s">
-        <v>55</v>
+        <v>29</v>
+      </c>
+      <c r="G272" t="s">
+        <v>181</v>
       </c>
       <c r="H272" t="s">
-        <v>56</v>
+        <v>138</v>
       </c>
       <c r="I272" t="s">
-        <v>143</v>
+        <v>139</v>
+      </c>
+      <c r="J272" t="s">
+        <v>140</v>
       </c>
       <c r="K272" t="s">
         <v>134</v>
@@ -11000,39 +10826,39 @@
         <v>2</v>
       </c>
       <c r="M272">
-        <v>-14.752003997155949</v>
+        <v>-3.9619553741763553</v>
       </c>
       <c r="N272">
-        <v>1.5</v>
+        <v>1.05</v>
       </c>
       <c r="O272">
         <v>1.2</v>
       </c>
       <c r="P272">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="Q272">
-        <v>1.1000000000000001</v>
+        <v>1.01</v>
       </c>
       <c r="R272">
-        <v>2</v>
+        <v>1.2</v>
       </c>
       <c r="S272">
         <v>1.2</v>
       </c>
       <c r="T272">
-        <v>1.5</v>
+        <v>1.05</v>
       </c>
       <c r="U272">
-        <v>0.51215847306170115</v>
-      </c>
-    </row>
-    <row r="273" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+        <v>0.16169679924070957</v>
+      </c>
+    </row>
+    <row r="273" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="B273">
-        <v>9.7999999999999994E-12</v>
+        <v>9.7999999999999992E-10</v>
       </c>
       <c r="C273" t="s">
         <v>8</v>
@@ -11056,7 +10882,7 @@
         <v>2</v>
       </c>
       <c r="M273">
-        <v>-25.348638730252024</v>
+        <v>-20.74346854426393</v>
       </c>
       <c r="N273">
         <v>1.5</v>
@@ -11083,12 +10909,12 @@
         <v>0.51215847306170115</v>
       </c>
     </row>
-    <row r="274" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B274">
-        <v>5.2130898021308984E-2</v>
+        <v>1.4700000000000001E-7</v>
       </c>
       <c r="C274" t="s">
         <v>8</v>
@@ -11109,18 +10935,42 @@
         <v>134</v>
       </c>
       <c r="L274">
-        <v>1</v>
-      </c>
-      <c r="M274" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="275" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="M274">
+        <v>-15.732833250167674</v>
+      </c>
+      <c r="N274">
+        <v>1.5</v>
+      </c>
+      <c r="O274">
+        <v>1.2</v>
+      </c>
+      <c r="P274">
+        <v>1.5</v>
+      </c>
+      <c r="Q274">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="R274">
+        <v>2</v>
+      </c>
+      <c r="S274">
+        <v>1.2</v>
+      </c>
+      <c r="T274">
+        <v>1.5</v>
+      </c>
+      <c r="U274">
+        <v>0.51215847306170115</v>
+      </c>
+    </row>
+    <row r="275" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
-        <v>172</v>
+        <v>145</v>
       </c>
       <c r="B275">
-        <v>5.7819999999999999E-6</v>
+        <v>3.9200000000000002E-7</v>
       </c>
       <c r="C275" t="s">
         <v>8</v>
@@ -11144,7 +10994,7 @@
         <v>2</v>
       </c>
       <c r="M275">
-        <v>-12.060760914370119</v>
+        <v>-14.752003997155949</v>
       </c>
       <c r="N275">
         <v>1.5</v>
@@ -11165,18 +11015,18 @@
         <v>1.2</v>
       </c>
       <c r="T275">
-        <v>5</v>
+        <v>1.5</v>
       </c>
       <c r="U275">
-        <v>0.93208283513358414</v>
-      </c>
-    </row>
-    <row r="276" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+        <v>0.51215847306170115</v>
+      </c>
+    </row>
+    <row r="276" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="B276">
-        <v>4.8999999999999997E-7</v>
+        <v>9.7999999999999994E-12</v>
       </c>
       <c r="C276" t="s">
         <v>8</v>
@@ -11200,7 +11050,7 @@
         <v>2</v>
       </c>
       <c r="M276">
-        <v>-14.528860445841739</v>
+        <v>-25.348638730252024</v>
       </c>
       <c r="N276">
         <v>1.5</v>
@@ -11227,12 +11077,12 @@
         <v>0.51215847306170115</v>
       </c>
     </row>
-    <row r="277" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="B277">
-        <v>2.9400000000000001E-17</v>
+        <v>5.2130898021308984E-2</v>
       </c>
       <c r="C277" t="s">
         <v>8</v>
@@ -11253,42 +11103,18 @@
         <v>134</v>
       </c>
       <c r="L277">
-        <v>2</v>
-      </c>
-      <c r="M277">
-        <v>-38.065536999548186</v>
-      </c>
-      <c r="N277">
-        <v>1.5</v>
-      </c>
-      <c r="O277">
-        <v>1.2</v>
-      </c>
-      <c r="P277">
-        <v>1.5</v>
-      </c>
-      <c r="Q277">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="R277">
-        <v>2</v>
-      </c>
-      <c r="S277">
-        <v>1.2</v>
-      </c>
-      <c r="T277">
-        <v>1.5</v>
-      </c>
-      <c r="U277">
-        <v>0.51215847306170115</v>
-      </c>
-    </row>
-    <row r="278" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="M277" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="278" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
-        <v>152</v>
+        <v>172</v>
       </c>
       <c r="B278">
-        <v>9.8000000000000004E-8</v>
+        <v>5.7819999999999999E-6</v>
       </c>
       <c r="C278" t="s">
         <v>8</v>
@@ -11312,7 +11138,7 @@
         <v>2</v>
       </c>
       <c r="M278">
-        <v>-16.13829835827584</v>
+        <v>-12.060760914370119</v>
       </c>
       <c r="N278">
         <v>1.5</v>
@@ -11333,18 +11159,18 @@
         <v>1.2</v>
       </c>
       <c r="T278">
-        <v>1.5</v>
+        <v>5</v>
       </c>
       <c r="U278">
-        <v>0.51215847306170115</v>
-      </c>
-    </row>
-    <row r="279" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+        <v>0.93208283513358414</v>
+      </c>
+    </row>
+    <row r="279" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B279">
-        <v>2.9400000000000003E-11</v>
+        <v>4.8999999999999997E-7</v>
       </c>
       <c r="C279" t="s">
         <v>8</v>
@@ -11368,7 +11194,7 @@
         <v>2</v>
       </c>
       <c r="M279">
-        <v>-24.250026441583913</v>
+        <v>-14.528860445841739</v>
       </c>
       <c r="N279">
         <v>1.5</v>
@@ -11389,18 +11215,18 @@
         <v>1.2</v>
       </c>
       <c r="T279">
-        <v>5</v>
+        <v>1.5</v>
       </c>
       <c r="U279">
-        <v>0.93208283513358414</v>
-      </c>
-    </row>
-    <row r="280" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+        <v>0.51215847306170115</v>
+      </c>
+    </row>
+    <row r="280" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="B280">
-        <v>1.9599999999999999E-6</v>
+        <v>2.9400000000000001E-17</v>
       </c>
       <c r="C280" t="s">
         <v>8</v>
@@ -11424,7 +11250,7 @@
         <v>2</v>
       </c>
       <c r="M280">
-        <v>-13.142566084721848</v>
+        <v>-38.065536999548186</v>
       </c>
       <c r="N280">
         <v>1.5</v>
@@ -11451,12 +11277,12 @@
         <v>0.51215847306170115</v>
       </c>
     </row>
-    <row r="281" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B281">
-        <v>0</v>
+        <v>9.8000000000000004E-8</v>
       </c>
       <c r="C281" t="s">
         <v>8</v>
@@ -11477,18 +11303,42 @@
         <v>134</v>
       </c>
       <c r="L281">
-        <v>1</v>
-      </c>
-      <c r="M281" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="282" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="M281">
+        <v>-16.13829835827584</v>
+      </c>
+      <c r="N281">
+        <v>1.5</v>
+      </c>
+      <c r="O281">
+        <v>1.2</v>
+      </c>
+      <c r="P281">
+        <v>1.5</v>
+      </c>
+      <c r="Q281">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="R281">
+        <v>2</v>
+      </c>
+      <c r="S281">
+        <v>1.2</v>
+      </c>
+      <c r="T281">
+        <v>1.5</v>
+      </c>
+      <c r="U281">
+        <v>0.51215847306170115</v>
+      </c>
+    </row>
+    <row r="282" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
-        <v>85</v>
+        <v>153</v>
       </c>
       <c r="B282">
-        <v>9.7019999999999996E-6</v>
+        <v>2.9400000000000003E-11</v>
       </c>
       <c r="C282" t="s">
         <v>8</v>
@@ -11512,7 +11362,7 @@
         <v>2</v>
       </c>
       <c r="M282">
-        <v>-11.543178508141249</v>
+        <v>-24.250026441583913</v>
       </c>
       <c r="N282">
         <v>1.5</v>
@@ -11533,18 +11383,18 @@
         <v>1.2</v>
       </c>
       <c r="T282">
-        <v>1.5</v>
+        <v>5</v>
       </c>
       <c r="U282">
-        <v>0.51215847306170115</v>
-      </c>
-    </row>
-    <row r="283" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+        <v>0.93208283513358414</v>
+      </c>
+    </row>
+    <row r="283" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B283">
-        <v>9.8000000000000001E-9</v>
+        <v>1.9599999999999999E-6</v>
       </c>
       <c r="C283" t="s">
         <v>8</v>
@@ -11568,7 +11418,7 @@
         <v>2</v>
       </c>
       <c r="M283">
-        <v>-18.440883451269883</v>
+        <v>-13.142566084721848</v>
       </c>
       <c r="N283">
         <v>1.5</v>
@@ -11589,18 +11439,18 @@
         <v>1.2</v>
       </c>
       <c r="T283">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="U283">
-        <v>0.72314801614797197</v>
-      </c>
-    </row>
-    <row r="284" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+        <v>0.51215847306170115</v>
+      </c>
+    </row>
+    <row r="284" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B284">
-        <v>9.8000000000000004E-8</v>
+        <v>0</v>
       </c>
       <c r="C284" t="s">
         <v>8</v>
@@ -11621,42 +11471,18 @@
         <v>134</v>
       </c>
       <c r="L284">
-        <v>2</v>
-      </c>
-      <c r="M284">
-        <v>-16.13829835827584</v>
-      </c>
-      <c r="N284">
-        <v>1.5</v>
-      </c>
-      <c r="O284">
-        <v>1.2</v>
-      </c>
-      <c r="P284">
-        <v>1.5</v>
-      </c>
-      <c r="Q284">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="R284">
-        <v>2</v>
-      </c>
-      <c r="S284">
-        <v>1.2</v>
-      </c>
-      <c r="T284">
-        <v>3</v>
-      </c>
-      <c r="U284">
-        <v>0.72314801614797197</v>
-      </c>
-    </row>
-    <row r="285" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="M284" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="285" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
-        <v>158</v>
+        <v>85</v>
       </c>
       <c r="B285">
-        <v>1.176E-6</v>
+        <v>9.7019999999999996E-6</v>
       </c>
       <c r="C285" t="s">
         <v>8</v>
@@ -11680,7 +11506,7 @@
         <v>2</v>
       </c>
       <c r="M285">
-        <v>-13.653391708487838</v>
+        <v>-11.543178508141249</v>
       </c>
       <c r="N285">
         <v>1.5</v>
@@ -11707,12 +11533,12 @@
         <v>0.51215847306170115</v>
       </c>
     </row>
-    <row r="286" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B286">
-        <v>1.96E-8</v>
+        <v>9.8000000000000001E-9</v>
       </c>
       <c r="C286" t="s">
         <v>8</v>
@@ -11736,7 +11562,7 @@
         <v>2</v>
       </c>
       <c r="M286">
-        <v>-17.74773627070994</v>
+        <v>-18.440883451269883</v>
       </c>
       <c r="N286">
         <v>1.5</v>
@@ -11757,18 +11583,18 @@
         <v>1.2</v>
       </c>
       <c r="T286">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="U286">
-        <v>0.51215847306170115</v>
-      </c>
-    </row>
-    <row r="287" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+        <v>0.72314801614797197</v>
+      </c>
+    </row>
+    <row r="287" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B287">
-        <v>4.8999999999999997E-7</v>
+        <v>9.8000000000000004E-8</v>
       </c>
       <c r="C287" t="s">
         <v>8</v>
@@ -11792,7 +11618,7 @@
         <v>2</v>
       </c>
       <c r="M287">
-        <v>-14.528860445841739</v>
+        <v>-16.13829835827584</v>
       </c>
       <c r="N287">
         <v>1.5</v>
@@ -11813,18 +11639,18 @@
         <v>1.2</v>
       </c>
       <c r="T287">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="U287">
-        <v>0.51215847306170115</v>
-      </c>
-    </row>
-    <row r="288" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+        <v>0.72314801614797197</v>
+      </c>
+    </row>
+    <row r="288" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B288">
-        <v>1.9600000000000001E-7</v>
+        <v>1.176E-6</v>
       </c>
       <c r="C288" t="s">
         <v>8</v>
@@ -11848,7 +11674,7 @@
         <v>2</v>
       </c>
       <c r="M288">
-        <v>-15.445151177715895</v>
+        <v>-13.653391708487838</v>
       </c>
       <c r="N288">
         <v>1.5</v>
@@ -11875,18 +11701,18 @@
         <v>0.51215847306170115</v>
       </c>
     </row>
-    <row r="289" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B289">
-        <v>1.2739999999999999E-7</v>
+        <v>1.96E-8</v>
       </c>
       <c r="C289" t="s">
         <v>8</v>
       </c>
       <c r="D289" t="s">
-        <v>163</v>
+        <v>142</v>
       </c>
       <c r="F289" t="s">
         <v>55</v>
@@ -11904,7 +11730,7 @@
         <v>2</v>
       </c>
       <c r="M289">
-        <v>-15.875934093808349</v>
+        <v>-17.74773627070994</v>
       </c>
       <c r="N289">
         <v>1.5</v>
@@ -11931,18 +11757,18 @@
         <v>0.51215847306170115</v>
       </c>
     </row>
-    <row r="290" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B290">
-        <v>2.9400000000000002E-9</v>
+        <v>4.8999999999999997E-7</v>
       </c>
       <c r="C290" t="s">
         <v>8</v>
       </c>
       <c r="D290" t="s">
-        <v>163</v>
+        <v>142</v>
       </c>
       <c r="F290" t="s">
         <v>55</v>
@@ -11960,7 +11786,7 @@
         <v>2</v>
       </c>
       <c r="M290">
-        <v>-19.644856255595823</v>
+        <v>-14.528860445841739</v>
       </c>
       <c r="N290">
         <v>1.5</v>
@@ -11987,18 +11813,18 @@
         <v>0.51215847306170115</v>
       </c>
     </row>
-    <row r="291" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B291">
-        <v>4.9000000000000002E-8</v>
+        <v>1.9600000000000001E-7</v>
       </c>
       <c r="C291" t="s">
         <v>8</v>
       </c>
       <c r="D291" t="s">
-        <v>163</v>
+        <v>142</v>
       </c>
       <c r="F291" t="s">
         <v>55</v>
@@ -12016,7 +11842,7 @@
         <v>2</v>
       </c>
       <c r="M291">
-        <v>-16.831445538835784</v>
+        <v>-15.445151177715895</v>
       </c>
       <c r="N291">
         <v>1.5</v>
@@ -12043,12 +11869,12 @@
         <v>0.51215847306170115</v>
       </c>
     </row>
-    <row r="292" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="B292">
-        <v>4.9000000000000002E-8</v>
+        <v>1.2739999999999999E-7</v>
       </c>
       <c r="C292" t="s">
         <v>8</v>
@@ -12072,7 +11898,7 @@
         <v>2</v>
       </c>
       <c r="M292">
-        <v>-16.831445538835784</v>
+        <v>-15.875934093808349</v>
       </c>
       <c r="N292">
         <v>1.5</v>
@@ -12099,15 +11925,176 @@
         <v>0.51215847306170115</v>
       </c>
     </row>
+    <row r="293" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A293" t="s">
+        <v>164</v>
+      </c>
+      <c r="B293">
+        <v>2.9400000000000002E-9</v>
+      </c>
+      <c r="C293" t="s">
+        <v>8</v>
+      </c>
+      <c r="D293" t="s">
+        <v>163</v>
+      </c>
+      <c r="F293" t="s">
+        <v>55</v>
+      </c>
+      <c r="H293" t="s">
+        <v>56</v>
+      </c>
+      <c r="I293" t="s">
+        <v>143</v>
+      </c>
+      <c r="K293" t="s">
+        <v>134</v>
+      </c>
+      <c r="L293">
+        <v>2</v>
+      </c>
+      <c r="M293">
+        <v>-19.644856255595823</v>
+      </c>
+      <c r="N293">
+        <v>1.5</v>
+      </c>
+      <c r="O293">
+        <v>1.2</v>
+      </c>
+      <c r="P293">
+        <v>1.5</v>
+      </c>
+      <c r="Q293">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="R293">
+        <v>2</v>
+      </c>
+      <c r="S293">
+        <v>1.2</v>
+      </c>
+      <c r="T293">
+        <v>1.5</v>
+      </c>
+      <c r="U293">
+        <v>0.51215847306170115</v>
+      </c>
+    </row>
+    <row r="294" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A294" t="s">
+        <v>165</v>
+      </c>
+      <c r="B294">
+        <v>4.9000000000000002E-8</v>
+      </c>
+      <c r="C294" t="s">
+        <v>8</v>
+      </c>
+      <c r="D294" t="s">
+        <v>163</v>
+      </c>
+      <c r="F294" t="s">
+        <v>55</v>
+      </c>
+      <c r="H294" t="s">
+        <v>56</v>
+      </c>
+      <c r="I294" t="s">
+        <v>143</v>
+      </c>
+      <c r="K294" t="s">
+        <v>134</v>
+      </c>
+      <c r="L294">
+        <v>2</v>
+      </c>
+      <c r="M294">
+        <v>-16.831445538835784</v>
+      </c>
+      <c r="N294">
+        <v>1.5</v>
+      </c>
+      <c r="O294">
+        <v>1.2</v>
+      </c>
+      <c r="P294">
+        <v>1.5</v>
+      </c>
+      <c r="Q294">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="R294">
+        <v>2</v>
+      </c>
+      <c r="S294">
+        <v>1.2</v>
+      </c>
+      <c r="T294">
+        <v>1.5</v>
+      </c>
+      <c r="U294">
+        <v>0.51215847306170115</v>
+      </c>
+    </row>
+    <row r="295" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A295" t="s">
+        <v>166</v>
+      </c>
+      <c r="B295">
+        <v>4.9000000000000002E-8</v>
+      </c>
+      <c r="C295" t="s">
+        <v>8</v>
+      </c>
+      <c r="D295" t="s">
+        <v>163</v>
+      </c>
+      <c r="F295" t="s">
+        <v>55</v>
+      </c>
+      <c r="H295" t="s">
+        <v>56</v>
+      </c>
+      <c r="I295" t="s">
+        <v>143</v>
+      </c>
+      <c r="K295" t="s">
+        <v>134</v>
+      </c>
+      <c r="L295">
+        <v>2</v>
+      </c>
+      <c r="M295">
+        <v>-16.831445538835784</v>
+      </c>
+      <c r="N295">
+        <v>1.5</v>
+      </c>
+      <c r="O295">
+        <v>1.2</v>
+      </c>
+      <c r="P295">
+        <v>1.5</v>
+      </c>
+      <c r="Q295">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="R295">
+        <v>2</v>
+      </c>
+      <c r="S295">
+        <v>1.2</v>
+      </c>
+      <c r="T295">
+        <v>1.5</v>
+      </c>
+      <c r="U295">
+        <v>0.51215847306170115</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:W292" xr:uid="{0E2FA153-E6EA-3E4B-BE1A-EC0443996927}">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="biomethane, gaseous, 5 bar, from sewage sludge fermentation, at fuelling station"/>
-        <filter val="heat, residential, by combustion of biomethane using boiler, distributed by pipeline"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:W295" xr:uid="{0E2FA153-E6EA-3E4B-BE1A-EC0443996927}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>

--- a/premise/data/additional_inventories/lci-hydrogen-heating.xlsx
+++ b/premise/data/additional_inventories/lci-hydrogen-heating.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romain/GitHub/premise/premise/data/additional_inventories/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romain/Github/premise/premise/data/additional_inventories/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8EA68D4-10A3-094B-91FF-3769EBF526EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42C7D59E-721F-374A-AC58-A52C2F3C062E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4440" yWindow="760" windowWidth="25800" windowHeight="18880" xr2:uid="{CF516D2F-FFD4-214F-BF62-5C2F0868DC96}"/>
   </bookViews>
@@ -578,10 +578,10 @@
     <t>This dataset represents the supply of 1 kilogram of hydrogen. It does NOT include teh hydrogen input, but only the share of input lost to the atmosphere. The hydrogen is distributed by pipeline over 250 km to the regional storage (Geological cavity) and transported another 250 km to the consumer.  The hydrogen represents the market average for the region. Transmission loss [% output]: 0.0007125%. Regional storage loss [% output]: 0.69.  Arrives at 30 bar of pressure. For more information, refer to: Sacchi, R. and Bauer, C. LCA of Power-to-X processes and applications in the residential sector. Paul Scherrer Institut, 2023.</t>
   </si>
   <si>
-    <t>market for hydrogen, gaseous, low pressure</t>
-  </si>
-  <si>
-    <t>hydrogen, gaseous, low pressure</t>
+    <t>market for hydrogen, gaseous</t>
+  </si>
+  <si>
+    <t>hydrogen, gaseous</t>
   </si>
 </sst>
 </file>
@@ -993,7 +993,7 @@
   <dimension ref="A1:W294"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="G36" sqref="G36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1181,7 +1181,7 @@
         <v>8</v>
       </c>
       <c r="E13" t="s">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="F13" t="s">
         <v>29</v>
@@ -1987,12 +1987,12 @@
         <v>8</v>
       </c>
       <c r="E35" t="s">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="F35" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="G35" s="4" t="s">
+      <c r="G35" t="s">
         <v>180</v>
       </c>
       <c r="H35" s="4" t="s">
@@ -2043,12 +2043,12 @@
         <v>8</v>
       </c>
       <c r="E36" t="s">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="F36" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="G36" s="4" t="s">
+      <c r="G36" t="s">
         <v>180</v>
       </c>
       <c r="H36" s="4" t="s">
@@ -2647,12 +2647,12 @@
         <v>8</v>
       </c>
       <c r="E55" t="s">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="F55" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="G55" s="4" t="s">
+      <c r="G55" t="s">
         <v>180</v>
       </c>
       <c r="H55" s="4" t="s">
@@ -2703,12 +2703,12 @@
         <v>8</v>
       </c>
       <c r="E56" t="s">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="F56" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="G56" s="4" t="s">
+      <c r="G56" t="s">
         <v>180</v>
       </c>
       <c r="H56" s="4" t="s">
@@ -3086,12 +3086,12 @@
         <v>8</v>
       </c>
       <c r="E71" t="s">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="F71" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="G71" s="4" t="s">
+      <c r="G71" t="s">
         <v>180</v>
       </c>
       <c r="H71" s="4" t="s">
@@ -3142,12 +3142,12 @@
         <v>8</v>
       </c>
       <c r="E72" t="s">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="F72" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="G72" s="4" t="s">
+      <c r="G72" t="s">
         <v>180</v>
       </c>
       <c r="H72" s="4" t="s">
@@ -3581,12 +3581,12 @@
         <v>8</v>
       </c>
       <c r="E88" t="s">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="F88" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="G88" s="4" t="s">
+      <c r="G88" t="s">
         <v>180</v>
       </c>
       <c r="H88" s="4" t="s">
@@ -3637,12 +3637,12 @@
         <v>8</v>
       </c>
       <c r="E89" t="s">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="F89" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="G89" s="4" t="s">
+      <c r="G89" t="s">
         <v>180</v>
       </c>
       <c r="H89" s="4" t="s">
@@ -4229,12 +4229,12 @@
         <v>8</v>
       </c>
       <c r="E108" t="s">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="F108" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="G108" s="4" t="s">
+      <c r="G108" t="s">
         <v>180</v>
       </c>
       <c r="H108" s="4" t="s">
@@ -4291,12 +4291,12 @@
         <v>8</v>
       </c>
       <c r="E109" t="s">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="F109" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="G109" s="4" t="s">
+      <c r="G109" t="s">
         <v>180</v>
       </c>
       <c r="H109" s="4" t="s">
@@ -4712,12 +4712,12 @@
         <v>8</v>
       </c>
       <c r="E125" t="s">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="F125" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="G125" s="4" t="s">
+      <c r="G125" t="s">
         <v>180</v>
       </c>
       <c r="H125" s="4" t="s">
@@ -4774,12 +4774,12 @@
         <v>8</v>
       </c>
       <c r="E126" t="s">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="F126" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="G126" s="4" t="s">
+      <c r="G126" t="s">
         <v>180</v>
       </c>
       <c r="H126" s="4" t="s">
@@ -5254,12 +5254,12 @@
         <v>8</v>
       </c>
       <c r="E143" t="s">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="F143" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="G143" s="4" t="s">
+      <c r="G143" t="s">
         <v>180</v>
       </c>
       <c r="H143" s="4" t="s">
@@ -5316,12 +5316,12 @@
         <v>8</v>
       </c>
       <c r="E144" t="s">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="F144" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="G144" s="4" t="s">
+      <c r="G144" t="s">
         <v>180</v>
       </c>
       <c r="H144" s="4" t="s">
